--- a/MUSCOArm.xlsx
+++ b/MUSCOArm.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugenem\Documents\GitHub\EquipTestingSpreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275B91F3-E44C-4541-8567-D6EB0EEA69B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80184F9B-B3D1-40DF-8CFA-20FF0CCD625F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{600693EE-9BB5-4437-A85F-4343B57EC4B0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{600693EE-9BB5-4437-A85F-4343B57EC4B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId2"/>
-    <sheet name="Tables" sheetId="3" r:id="rId3"/>
-    <sheet name="Data Entry" sheetId="4" r:id="rId4"/>
+    <sheet name="Tables" sheetId="3" r:id="rId2"/>
+    <sheet name="Data Entry" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="ACRPhantom">#REF!</definedName>
@@ -160,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="385">
   <si>
     <t>Survey ID:</t>
   </si>
@@ -1272,144 +1271,9 @@
     <t>Revision 1.0-20230427</t>
   </si>
   <si>
-    <t>Protocol name:</t>
-  </si>
-  <si>
-    <t>mAs:</t>
-  </si>
-  <si>
-    <t>Time/rotation (s):</t>
-  </si>
-  <si>
-    <t>Scan FOV (cm):</t>
-  </si>
-  <si>
-    <t>Display FOV (cm):</t>
-  </si>
-  <si>
-    <t>Z-Axis collimation:</t>
-  </si>
-  <si>
-    <t>Recon scan width (mm):</t>
-  </si>
-  <si>
-    <t>Recon scan interval (mm):</t>
-  </si>
-  <si>
-    <t>Indiated CTDIvol (mGy):</t>
-  </si>
-  <si>
-    <t>CTDI Measurements</t>
-  </si>
-  <si>
-    <t>Meter:</t>
-  </si>
-  <si>
-    <t>Serial #:</t>
-  </si>
-  <si>
-    <t>Beam width (mm):</t>
-  </si>
-  <si>
-    <t>Chamber length (mm):</t>
-  </si>
-  <si>
-    <t>Chamber correction factor:</t>
-  </si>
-  <si>
-    <t>Indicated CTDIvol (mGy):</t>
-  </si>
-  <si>
-    <t>Center (mGy)</t>
-  </si>
-  <si>
-    <t>Center CTDI (mGy):</t>
-  </si>
-  <si>
-    <t>Periphery (mGy)</t>
-  </si>
-  <si>
-    <t>Periphery CTDI (mGy):</t>
-  </si>
-  <si>
-    <t>CTDIw (mGy):</t>
-  </si>
-  <si>
-    <t>Phantom size indicated (cm)</t>
-  </si>
-  <si>
-    <t>Phantom size used (cm)</t>
-  </si>
-  <si>
-    <t>Previous year:</t>
-  </si>
-  <si>
-    <t>Variation from prev year:</t>
-  </si>
-  <si>
     <t>Variation from indicated:</t>
   </si>
   <si>
-    <t>Protocol:</t>
-  </si>
-  <si>
-    <t>Reference</t>
-  </si>
-  <si>
-    <t>Pass/Fail</t>
-  </si>
-  <si>
-    <t>Adult Abdomen</t>
-  </si>
-  <si>
-    <t>Adult Head:</t>
-  </si>
-  <si>
-    <t>Ped Abd (16cm)</t>
-  </si>
-  <si>
-    <t>Ped Abd (32cm)</t>
-  </si>
-  <si>
-    <t>Pediatric Head:</t>
-  </si>
-  <si>
-    <t>CT Measurement Protocols</t>
-  </si>
-  <si>
-    <t>Protocol 1:</t>
-  </si>
-  <si>
-    <t>Protocol 2:</t>
-  </si>
-  <si>
-    <t>Protocol 3:</t>
-  </si>
-  <si>
-    <t># of channels:</t>
-  </si>
-  <si>
-    <t>Protocol 1</t>
-  </si>
-  <si>
-    <t>Protocol 2</t>
-  </si>
-  <si>
-    <t>Protocol 3</t>
-  </si>
-  <si>
-    <t>Indiated CTDI (mGy):</t>
-  </si>
-  <si>
-    <t>CTDIw/100 mAs:</t>
-  </si>
-  <si>
-    <t>Prev CTDIw/100 mAs:</t>
-  </si>
-  <si>
-    <t>CBCT CTDI</t>
-  </si>
-  <si>
     <t>Top</t>
   </si>
   <si>
@@ -1422,58 +1286,44 @@
     <t>Bottom</t>
   </si>
   <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>f(center)</t>
-  </si>
-  <si>
-    <t>f(top)</t>
-  </si>
-  <si>
-    <t>f(left)</t>
-  </si>
-  <si>
-    <t>f(right)</t>
-  </si>
-  <si>
-    <t>f(bottom)</t>
-  </si>
-  <si>
-    <t>f(0)</t>
-  </si>
-  <si>
-    <t>Top-left</t>
-  </si>
-  <si>
-    <t>Top-right</t>
-  </si>
-  <si>
-    <t>Bottom-left</t>
-  </si>
-  <si>
-    <t>Bottom-right</t>
-  </si>
-  <si>
-    <t>f(TL)</t>
-  </si>
-  <si>
-    <t>f(TR)</t>
-  </si>
-  <si>
-    <t>f(BL)</t>
-  </si>
-  <si>
-    <t>f(BR)</t>
+    <t>CBCT</t>
+  </si>
+  <si>
+    <t>CTDI:</t>
+  </si>
+  <si>
+    <t>Planar Average Dose Profile</t>
+  </si>
+  <si>
+    <t>Center</t>
+  </si>
+  <si>
+    <t>SD:</t>
+  </si>
+  <si>
+    <t>Average:</t>
+  </si>
+  <si>
+    <t>f(0):</t>
+  </si>
+  <si>
+    <t>Previous f(0):</t>
+  </si>
+  <si>
+    <t>Variation from previous:</t>
+  </si>
+  <si>
+    <t>CBCT comments:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="[$-409]d/mmm/yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -2757,7 +2607,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="232">
+  <cellXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3020,9 +2870,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3062,20 +2909,11 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3101,21 +2939,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3137,9 +2960,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3165,9 +2985,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3290,19 +3107,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3351,36 +3155,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3433,7 +3227,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3767,47 +3590,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BEA88C4-1284-4C64-BB6C-010FE3A7F641}">
-  <dimension ref="B1:S309"/>
+  <dimension ref="B1:S298"/>
   <sheetViews>
-    <sheetView topLeftCell="B276" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G304" sqref="G304"/>
+    <sheetView tabSelected="1" topLeftCell="A266" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="K270" sqref="K270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16" width="10.625" style="1"/>
     <col min="17" max="17" width="10.625" style="5"/>
-    <col min="18" max="18" width="10.625" style="121"/>
+    <col min="18" max="18" width="10.625" style="112"/>
     <col min="19" max="19" width="10.625" style="5"/>
     <col min="20" max="16384" width="10.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:19" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="138" t="s">
+      <c r="B1" s="127" t="s">
         <v>369</v>
       </c>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="140"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="129"/>
       <c r="P1" s="1" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="141"/>
+      <c r="B2" s="130"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="201" t="s">
+      <c r="G2" s="181" t="s">
         <v>28</v>
       </c>
       <c r="H2" s="2"/>
@@ -3815,16 +3638,16 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="M2" s="142"/>
+      <c r="M2" s="131"/>
       <c r="P2" s="8"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="141"/>
+      <c r="B3" s="130"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="201" t="s">
+      <c r="G3" s="181" t="s">
         <v>29</v>
       </c>
       <c r="H3" s="2"/>
@@ -3832,25 +3655,25 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="142"/>
+      <c r="M3" s="131"/>
       <c r="P3" s="7" t="str">
         <f>IF(Q7="","",Q7)</f>
         <v/>
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B4" s="141"/>
+      <c r="B4" s="130"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="117"/>
+      <c r="G4" s="185"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
-      <c r="M4" s="142"/>
+      <c r="M4" s="131"/>
       <c r="P4" s="4" t="s">
         <v>284</v>
       </c>
@@ -3859,20 +3682,20 @@
       </c>
     </row>
     <row r="5" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="143"/>
-      <c r="C5" s="144"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="202" t="s">
+      <c r="B5" s="132"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="182" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="144"/>
-      <c r="K5" s="144"/>
-      <c r="L5" s="144"/>
-      <c r="M5" s="146"/>
+      <c r="H5" s="133"/>
+      <c r="I5" s="133"/>
+      <c r="J5" s="133"/>
+      <c r="K5" s="133"/>
+      <c r="L5" s="133"/>
+      <c r="M5" s="135"/>
     </row>
     <row r="6" spans="2:19" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C6" s="4" t="s">
@@ -3901,78 +3724,78 @@
       <c r="C7" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="D7" s="147" t="str">
+      <c r="D7" s="136" t="str">
         <f>IF(Q8="","",Q8)</f>
         <v/>
       </c>
       <c r="P7" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="Q7" s="122"/>
-      <c r="R7" s="121" t="str">
+      <c r="Q7" s="113"/>
+      <c r="R7" s="112" t="str">
         <f>IF(Q7&lt;&gt;S7,"Change","")</f>
         <v/>
       </c>
-      <c r="S7" s="120" t="str">
+      <c r="S7" s="111" t="str">
         <f>IF(OR(P2="",P2=0),"",P2)</f>
         <v/>
       </c>
     </row>
     <row r="8" spans="2:19" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="138"/>
-      <c r="C8" s="139"/>
-      <c r="D8" s="139"/>
-      <c r="E8" s="139"/>
-      <c r="F8" s="139"/>
-      <c r="G8" s="148" t="s">
+      <c r="B8" s="127"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="128"/>
+      <c r="E8" s="128"/>
+      <c r="F8" s="128"/>
+      <c r="G8" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="139"/>
-      <c r="I8" s="139"/>
-      <c r="J8" s="139"/>
-      <c r="K8" s="139"/>
-      <c r="L8" s="139"/>
-      <c r="M8" s="140"/>
+      <c r="H8" s="128"/>
+      <c r="I8" s="128"/>
+      <c r="J8" s="128"/>
+      <c r="K8" s="128"/>
+      <c r="L8" s="128"/>
+      <c r="M8" s="129"/>
       <c r="P8" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="Q8" s="122"/>
-      <c r="S8" s="123" t="str">
+      <c r="Q8" s="113"/>
+      <c r="S8" s="114" t="str">
         <f>IF(D6="","",D6)</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="141"/>
+      <c r="B9" s="130"/>
       <c r="C9" s="10" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="149" t="s">
+      <c r="E9" s="138" t="s">
         <v>31</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="149" t="s">
+      <c r="J9" s="138" t="s">
         <v>31</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="142"/>
+      <c r="M9" s="131"/>
       <c r="P9" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="Q9" s="122"/>
-      <c r="S9" s="123" t="str">
+      <c r="Q9" s="113"/>
+      <c r="S9" s="114" t="str">
         <f>IF(L6="","",L6)</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="141"/>
-      <c r="C10" s="150" t="s">
+      <c r="B10" s="130"/>
+      <c r="C10" s="139" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="7" t="str">
@@ -3982,7 +3805,7 @@
       <c r="E10" s="8"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="150" t="s">
+      <c r="H10" s="139" t="s">
         <v>14</v>
       </c>
       <c r="I10" s="7" t="str">
@@ -3992,19 +3815,19 @@
       <c r="J10" s="8"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="142"/>
+      <c r="M10" s="131"/>
       <c r="P10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="Q10" s="122"/>
-      <c r="S10" s="123" t="str">
+      <c r="Q10" s="113"/>
+      <c r="S10" s="114" t="str">
         <f>IF(E10="","",E10)</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="141"/>
-      <c r="C11" s="150" t="s">
+      <c r="B11" s="130"/>
+      <c r="C11" s="139" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="7" t="str">
@@ -4014,7 +3837,7 @@
       <c r="E11" s="8"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="150" t="s">
+      <c r="H11" s="139" t="s">
         <v>15</v>
       </c>
       <c r="I11" s="7" t="str">
@@ -4024,19 +3847,19 @@
       <c r="J11" s="8"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="142"/>
+      <c r="M11" s="131"/>
       <c r="P11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Q11" s="122"/>
-      <c r="S11" s="123" t="str">
+      <c r="Q11" s="113"/>
+      <c r="S11" s="114" t="str">
         <f t="shared" ref="S11:S14" si="0">IF(E11="","",E11)</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="141"/>
-      <c r="C12" s="150" t="s">
+      <c r="B12" s="130"/>
+      <c r="C12" s="139" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="7" t="str">
@@ -4046,7 +3869,7 @@
       <c r="E12" s="8"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="150" t="s">
+      <c r="H12" s="139" t="s">
         <v>16</v>
       </c>
       <c r="I12" s="7" t="str">
@@ -4056,19 +3879,19 @@
       <c r="J12" s="8"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="142"/>
+      <c r="M12" s="131"/>
       <c r="P12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="Q12" s="122"/>
-      <c r="S12" s="123" t="str">
+      <c r="Q12" s="113"/>
+      <c r="S12" s="114" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B13" s="141"/>
-      <c r="C13" s="150" t="s">
+      <c r="B13" s="130"/>
+      <c r="C13" s="139" t="s">
         <v>0</v>
       </c>
       <c r="D13" s="7" t="str">
@@ -4078,7 +3901,7 @@
       <c r="E13" s="8"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="150" t="s">
+      <c r="H13" s="139" t="s">
         <v>296</v>
       </c>
       <c r="I13" s="7" t="str">
@@ -4088,19 +3911,19 @@
       <c r="J13" s="8"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="142"/>
+      <c r="M13" s="131"/>
       <c r="P13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="Q13" s="122"/>
-      <c r="S13" s="123" t="str">
+      <c r="Q13" s="113"/>
+      <c r="S13" s="114" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="141"/>
-      <c r="C14" s="150" t="s">
+      <c r="B14" s="130"/>
+      <c r="C14" s="139" t="s">
         <v>289</v>
       </c>
       <c r="D14" s="7" t="str">
@@ -4115,18 +3938,18 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="142"/>
+      <c r="M14" s="131"/>
       <c r="P14" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="Q14" s="122"/>
-      <c r="S14" s="123" t="str">
+      <c r="Q14" s="113"/>
+      <c r="S14" s="114" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B15" s="141"/>
+      <c r="B15" s="130"/>
       <c r="C15" s="10" t="s">
         <v>5</v>
       </c>
@@ -4139,19 +3962,19 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="142"/>
+      <c r="M15" s="131"/>
       <c r="P15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Q15" s="122"/>
-      <c r="S15" s="123" t="str">
+      <c r="Q15" s="113"/>
+      <c r="S15" s="114" t="str">
         <f>IF(J10="","",J10)</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B16" s="141"/>
-      <c r="C16" s="150" t="s">
+      <c r="B16" s="130"/>
+      <c r="C16" s="139" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="7" t="str">
@@ -4161,7 +3984,7 @@
       <c r="E16" s="8"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="150" t="s">
+      <c r="H16" s="139" t="s">
         <v>10</v>
       </c>
       <c r="I16" s="7" t="str">
@@ -4171,19 +3994,19 @@
       <c r="J16" s="8"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="142"/>
+      <c r="M16" s="131"/>
       <c r="P16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q16" s="122"/>
-      <c r="S16" s="123" t="str">
+      <c r="Q16" s="113"/>
+      <c r="S16" s="114" t="str">
         <f t="shared" ref="S16:S17" si="1">IF(J11="","",J11)</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="141"/>
-      <c r="C17" s="150" t="s">
+      <c r="B17" s="130"/>
+      <c r="C17" s="139" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="7" t="str">
@@ -4193,7 +4016,7 @@
       <c r="E17" s="8"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="150" t="s">
+      <c r="H17" s="139" t="s">
         <v>12</v>
       </c>
       <c r="I17" s="7" t="str">
@@ -4203,19 +4026,19 @@
       <c r="J17" s="8"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="142"/>
+      <c r="M17" s="131"/>
       <c r="P17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q17" s="122"/>
-      <c r="S17" s="123" t="str">
+      <c r="Q17" s="113"/>
+      <c r="S17" s="114" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="141"/>
-      <c r="C18" s="150" t="s">
+      <c r="B18" s="130"/>
+      <c r="C18" s="139" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="7" t="str">
@@ -4225,7 +4048,7 @@
       <c r="E18" s="8"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="150" t="s">
+      <c r="H18" s="139" t="s">
         <v>17</v>
       </c>
       <c r="I18" s="7" t="str">
@@ -4235,24 +4058,24 @@
       <c r="J18" s="8"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="142"/>
+      <c r="M18" s="131"/>
       <c r="P18" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="Q18" s="122"/>
-      <c r="S18" s="123" t="str">
+      <c r="Q18" s="113"/>
+      <c r="S18" s="114" t="str">
         <f>IF(J13="","",J13)</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B19" s="141"/>
+      <c r="B19" s="130"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="150" t="s">
+      <c r="H19" s="139" t="s">
         <v>18</v>
       </c>
       <c r="I19" s="7" t="str">
@@ -4262,13 +4085,13 @@
       <c r="J19" s="8"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="142"/>
+      <c r="M19" s="131"/>
       <c r="P19" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B20" s="141"/>
+      <c r="B20" s="130"/>
       <c r="C20" s="10" t="s">
         <v>26</v>
       </c>
@@ -4281,19 +4104,19 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="142"/>
+      <c r="M20" s="131"/>
       <c r="P20" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="Q20" s="122"/>
-      <c r="S20" s="123" t="str">
+      <c r="Q20" s="113"/>
+      <c r="S20" s="114" t="str">
         <f>IF(E16="","",E16)</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B21" s="141"/>
-      <c r="C21" s="150" t="s">
+      <c r="B21" s="130"/>
+      <c r="C21" s="139" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="7" t="str">
@@ -4310,19 +4133,19 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
-      <c r="M21" s="142"/>
+      <c r="M21" s="131"/>
       <c r="P21" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Q21" s="122"/>
-      <c r="S21" s="123" t="str">
+      <c r="Q21" s="113"/>
+      <c r="S21" s="114" t="str">
         <f t="shared" ref="S21:S22" si="2">IF(E17="","",E17)</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B22" s="141"/>
-      <c r="C22" s="150" t="s">
+      <c r="B22" s="130"/>
+      <c r="C22" s="139" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="7" t="str">
@@ -4332,7 +4155,7 @@
       <c r="E22" s="8"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="150" t="s">
+      <c r="H22" s="139" t="s">
         <v>20</v>
       </c>
       <c r="I22" s="7" t="str">
@@ -4342,18 +4165,18 @@
       <c r="J22" s="8"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
-      <c r="M22" s="142"/>
+      <c r="M22" s="131"/>
       <c r="P22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Q22" s="122"/>
-      <c r="S22" s="123" t="str">
+      <c r="Q22" s="113"/>
+      <c r="S22" s="114" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B23" s="141"/>
+      <c r="B23" s="130"/>
       <c r="C23" s="10" t="s">
         <v>11</v>
       </c>
@@ -4361,7 +4184,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="150" t="s">
+      <c r="H23" s="139" t="s">
         <v>21</v>
       </c>
       <c r="I23" s="7" t="str">
@@ -4371,19 +4194,19 @@
       <c r="J23" s="8"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
-      <c r="M23" s="142"/>
+      <c r="M23" s="131"/>
       <c r="P23" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="Q23" s="122"/>
-      <c r="S23" s="123" t="str">
+      <c r="Q23" s="113"/>
+      <c r="S23" s="114" t="str">
         <f>IF(J16="","",J16)</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B24" s="141"/>
-      <c r="C24" s="150" t="s">
+      <c r="B24" s="130"/>
+      <c r="C24" s="139" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="7" t="str">
@@ -4393,7 +4216,7 @@
       <c r="E24" s="8"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="150" t="s">
+      <c r="H24" s="139" t="s">
         <v>22</v>
       </c>
       <c r="I24" s="7" t="str">
@@ -4403,19 +4226,19 @@
       <c r="J24" s="8"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
-      <c r="M24" s="142"/>
+      <c r="M24" s="131"/>
       <c r="P24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Q24" s="122"/>
-      <c r="S24" s="123" t="str">
+      <c r="Q24" s="113"/>
+      <c r="S24" s="114" t="str">
         <f t="shared" ref="S24:S26" si="3">IF(J17="","",J17)</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B25" s="141"/>
-      <c r="C25" s="150" t="s">
+      <c r="B25" s="130"/>
+      <c r="C25" s="139" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="7" t="str">
@@ -4430,19 +4253,19 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
-      <c r="M25" s="142"/>
+      <c r="M25" s="131"/>
       <c r="P25" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="Q25" s="122"/>
-      <c r="S25" s="123" t="str">
+      <c r="Q25" s="113"/>
+      <c r="S25" s="114" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="141"/>
-      <c r="C26" s="150" t="s">
+      <c r="B26" s="130"/>
+      <c r="C26" s="139" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="7" t="str">
@@ -4459,18 +4282,18 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
-      <c r="M26" s="142"/>
+      <c r="M26" s="131"/>
       <c r="P26" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="Q26" s="122"/>
-      <c r="S26" s="123" t="str">
+      <c r="Q26" s="113"/>
+      <c r="S26" s="114" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B27" s="141"/>
+      <c r="B27" s="130"/>
       <c r="C27" s="10" t="s">
         <v>13</v>
       </c>
@@ -4478,7 +4301,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="150" t="s">
+      <c r="H27" s="139" t="s">
         <v>24</v>
       </c>
       <c r="I27" s="7" t="str">
@@ -4488,14 +4311,14 @@
       <c r="J27" s="8"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
-      <c r="M27" s="142"/>
+      <c r="M27" s="131"/>
       <c r="P27" s="9" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B28" s="141"/>
-      <c r="C28" s="150" t="s">
+      <c r="B28" s="130"/>
+      <c r="C28" s="139" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="7" t="str">
@@ -4505,7 +4328,7 @@
       <c r="E28" s="8"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="150" t="s">
+      <c r="H28" s="139" t="s">
         <v>25</v>
       </c>
       <c r="I28" s="7" t="str">
@@ -4515,19 +4338,19 @@
       <c r="J28" s="8"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
-      <c r="M28" s="142"/>
+      <c r="M28" s="131"/>
       <c r="P28" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="Q28" s="122"/>
-      <c r="S28" s="123" t="str">
+      <c r="Q28" s="113"/>
+      <c r="S28" s="114" t="str">
         <f>IF(E21="","",E21)</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B29" s="141"/>
-      <c r="C29" s="150" t="s">
+      <c r="B29" s="130"/>
+      <c r="C29" s="139" t="s">
         <v>7</v>
       </c>
       <c r="D29" s="7" t="str">
@@ -4542,19 +4365,19 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
-      <c r="M29" s="142"/>
+      <c r="M29" s="131"/>
       <c r="P29" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="Q29" s="122"/>
-      <c r="S29" s="123" t="str">
+      <c r="Q29" s="113"/>
+      <c r="S29" s="114" t="str">
         <f>IF(E22="","",E22)</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B30" s="141"/>
-      <c r="C30" s="150" t="s">
+      <c r="B30" s="130"/>
+      <c r="C30" s="139" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="7" t="str">
@@ -4569,34 +4392,34 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
-      <c r="M30" s="142"/>
+      <c r="M30" s="131"/>
       <c r="P30" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="Q30" s="122"/>
-      <c r="S30" s="123" t="str">
+      <c r="Q30" s="113"/>
+      <c r="S30" s="114" t="str">
         <f>IF(E24="","",E24)</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="143"/>
-      <c r="C31" s="144"/>
-      <c r="D31" s="144"/>
-      <c r="E31" s="144"/>
-      <c r="F31" s="144"/>
-      <c r="G31" s="144"/>
-      <c r="H31" s="144"/>
-      <c r="I31" s="144"/>
-      <c r="J31" s="144"/>
-      <c r="K31" s="144"/>
-      <c r="L31" s="144"/>
-      <c r="M31" s="146"/>
+      <c r="B31" s="132"/>
+      <c r="C31" s="133"/>
+      <c r="D31" s="133"/>
+      <c r="E31" s="133"/>
+      <c r="F31" s="133"/>
+      <c r="G31" s="133"/>
+      <c r="H31" s="133"/>
+      <c r="I31" s="133"/>
+      <c r="J31" s="133"/>
+      <c r="K31" s="133"/>
+      <c r="L31" s="133"/>
+      <c r="M31" s="135"/>
       <c r="P31" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Q31" s="122"/>
-      <c r="S31" s="123" t="str">
+      <c r="Q31" s="113"/>
+      <c r="S31" s="114" t="str">
         <f t="shared" ref="S31:S32" si="4">IF(E25="","",E25)</f>
         <v/>
       </c>
@@ -4605,8 +4428,8 @@
       <c r="P32" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Q32" s="122"/>
-      <c r="S32" s="123" t="str">
+      <c r="Q32" s="113"/>
+      <c r="S32" s="114" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -4615,42 +4438,42 @@
       <c r="P33" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="Q33" s="122"/>
-      <c r="S33" s="123" t="str">
+      <c r="Q33" s="113"/>
+      <c r="S33" s="114" t="str">
         <f>IF(E28="","",E28)</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="2:19" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="151" t="s">
+      <c r="B34" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="139"/>
-      <c r="D34" s="139"/>
-      <c r="E34" s="139"/>
-      <c r="F34" s="139"/>
-      <c r="G34" s="139"/>
-      <c r="H34" s="139"/>
-      <c r="I34" s="139"/>
-      <c r="J34" s="139"/>
-      <c r="K34" s="139"/>
-      <c r="L34" s="139"/>
-      <c r="M34" s="140"/>
+      <c r="C34" s="128"/>
+      <c r="D34" s="128"/>
+      <c r="E34" s="128"/>
+      <c r="F34" s="128"/>
+      <c r="G34" s="128"/>
+      <c r="H34" s="128"/>
+      <c r="I34" s="128"/>
+      <c r="J34" s="128"/>
+      <c r="K34" s="128"/>
+      <c r="L34" s="128"/>
+      <c r="M34" s="129"/>
       <c r="P34" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Q34" s="122"/>
-      <c r="S34" s="123" t="str">
+      <c r="Q34" s="113"/>
+      <c r="S34" s="114" t="str">
         <f t="shared" ref="S34:S35" si="5">IF(E29="","",E29)</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B35" s="152" t="str">
+      <c r="B35" s="141" t="str">
         <f>IF(C35&lt;&gt;"",C35,IF(OR(Q41=0,Q41=""),"",Q41))</f>
         <v/>
       </c>
-      <c r="C35" s="116"/>
+      <c r="C35" s="184"/>
       <c r="D35" s="2" t="s">
         <v>33</v>
       </c>
@@ -4658,27 +4481,27 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="150" t="s">
+      <c r="I35" s="139" t="s">
         <v>81</v>
       </c>
-      <c r="J35" s="124" t="str">
+      <c r="J35" s="115" t="str">
         <f>IF(K35&lt;&gt;"",K35,IF(Q42="","",Q42))</f>
         <v/>
       </c>
-      <c r="K35" s="116"/>
+      <c r="K35" s="184"/>
       <c r="L35" s="2"/>
-      <c r="M35" s="142"/>
+      <c r="M35" s="131"/>
       <c r="P35" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Q35" s="122"/>
-      <c r="S35" s="123" t="str">
+      <c r="Q35" s="113"/>
+      <c r="S35" s="114" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B36" s="141"/>
+      <c r="B36" s="130"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -4691,18 +4514,18 @@
       </c>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
-      <c r="M36" s="142"/>
+      <c r="M36" s="131"/>
       <c r="P36" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="Q36" s="122"/>
-      <c r="S36" s="123" t="str">
+      <c r="Q36" s="113"/>
+      <c r="S36" s="114" t="str">
         <f>IF(J22="","",J22)</f>
         <v/>
       </c>
     </row>
     <row r="37" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="153" t="s">
+      <c r="B37" s="142" t="s">
         <v>41</v>
       </c>
       <c r="C37" s="2"/>
@@ -4717,18 +4540,18 @@
       </c>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
-      <c r="M37" s="142"/>
+      <c r="M37" s="131"/>
       <c r="P37" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q37" s="122"/>
-      <c r="S37" s="123" t="str">
+      <c r="Q37" s="113"/>
+      <c r="S37" s="114" t="str">
         <f t="shared" ref="S37:S38" si="6">IF(J23="","",J23)</f>
         <v/>
       </c>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B38" s="154"/>
+      <c r="B38" s="143"/>
       <c r="C38" s="2" t="s">
         <v>34</v>
       </c>
@@ -4746,18 +4569,18 @@
         <v>1</v>
       </c>
       <c r="L38" s="2"/>
-      <c r="M38" s="142"/>
+      <c r="M38" s="131"/>
       <c r="P38" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Q38" s="122"/>
-      <c r="S38" s="123" t="str">
+      <c r="Q38" s="113"/>
+      <c r="S38" s="114" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B39" s="154"/>
+      <c r="B39" s="143"/>
       <c r="C39" s="2" t="s">
         <v>35</v>
       </c>
@@ -4775,14 +4598,14 @@
         <v>2</v>
       </c>
       <c r="L39" s="2"/>
-      <c r="M39" s="142"/>
+      <c r="M39" s="131"/>
       <c r="P39" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Q39" s="122"/>
+      <c r="Q39" s="113"/>
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B40" s="154"/>
+      <c r="B40" s="143"/>
       <c r="C40" s="2" t="s">
         <v>36</v>
       </c>
@@ -4800,18 +4623,18 @@
         <v>3</v>
       </c>
       <c r="L40" s="2"/>
-      <c r="M40" s="142"/>
+      <c r="M40" s="131"/>
       <c r="P40" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q40" s="122"/>
-      <c r="S40" s="123" t="str">
+      <c r="Q40" s="113"/>
+      <c r="S40" s="114" t="str">
         <f>IF(J27="","",J27)</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B41" s="154"/>
+      <c r="B41" s="143"/>
       <c r="C41" s="2" t="s">
         <v>37</v>
       </c>
@@ -4829,18 +4652,18 @@
         <v>84</v>
       </c>
       <c r="L41" s="2"/>
-      <c r="M41" s="142"/>
+      <c r="M41" s="131"/>
       <c r="P41" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="Q41" s="122"/>
-      <c r="S41" s="123" t="str">
+      <c r="Q41" s="113"/>
+      <c r="S41" s="114" t="str">
         <f>IF(C35="","",C35)</f>
         <v/>
       </c>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B42" s="154"/>
+      <c r="B42" s="143"/>
       <c r="C42" s="2" t="s">
         <v>38</v>
       </c>
@@ -4858,18 +4681,18 @@
         <v>85</v>
       </c>
       <c r="L42" s="2"/>
-      <c r="M42" s="142"/>
+      <c r="M42" s="131"/>
       <c r="P42" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="Q42" s="122"/>
-      <c r="S42" s="123" t="str">
+      <c r="Q42" s="113"/>
+      <c r="S42" s="114" t="str">
         <f>IF(K35="","",K35)</f>
         <v/>
       </c>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B43" s="154"/>
+      <c r="B43" s="143"/>
       <c r="C43" s="2" t="s">
         <v>39</v>
       </c>
@@ -4887,18 +4710,18 @@
         <v>86</v>
       </c>
       <c r="L43" s="2"/>
-      <c r="M43" s="142"/>
+      <c r="M43" s="131"/>
       <c r="P43" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="Q43" s="122"/>
-      <c r="S43" s="123">
+      <c r="Q43" s="113"/>
+      <c r="S43" s="114">
         <f t="shared" ref="S43:S50" si="8">IF(K38="","",K38)</f>
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B44" s="154"/>
+      <c r="B44" s="143"/>
       <c r="C44" s="2" t="s">
         <v>40</v>
       </c>
@@ -4916,15 +4739,15 @@
         <v>87</v>
       </c>
       <c r="L44" s="2"/>
-      <c r="M44" s="142"/>
-      <c r="Q44" s="122"/>
-      <c r="S44" s="123">
+      <c r="M44" s="131"/>
+      <c r="Q44" s="113"/>
+      <c r="S44" s="114">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
     <row r="45" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="141"/>
+      <c r="B45" s="130"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -4940,15 +4763,15 @@
         <v>88</v>
       </c>
       <c r="L45" s="2"/>
-      <c r="M45" s="142"/>
-      <c r="Q45" s="122"/>
-      <c r="S45" s="123">
+      <c r="M45" s="131"/>
+      <c r="Q45" s="113"/>
+      <c r="S45" s="114">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B46" s="153" t="s">
+      <c r="B46" s="142" t="s">
         <v>57</v>
       </c>
       <c r="C46" s="2"/>
@@ -4963,15 +4786,15 @@
       </c>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
-      <c r="M46" s="142"/>
-      <c r="Q46" s="122"/>
-      <c r="S46" s="123" t="str">
+      <c r="M46" s="131"/>
+      <c r="Q46" s="113"/>
+      <c r="S46" s="114" t="str">
         <f t="shared" si="8"/>
         <v>AP</v>
       </c>
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B47" s="154"/>
+      <c r="B47" s="143"/>
       <c r="C47" s="2" t="s">
         <v>42</v>
       </c>
@@ -4986,15 +4809,15 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
-      <c r="M47" s="142"/>
-      <c r="Q47" s="122"/>
-      <c r="S47" s="123" t="str">
+      <c r="M47" s="131"/>
+      <c r="Q47" s="113"/>
+      <c r="S47" s="114" t="str">
         <f t="shared" si="8"/>
         <v>Front</v>
       </c>
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B48" s="154"/>
+      <c r="B48" s="143"/>
       <c r="C48" s="2" t="s">
         <v>43</v>
       </c>
@@ -5007,15 +4830,15 @@
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
-      <c r="M48" s="142"/>
-      <c r="Q48" s="122"/>
-      <c r="S48" s="123" t="str">
+      <c r="M48" s="131"/>
+      <c r="Q48" s="113"/>
+      <c r="S48" s="114" t="str">
         <f t="shared" si="8"/>
         <v>Frontal</v>
       </c>
     </row>
     <row r="49" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B49" s="154"/>
+      <c r="B49" s="143"/>
       <c r="C49" s="2" t="s">
         <v>44</v>
       </c>
@@ -5028,15 +4851,15 @@
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
-      <c r="M49" s="142"/>
-      <c r="Q49" s="122"/>
-      <c r="S49" s="123" t="str">
+      <c r="M49" s="131"/>
+      <c r="Q49" s="113"/>
+      <c r="S49" s="114" t="str">
         <f t="shared" si="8"/>
         <v>Lat</v>
       </c>
     </row>
     <row r="50" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B50" s="154"/>
+      <c r="B50" s="143"/>
       <c r="C50" s="2" t="s">
         <v>45</v>
       </c>
@@ -5049,15 +4872,15 @@
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
-      <c r="M50" s="142"/>
-      <c r="Q50" s="122"/>
-      <c r="S50" s="123" t="str">
+      <c r="M50" s="131"/>
+      <c r="Q50" s="113"/>
+      <c r="S50" s="114" t="str">
         <f t="shared" si="8"/>
         <v>Lateral</v>
       </c>
     </row>
     <row r="51" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B51" s="154"/>
+      <c r="B51" s="143"/>
       <c r="C51" s="2" t="s">
         <v>46</v>
       </c>
@@ -5070,13 +4893,13 @@
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
-      <c r="M51" s="142"/>
+      <c r="M51" s="131"/>
       <c r="P51" s="9" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="52" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B52" s="154"/>
+      <c r="B52" s="143"/>
       <c r="C52" s="2" t="s">
         <v>47</v>
       </c>
@@ -5089,18 +4912,18 @@
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
-      <c r="M52" s="142"/>
+      <c r="M52" s="131"/>
       <c r="P52" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="Q52" s="122"/>
-      <c r="S52" s="123" t="str">
+      <c r="Q52" s="113"/>
+      <c r="S52" s="114" t="str">
         <f>IF(B103="","",B103)</f>
         <v/>
       </c>
     </row>
     <row r="53" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B53" s="154"/>
+      <c r="B53" s="143"/>
       <c r="C53" s="2" t="s">
         <v>48</v>
       </c>
@@ -5113,18 +4936,18 @@
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
-      <c r="M53" s="142"/>
+      <c r="M53" s="131"/>
       <c r="P53" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="Q53" s="122"/>
-      <c r="S53" s="123" t="str">
+      <c r="Q53" s="113"/>
+      <c r="S53" s="114" t="str">
         <f>IF(B106="","",B106)</f>
         <v/>
       </c>
     </row>
     <row r="54" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B54" s="154"/>
+      <c r="B54" s="143"/>
       <c r="C54" s="2" t="s">
         <v>49</v>
       </c>
@@ -5137,18 +4960,18 @@
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
-      <c r="M54" s="142"/>
+      <c r="M54" s="131"/>
       <c r="P54" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="Q54" s="122"/>
-      <c r="S54" s="123" t="str">
+      <c r="Q54" s="113"/>
+      <c r="S54" s="114" t="str">
         <f>IF(B109="","",B109)</f>
         <v/>
       </c>
     </row>
     <row r="55" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B55" s="154"/>
+      <c r="B55" s="143"/>
       <c r="C55" s="2" t="s">
         <v>50</v>
       </c>
@@ -5161,13 +4984,13 @@
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
-      <c r="M55" s="142"/>
+      <c r="M55" s="131"/>
       <c r="P55" s="9" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="56" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B56" s="154"/>
+      <c r="B56" s="143"/>
       <c r="C56" s="2" t="s">
         <v>51</v>
       </c>
@@ -5180,18 +5003,18 @@
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
-      <c r="M56" s="142"/>
+      <c r="M56" s="131"/>
       <c r="P56" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="Q56" s="122"/>
-      <c r="S56" s="123" t="str">
+      <c r="Q56" s="113"/>
+      <c r="S56" s="114" t="str">
         <f>IF(C91="","",C91)</f>
         <v/>
       </c>
     </row>
     <row r="57" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B57" s="154"/>
+      <c r="B57" s="143"/>
       <c r="C57" s="2" t="s">
         <v>52</v>
       </c>
@@ -5204,15 +5027,15 @@
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
-      <c r="M57" s="142"/>
+      <c r="M57" s="131"/>
       <c r="P57" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="Q57" s="122"/>
-      <c r="S57" s="123"/>
+      <c r="Q57" s="113"/>
+      <c r="S57" s="114"/>
     </row>
     <row r="58" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B58" s="154"/>
+      <c r="B58" s="143"/>
       <c r="C58" s="2" t="s">
         <v>53</v>
       </c>
@@ -5225,15 +5048,15 @@
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
-      <c r="M58" s="142"/>
+      <c r="M58" s="131"/>
       <c r="P58" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="Q58" s="122"/>
-      <c r="S58" s="123"/>
+      <c r="Q58" s="113"/>
+      <c r="S58" s="114"/>
     </row>
     <row r="59" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B59" s="154"/>
+      <c r="B59" s="143"/>
       <c r="C59" s="2" t="s">
         <v>54</v>
       </c>
@@ -5246,15 +5069,15 @@
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
-      <c r="M59" s="142"/>
+      <c r="M59" s="131"/>
       <c r="P59" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="Q59" s="122"/>
-      <c r="S59" s="123"/>
+      <c r="Q59" s="113"/>
+      <c r="S59" s="114"/>
     </row>
     <row r="60" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B60" s="154"/>
+      <c r="B60" s="143"/>
       <c r="C60" s="2" t="s">
         <v>55</v>
       </c>
@@ -5267,15 +5090,15 @@
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
-      <c r="M60" s="142"/>
+      <c r="M60" s="131"/>
       <c r="P60" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="Q60" s="122"/>
-      <c r="S60" s="123"/>
+      <c r="Q60" s="113"/>
+      <c r="S60" s="114"/>
     </row>
     <row r="61" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B61" s="154"/>
+      <c r="B61" s="143"/>
       <c r="C61" s="2" t="s">
         <v>56</v>
       </c>
@@ -5288,18 +5111,18 @@
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
-      <c r="M61" s="142"/>
+      <c r="M61" s="131"/>
       <c r="P61" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="Q61" s="122"/>
-      <c r="S61" s="123" t="str">
+      <c r="Q61" s="113"/>
+      <c r="S61" s="114" t="str">
         <f>IF(J91="","",J91)</f>
         <v/>
       </c>
     </row>
     <row r="62" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B62" s="141"/>
+      <c r="B62" s="130"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -5310,18 +5133,18 @@
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
-      <c r="M62" s="142"/>
+      <c r="M62" s="131"/>
       <c r="P62" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="Q62" s="122"/>
-      <c r="S62" s="123" t="str">
+      <c r="Q62" s="113"/>
+      <c r="S62" s="114" t="str">
         <f t="shared" ref="S62:S64" si="9">IF(J92="","",J92)</f>
         <v/>
       </c>
     </row>
     <row r="63" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B63" s="153" t="s">
+      <c r="B63" s="142" t="s">
         <v>58</v>
       </c>
       <c r="C63" s="2"/>
@@ -5334,18 +5157,18 @@
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
-      <c r="M63" s="142"/>
+      <c r="M63" s="131"/>
       <c r="P63" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="Q63" s="122"/>
-      <c r="S63" s="123" t="str">
+      <c r="Q63" s="113"/>
+      <c r="S63" s="114" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="64" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B64" s="154"/>
+      <c r="B64" s="143"/>
       <c r="C64" s="2" t="s">
         <v>59</v>
       </c>
@@ -5358,18 +5181,18 @@
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
-      <c r="M64" s="142"/>
+      <c r="M64" s="131"/>
       <c r="P64" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="Q64" s="122"/>
-      <c r="S64" s="123" t="str">
+      <c r="Q64" s="113"/>
+      <c r="S64" s="114" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="65" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B65" s="154"/>
+      <c r="B65" s="143"/>
       <c r="C65" s="2" t="s">
         <v>60</v>
       </c>
@@ -5382,18 +5205,18 @@
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
-      <c r="M65" s="142"/>
+      <c r="M65" s="131"/>
       <c r="P65" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="Q65" s="122"/>
-      <c r="S65" s="123" t="str">
+      <c r="Q65" s="113"/>
+      <c r="S65" s="114" t="str">
         <f>IF(E98="","",E98)</f>
         <v/>
       </c>
     </row>
     <row r="66" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B66" s="154"/>
+      <c r="B66" s="143"/>
       <c r="C66" s="2" t="s">
         <v>61</v>
       </c>
@@ -5406,18 +5229,18 @@
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
-      <c r="M66" s="142"/>
+      <c r="M66" s="131"/>
       <c r="P66" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="Q66" s="122"/>
-      <c r="S66" s="123" t="str">
+      <c r="Q66" s="113"/>
+      <c r="S66" s="114" t="str">
         <f>IF(H98="","",H98)</f>
         <v/>
       </c>
     </row>
     <row r="67" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B67" s="154"/>
+      <c r="B67" s="143"/>
       <c r="C67" s="2" t="s">
         <v>62</v>
       </c>
@@ -5430,18 +5253,18 @@
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
-      <c r="M67" s="142"/>
+      <c r="M67" s="131"/>
       <c r="P67" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="Q67" s="122"/>
-      <c r="S67" s="123" t="str">
+      <c r="Q67" s="113"/>
+      <c r="S67" s="114" t="str">
         <f>IF(K98="","",K98)</f>
         <v/>
       </c>
     </row>
     <row r="68" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B68" s="154"/>
+      <c r="B68" s="143"/>
       <c r="C68" s="2" t="s">
         <v>63</v>
       </c>
@@ -5454,13 +5277,13 @@
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
-      <c r="M68" s="142"/>
+      <c r="M68" s="131"/>
       <c r="P68" s="9" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="69" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B69" s="154"/>
+      <c r="B69" s="143"/>
       <c r="C69" s="2" t="s">
         <v>64</v>
       </c>
@@ -5473,18 +5296,18 @@
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
-      <c r="M69" s="142"/>
+      <c r="M69" s="131"/>
       <c r="P69" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="Q69" s="122"/>
-      <c r="S69" s="123">
+      <c r="Q69" s="113"/>
+      <c r="S69" s="114">
         <f>IF(D110="","",D110)</f>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B70" s="154"/>
+      <c r="B70" s="143"/>
       <c r="C70" s="2" t="s">
         <v>65</v>
       </c>
@@ -5497,18 +5320,18 @@
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
-      <c r="M70" s="142"/>
+      <c r="M70" s="131"/>
       <c r="P70" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="Q70" s="122"/>
-      <c r="S70" s="123">
+      <c r="Q70" s="113"/>
+      <c r="S70" s="114">
         <f>IF(E110="","",E110)</f>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B71" s="154"/>
+      <c r="B71" s="143"/>
       <c r="C71" s="2" t="s">
         <v>66</v>
       </c>
@@ -5521,18 +5344,18 @@
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
-      <c r="M71" s="142"/>
+      <c r="M71" s="131"/>
       <c r="P71" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="Q71" s="122"/>
-      <c r="S71" s="123">
+      <c r="Q71" s="113"/>
+      <c r="S71" s="114">
         <f>IF(F110="","",F110)</f>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B72" s="141"/>
+      <c r="B72" s="130"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -5543,18 +5366,18 @@
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
-      <c r="M72" s="142"/>
+      <c r="M72" s="131"/>
       <c r="P72" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="Q72" s="122"/>
-      <c r="S72" s="123">
+      <c r="Q72" s="113"/>
+      <c r="S72" s="114">
         <f>IF(G110="","",G110)</f>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B73" s="153" t="s">
+      <c r="B73" s="142" t="s">
         <v>67</v>
       </c>
       <c r="C73" s="2"/>
@@ -5567,18 +5390,18 @@
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
-      <c r="M73" s="142"/>
+      <c r="M73" s="131"/>
       <c r="P73" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="Q73" s="122"/>
-      <c r="S73" s="123">
+      <c r="Q73" s="113"/>
+      <c r="S73" s="114">
         <f>IF(H110="","",H110)</f>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B74" s="154"/>
+      <c r="B74" s="143"/>
       <c r="C74" s="2" t="s">
         <v>68</v>
       </c>
@@ -5591,18 +5414,18 @@
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
-      <c r="M74" s="142"/>
+      <c r="M74" s="131"/>
       <c r="P74" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="Q74" s="122"/>
-      <c r="S74" s="123">
+      <c r="Q74" s="113"/>
+      <c r="S74" s="114">
         <f>IF(I110="","",I110)</f>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B75" s="154"/>
+      <c r="B75" s="143"/>
       <c r="C75" s="2" t="s">
         <v>69</v>
       </c>
@@ -5615,18 +5438,18 @@
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
-      <c r="M75" s="142"/>
+      <c r="M75" s="131"/>
       <c r="P75" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="Q75" s="122"/>
-      <c r="S75" s="123">
+      <c r="Q75" s="113"/>
+      <c r="S75" s="114">
         <f>IF(J110="","",J110)</f>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B76" s="154"/>
+      <c r="B76" s="143"/>
       <c r="C76" s="2" t="s">
         <v>70</v>
       </c>
@@ -5639,18 +5462,18 @@
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
-      <c r="M76" s="142"/>
+      <c r="M76" s="131"/>
       <c r="P76" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="Q76" s="122"/>
-      <c r="S76" s="123">
+      <c r="Q76" s="113"/>
+      <c r="S76" s="114">
         <f>IF(J110="","",K110)</f>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B77" s="154"/>
+      <c r="B77" s="143"/>
       <c r="C77" s="2" t="s">
         <v>71</v>
       </c>
@@ -5663,18 +5486,18 @@
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
-      <c r="M77" s="142"/>
+      <c r="M77" s="131"/>
       <c r="P77" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="Q77" s="122"/>
-      <c r="S77" s="123">
+      <c r="Q77" s="113"/>
+      <c r="S77" s="114">
         <f>IF(L110="","",L110)</f>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B78" s="154"/>
+      <c r="B78" s="143"/>
       <c r="C78" s="2" t="s">
         <v>72</v>
       </c>
@@ -5687,13 +5510,13 @@
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
-      <c r="M78" s="142"/>
+      <c r="M78" s="131"/>
       <c r="P78" s="9" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="79" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B79" s="154"/>
+      <c r="B79" s="143"/>
       <c r="C79" s="2" t="str">
         <f>IF(OR(B35="",B35=1),"Unit installed as shown on shielding plan","")</f>
         <v>Unit installed as shown on shielding plan</v>
@@ -5707,18 +5530,18 @@
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
-      <c r="M79" s="142"/>
+      <c r="M79" s="131"/>
       <c r="P79" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="Q79" s="122"/>
-      <c r="S79" s="123">
+      <c r="Q79" s="113"/>
+      <c r="S79" s="114">
         <f>IF(HVL_KV="","",HVL_KV)</f>
         <v>80</v>
       </c>
     </row>
     <row r="80" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B80" s="141"/>
+      <c r="B80" s="130"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -5729,18 +5552,18 @@
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
-      <c r="M80" s="142"/>
+      <c r="M80" s="131"/>
       <c r="P80" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="Q80" s="122"/>
-      <c r="S80" s="123" t="str">
+      <c r="Q80" s="113"/>
+      <c r="S80" s="114" t="str">
         <f>IF(HVL="","",HVL)</f>
         <v>TBD</v>
       </c>
     </row>
     <row r="81" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B81" s="153" t="s">
+      <c r="B81" s="142" t="s">
         <v>73</v>
       </c>
       <c r="C81" s="2"/>
@@ -5753,13 +5576,13 @@
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
-      <c r="M81" s="142"/>
+      <c r="M81" s="131"/>
       <c r="P81" s="9" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="82" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B82" s="154"/>
+      <c r="B82" s="143"/>
       <c r="C82" s="2" t="s">
         <v>74</v>
       </c>
@@ -5772,18 +5595,18 @@
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
-      <c r="M82" s="142"/>
+      <c r="M82" s="131"/>
       <c r="P82" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="Q82" s="122"/>
-      <c r="S82" s="123">
+      <c r="Q82" s="113"/>
+      <c r="S82" s="114">
         <f>IF(G171="","",G171)</f>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B83" s="154"/>
+      <c r="B83" s="143"/>
       <c r="C83" s="2" t="s">
         <v>75</v>
       </c>
@@ -5796,18 +5619,18 @@
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
-      <c r="M83" s="142"/>
+      <c r="M83" s="131"/>
       <c r="P83" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="Q83" s="122"/>
-      <c r="S83" s="123" t="str">
+      <c r="Q83" s="113"/>
+      <c r="S83" s="114" t="str">
         <f>IF(H174="","",H174)</f>
         <v/>
       </c>
     </row>
     <row r="84" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B84" s="154"/>
+      <c r="B84" s="143"/>
       <c r="C84" s="2" t="s">
         <v>76</v>
       </c>
@@ -5820,18 +5643,18 @@
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
-      <c r="M84" s="142"/>
+      <c r="M84" s="131"/>
       <c r="P84" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="Q84" s="122"/>
-      <c r="S84" s="123" t="str">
+      <c r="Q84" s="113"/>
+      <c r="S84" s="114" t="str">
         <f>IF(H175="","",H175)</f>
         <v/>
       </c>
     </row>
     <row r="85" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B85" s="154"/>
+      <c r="B85" s="143"/>
       <c r="C85" s="2" t="s">
         <v>77</v>
       </c>
@@ -5844,18 +5667,18 @@
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
-      <c r="M85" s="142"/>
+      <c r="M85" s="131"/>
       <c r="P85" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="Q85" s="122"/>
-      <c r="S85" s="123" t="str">
+      <c r="Q85" s="113"/>
+      <c r="S85" s="114" t="str">
         <f>IF(I174="","",I174)</f>
         <v/>
       </c>
     </row>
     <row r="86" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B86" s="154"/>
+      <c r="B86" s="143"/>
       <c r="C86" s="2" t="s">
         <v>78</v>
       </c>
@@ -5868,18 +5691,18 @@
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
-      <c r="M86" s="142"/>
+      <c r="M86" s="131"/>
       <c r="P86" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="Q86" s="122"/>
-      <c r="S86" s="123" t="str">
+      <c r="Q86" s="113"/>
+      <c r="S86" s="114" t="str">
         <f>IF(I175="","",I175)</f>
         <v/>
       </c>
     </row>
     <row r="87" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B87" s="154"/>
+      <c r="B87" s="143"/>
       <c r="C87" s="2" t="s">
         <v>79</v>
       </c>
@@ -5892,59 +5715,59 @@
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
-      <c r="M87" s="142"/>
+      <c r="M87" s="131"/>
       <c r="P87" s="9" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="88" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="143"/>
-      <c r="C88" s="144"/>
-      <c r="D88" s="144"/>
-      <c r="E88" s="144"/>
-      <c r="F88" s="144"/>
-      <c r="G88" s="144"/>
-      <c r="H88" s="144"/>
-      <c r="I88" s="144"/>
-      <c r="J88" s="144"/>
-      <c r="K88" s="144"/>
-      <c r="L88" s="144"/>
-      <c r="M88" s="146"/>
+      <c r="B88" s="132"/>
+      <c r="C88" s="133"/>
+      <c r="D88" s="133"/>
+      <c r="E88" s="133"/>
+      <c r="F88" s="133"/>
+      <c r="G88" s="133"/>
+      <c r="H88" s="133"/>
+      <c r="I88" s="133"/>
+      <c r="J88" s="133"/>
+      <c r="K88" s="133"/>
+      <c r="L88" s="133"/>
+      <c r="M88" s="135"/>
       <c r="P88" s="4" t="str">
         <f>$D$99&amp;" Normal:"</f>
         <v xml:space="preserve"> Normal:</v>
       </c>
-      <c r="Q88" s="122"/>
-      <c r="S88" s="123" t="str">
+      <c r="Q88" s="113"/>
+      <c r="S88" s="114" t="str">
         <f>IF(G186="","",G186)</f>
         <v/>
       </c>
     </row>
     <row r="89" spans="2:19" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="138"/>
-      <c r="C89" s="139"/>
-      <c r="D89" s="139"/>
-      <c r="E89" s="139"/>
-      <c r="F89" s="139"/>
-      <c r="G89" s="139"/>
-      <c r="H89" s="139"/>
-      <c r="I89" s="139"/>
-      <c r="J89" s="139"/>
-      <c r="K89" s="139"/>
-      <c r="L89" s="139"/>
-      <c r="M89" s="140"/>
+      <c r="B89" s="127"/>
+      <c r="C89" s="128"/>
+      <c r="D89" s="128"/>
+      <c r="E89" s="128"/>
+      <c r="F89" s="128"/>
+      <c r="G89" s="128"/>
+      <c r="H89" s="128"/>
+      <c r="I89" s="128"/>
+      <c r="J89" s="128"/>
+      <c r="K89" s="128"/>
+      <c r="L89" s="128"/>
+      <c r="M89" s="129"/>
       <c r="P89" s="4" t="str">
         <f>$D$99&amp;" Mag 1:"</f>
         <v xml:space="preserve"> Mag 1:</v>
       </c>
-      <c r="Q89" s="122"/>
-      <c r="S89" s="123" t="str">
+      <c r="Q89" s="113"/>
+      <c r="S89" s="114" t="str">
         <f t="shared" ref="S89:S96" si="10">IF(G187="","",G187)</f>
         <v/>
       </c>
     </row>
     <row r="90" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B90" s="153" t="s">
+      <c r="B90" s="142" t="s">
         <v>80</v>
       </c>
       <c r="C90" s="2"/>
@@ -5957,158 +5780,158 @@
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
-      <c r="M90" s="142"/>
+      <c r="M90" s="131"/>
       <c r="P90" s="4" t="str">
         <f>$D$99&amp;" Mag 2:"</f>
         <v xml:space="preserve"> Mag 2:</v>
       </c>
-      <c r="Q90" s="122"/>
-      <c r="S90" s="123" t="str">
+      <c r="Q90" s="113"/>
+      <c r="S90" s="114" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="91" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B91" s="155" t="str">
+      <c r="B91" s="144" t="str">
         <f>IF(C91&lt;&gt;"",C91,IF(Q56="","",Q56))</f>
         <v/>
       </c>
-      <c r="C91" s="116"/>
-      <c r="D91" s="156" t="s">
+      <c r="C91" s="184"/>
+      <c r="D91" s="145" t="s">
         <v>90</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
-      <c r="I91" s="124" t="str">
+      <c r="I91" s="115" t="str">
         <f>IF(J91&lt;&gt;"",J91,IF(Q61="","",Q61))</f>
         <v/>
       </c>
-      <c r="J91" s="116"/>
-      <c r="K91" s="156" t="s">
+      <c r="J91" s="184"/>
+      <c r="K91" s="145" t="s">
         <v>92</v>
       </c>
       <c r="L91" s="2"/>
-      <c r="M91" s="142"/>
+      <c r="M91" s="131"/>
       <c r="P91" s="4" t="str">
         <f>$G$99&amp;" Normal:"</f>
         <v xml:space="preserve"> Normal:</v>
       </c>
-      <c r="Q91" s="122"/>
-      <c r="S91" s="123" t="str">
+      <c r="Q91" s="113"/>
+      <c r="S91" s="114" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="92" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B92" s="155" t="str">
+      <c r="B92" s="144" t="str">
         <f>IF(C92&lt;&gt;"",C92,IF(Q57="","",Q57))</f>
         <v/>
       </c>
-      <c r="C92" s="116"/>
-      <c r="D92" s="156" t="s">
+      <c r="C92" s="184"/>
+      <c r="D92" s="145" t="s">
         <v>91</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
-      <c r="I92" s="124" t="str">
+      <c r="I92" s="115" t="str">
         <f t="shared" ref="I92:I94" si="11">IF(J92&lt;&gt;"",J92,IF(Q62="","",Q62))</f>
         <v/>
       </c>
-      <c r="J92" s="116"/>
-      <c r="K92" s="156" t="s">
+      <c r="J92" s="184"/>
+      <c r="K92" s="145" t="s">
         <v>93</v>
       </c>
       <c r="L92" s="2"/>
-      <c r="M92" s="142"/>
+      <c r="M92" s="131"/>
       <c r="P92" s="4" t="str">
         <f>$G$99&amp;" Mag 1:"</f>
         <v xml:space="preserve"> Mag 1:</v>
       </c>
-      <c r="Q92" s="122"/>
-      <c r="S92" s="123" t="str">
+      <c r="Q92" s="113"/>
+      <c r="S92" s="114" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="93" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B93" s="155" t="str">
+      <c r="B93" s="144" t="str">
         <f>IF(C93&lt;&gt;"",C93,IF(Q58="","",Q58))</f>
         <v/>
       </c>
-      <c r="C93" s="116"/>
-      <c r="D93" s="156" t="s">
+      <c r="C93" s="184"/>
+      <c r="D93" s="145" t="s">
         <v>95</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
-      <c r="I93" s="124" t="str">
+      <c r="I93" s="115" t="str">
         <f>IF(J93&lt;&gt;"",J93,IF(Q63="","",Q63))</f>
         <v/>
       </c>
-      <c r="J93" s="116"/>
-      <c r="K93" s="156" t="s">
+      <c r="J93" s="184"/>
+      <c r="K93" s="145" t="s">
         <v>186</v>
       </c>
       <c r="L93" s="2"/>
-      <c r="M93" s="142"/>
+      <c r="M93" s="131"/>
       <c r="P93" s="4" t="str">
         <f>$G$99&amp;" Mag 2:"</f>
         <v xml:space="preserve"> Mag 2:</v>
       </c>
-      <c r="Q93" s="122"/>
-      <c r="S93" s="123" t="str">
+      <c r="Q93" s="113"/>
+      <c r="S93" s="114" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="94" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B94" s="155" t="str">
+      <c r="B94" s="144" t="str">
         <f>IF(C94&lt;&gt;"",C94,IF(Q59="","",Q59))</f>
         <v/>
       </c>
-      <c r="C94" s="116"/>
-      <c r="D94" s="156" t="s">
+      <c r="C94" s="184"/>
+      <c r="D94" s="145" t="s">
         <v>96</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
-      <c r="I94" s="124" t="str">
+      <c r="I94" s="115" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="J94" s="116"/>
-      <c r="K94" s="156" t="s">
+      <c r="J94" s="184"/>
+      <c r="K94" s="145" t="s">
         <v>94</v>
       </c>
       <c r="L94" s="2"/>
-      <c r="M94" s="142"/>
+      <c r="M94" s="131"/>
       <c r="P94" s="4" t="str">
         <f>$J$99&amp;" Normal:"</f>
         <v xml:space="preserve"> Normal:</v>
       </c>
-      <c r="Q94" s="122"/>
-      <c r="S94" s="123" t="str">
+      <c r="Q94" s="113"/>
+      <c r="S94" s="114" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="95" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B95" s="155" t="str">
+      <c r="B95" s="144" t="str">
         <f>IF(C95&lt;&gt;"",C95,IF(Q60="","",Q60))</f>
         <v>cm</v>
       </c>
-      <c r="C95" s="116" t="s">
+      <c r="C95" s="184" t="s">
         <v>314</v>
       </c>
-      <c r="D95" s="156" t="s">
+      <c r="D95" s="145" t="s">
         <v>97</v>
       </c>
       <c r="E95" s="2"/>
@@ -6119,19 +5942,19 @@
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
-      <c r="M95" s="142"/>
+      <c r="M95" s="131"/>
       <c r="P95" s="4" t="str">
         <f>$J$99&amp;" Mag 1:"</f>
         <v xml:space="preserve"> Mag 1:</v>
       </c>
-      <c r="Q95" s="122"/>
-      <c r="S95" s="123" t="str">
+      <c r="Q95" s="113"/>
+      <c r="S95" s="114" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="96" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B96" s="157" t="str">
+      <c r="B96" s="146" t="str">
         <f>IF(AND(B93&gt;2,B94=1),"NOTE:  Record data for lowest and highest regular dose rate settings, and the ""High Level"" setting",IF(AND(B93&gt;2,B94=2),"NOTE:  Record data for lowest, medium, and highest regular dose rate settings.","Blank"))</f>
         <v>Blank</v>
       </c>
@@ -6145,19 +5968,19 @@
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
-      <c r="M96" s="142"/>
+      <c r="M96" s="131"/>
       <c r="P96" s="4" t="str">
         <f>$J$99&amp;" Mag 2:"</f>
         <v xml:space="preserve"> Mag 2:</v>
       </c>
-      <c r="Q96" s="122"/>
-      <c r="S96" s="123" t="str">
+      <c r="Q96" s="113"/>
+      <c r="S96" s="114" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="97" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B97" s="158" t="s">
+      <c r="B97" s="147" t="s">
         <v>98</v>
       </c>
       <c r="C97" s="2"/>
@@ -6170,16 +5993,16 @@
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
-      <c r="M97" s="142"/>
+      <c r="M97" s="131"/>
       <c r="P97" s="9" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="98" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B98" s="159" t="s">
+      <c r="B98" s="148" t="s">
         <v>99</v>
       </c>
-      <c r="C98" s="137" t="s">
+      <c r="C98" s="189" t="s">
         <v>100</v>
       </c>
       <c r="D98" s="24" t="str">
@@ -6200,91 +6023,91 @@
       </c>
       <c r="K98" s="8"/>
       <c r="L98" s="19"/>
-      <c r="M98" s="142"/>
+      <c r="M98" s="131"/>
       <c r="P98" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="Q98" s="122"/>
-      <c r="S98" s="123">
+      <c r="Q98" s="113"/>
+      <c r="S98" s="114">
         <f>IF(LEEDS_KV="","",LEEDS_KV)</f>
         <v>70</v>
       </c>
     </row>
     <row r="99" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B99" s="159" t="s">
+      <c r="B99" s="148" t="s">
         <v>101</v>
       </c>
-      <c r="C99" s="137" t="s">
+      <c r="C99" s="189" t="s">
         <v>102</v>
       </c>
-      <c r="D99" s="221" t="str">
+      <c r="D99" s="197" t="str">
         <f>IF(D98&lt;&gt;"",D98,IF(AUTO_MANUAL=1,"Manual 1",IF(AUTO_MA="","",AUTO_MA&amp;" 1")))</f>
         <v/>
       </c>
-      <c r="E99" s="217"/>
-      <c r="F99" s="218"/>
-      <c r="G99" s="221" t="str">
+      <c r="E99" s="193"/>
+      <c r="F99" s="194"/>
+      <c r="G99" s="197" t="str">
         <f>IF(G98&lt;&gt;"",G98,IF(AUTO_MANUAL=1,"Manual 1",IF(AUTO_MA="","",AUTO_MA&amp;" 1")))</f>
         <v/>
       </c>
-      <c r="H99" s="217"/>
-      <c r="I99" s="218"/>
-      <c r="J99" s="217" t="str">
+      <c r="H99" s="193"/>
+      <c r="I99" s="194"/>
+      <c r="J99" s="193" t="str">
         <f>IF(J98&lt;&gt;"",J98,IF(AUTO_MANUAL=1,"Manual 1",IF(AUTO_MA="","",AUTO_MA&amp;" 1")))</f>
         <v/>
       </c>
-      <c r="K99" s="217"/>
-      <c r="L99" s="218"/>
-      <c r="M99" s="142"/>
+      <c r="K99" s="193"/>
+      <c r="L99" s="194"/>
+      <c r="M99" s="131"/>
       <c r="P99" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="Q99" s="122"/>
-      <c r="S99" s="123"/>
+      <c r="Q99" s="113"/>
+      <c r="S99" s="114"/>
     </row>
     <row r="100" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="159" t="s">
+      <c r="B100" s="148" t="s">
         <v>103</v>
       </c>
-      <c r="C100" s="137" t="s">
+      <c r="C100" s="189" t="s">
         <v>103</v>
       </c>
-      <c r="D100" s="119" t="s">
+      <c r="D100" s="187" t="s">
         <v>104</v>
       </c>
-      <c r="E100" s="117" t="s">
+      <c r="E100" s="185" t="s">
         <v>105</v>
       </c>
-      <c r="F100" s="118" t="s">
+      <c r="F100" s="186" t="s">
         <v>106</v>
       </c>
-      <c r="G100" s="119" t="s">
+      <c r="G100" s="187" t="s">
         <v>104</v>
       </c>
-      <c r="H100" s="117" t="s">
+      <c r="H100" s="185" t="s">
         <v>105</v>
       </c>
-      <c r="I100" s="118" t="s">
+      <c r="I100" s="186" t="s">
         <v>106</v>
       </c>
-      <c r="J100" s="117" t="s">
+      <c r="J100" s="185" t="s">
         <v>104</v>
       </c>
-      <c r="K100" s="117" t="s">
+      <c r="K100" s="185" t="s">
         <v>105</v>
       </c>
-      <c r="L100" s="118" t="s">
+      <c r="L100" s="186" t="s">
         <v>106</v>
       </c>
-      <c r="M100" s="142"/>
+      <c r="M100" s="131"/>
       <c r="P100" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="Q100" s="122"/>
-      <c r="S100" s="123"/>
+      <c r="Q100" s="113"/>
+      <c r="S100" s="114"/>
     </row>
     <row r="101" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B101" s="160" t="s">
+      <c r="B101" s="149" t="s">
         <v>107</v>
       </c>
       <c r="C101" s="68">
@@ -6326,15 +6149,15 @@
         <f>'Data Entry'!K5</f>
         <v>0</v>
       </c>
-      <c r="M101" s="142"/>
+      <c r="M101" s="131"/>
       <c r="P101" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="Q101" s="122"/>
-      <c r="S101" s="123"/>
+      <c r="Q101" s="113"/>
+      <c r="S101" s="114"/>
     </row>
     <row r="102" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B102" s="161" t="str">
+      <c r="B102" s="150" t="str">
         <f>IF(B103&lt;&gt;"",B103,IF(Q52="","",Q52))</f>
         <v/>
       </c>
@@ -6377,15 +6200,15 @@
         <f>'Data Entry'!K6</f>
         <v>0</v>
       </c>
-      <c r="M102" s="142"/>
+      <c r="M102" s="131"/>
       <c r="P102" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="Q102" s="122"/>
-      <c r="S102" s="123"/>
+      <c r="Q102" s="113"/>
+      <c r="S102" s="114"/>
     </row>
     <row r="103" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="162"/>
+      <c r="B103" s="151"/>
       <c r="C103" s="70">
         <v>30</v>
       </c>
@@ -6425,15 +6248,15 @@
         <f>'Data Entry'!K7</f>
         <v>0</v>
       </c>
-      <c r="M103" s="142"/>
+      <c r="M103" s="131"/>
       <c r="P103" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="Q103" s="122"/>
-      <c r="S103" s="123"/>
+      <c r="Q103" s="113"/>
+      <c r="S103" s="114"/>
     </row>
     <row r="104" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B104" s="160" t="s">
+      <c r="B104" s="149" t="s">
         <v>108</v>
       </c>
       <c r="C104" s="68">
@@ -6475,15 +6298,15 @@
         <f>'Data Entry'!K8</f>
         <v>0</v>
       </c>
-      <c r="M104" s="142"/>
+      <c r="M104" s="131"/>
       <c r="P104" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="Q104" s="122"/>
-      <c r="S104" s="123"/>
+      <c r="Q104" s="113"/>
+      <c r="S104" s="114"/>
     </row>
     <row r="105" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B105" s="161" t="str">
+      <c r="B105" s="150" t="str">
         <f>IF(B106&lt;&gt;"",B106,IF(Q53="","",Q53))</f>
         <v/>
       </c>
@@ -6526,18 +6349,18 @@
         <f>'Data Entry'!K9</f>
         <v>0</v>
       </c>
-      <c r="M105" s="142"/>
+      <c r="M105" s="131"/>
       <c r="P105" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="Q105" s="122"/>
-      <c r="S105" s="123" t="str">
+      <c r="Q105" s="113"/>
+      <c r="S105" s="114" t="str">
         <f>IF(H239="","",H239)</f>
         <v/>
       </c>
     </row>
     <row r="106" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="162"/>
+      <c r="B106" s="151"/>
       <c r="C106" s="70">
         <v>30</v>
       </c>
@@ -6577,18 +6400,18 @@
         <f>'Data Entry'!K10</f>
         <v>0</v>
       </c>
-      <c r="M106" s="142"/>
+      <c r="M106" s="131"/>
       <c r="P106" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="Q106" s="122"/>
-      <c r="S106" s="123" t="str">
+      <c r="Q106" s="113"/>
+      <c r="S106" s="114" t="str">
         <f>IF(C257="","",C257)</f>
         <v/>
       </c>
     </row>
     <row r="107" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B107" s="159" t="s">
+      <c r="B107" s="148" t="s">
         <v>109</v>
       </c>
       <c r="C107" s="68">
@@ -6630,18 +6453,18 @@
         <f>'Data Entry'!K11</f>
         <v>0</v>
       </c>
-      <c r="M107" s="142"/>
+      <c r="M107" s="131"/>
       <c r="P107" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="Q107" s="122"/>
-      <c r="S107" s="123" t="str">
+      <c r="Q107" s="113"/>
+      <c r="S107" s="114" t="str">
         <f>IF(C259="","",C259)</f>
         <v/>
       </c>
     </row>
     <row r="108" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B108" s="161" t="str">
+      <c r="B108" s="150" t="str">
         <f>IF(B109&lt;&gt;"",B109,IF(Q54="","",Q54))</f>
         <v/>
       </c>
@@ -6684,18 +6507,18 @@
         <f>'Data Entry'!K12</f>
         <v>0</v>
       </c>
-      <c r="M108" s="142"/>
+      <c r="M108" s="131"/>
       <c r="P108" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="Q108" s="122"/>
-      <c r="S108" s="123" t="str">
+      <c r="Q108" s="113"/>
+      <c r="S108" s="114" t="str">
         <f t="shared" ref="S108:S110" si="12">IF(C260="","",C260)</f>
         <v/>
       </c>
     </row>
     <row r="109" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="162"/>
+      <c r="B109" s="151"/>
       <c r="C109" s="70">
         <v>30</v>
       </c>
@@ -6735,18 +6558,18 @@
         <f>'Data Entry'!K13</f>
         <v>0</v>
       </c>
-      <c r="M109" s="142"/>
+      <c r="M109" s="131"/>
       <c r="P109" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="Q109" s="122"/>
-      <c r="S109" s="123" t="str">
+      <c r="Q109" s="113"/>
+      <c r="S109" s="114" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="110" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="141"/>
+      <c r="B110" s="130"/>
       <c r="C110" s="67" t="s">
         <v>110</v>
       </c>
@@ -6786,19 +6609,19 @@
         <f>'Data Entry'!K14</f>
         <v>0</v>
       </c>
-      <c r="M110" s="142"/>
+      <c r="M110" s="131"/>
       <c r="P110" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="Q110" s="122"/>
-      <c r="S110" s="123" t="str">
+      <c r="Q110" s="113"/>
+      <c r="S110" s="114" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="111" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="141"/>
-      <c r="C111" s="117" t="s">
+      <c r="B111" s="130"/>
+      <c r="C111" s="185" t="s">
         <v>111</v>
       </c>
       <c r="D111" s="62" t="str">
@@ -6837,58 +6660,58 @@
         <f>IF(Q77="","",Q77)</f>
         <v/>
       </c>
-      <c r="M111" s="142"/>
+      <c r="M111" s="131"/>
       <c r="P111" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="Q111" s="122"/>
-      <c r="S111" s="123" t="str">
+      <c r="Q111" s="113"/>
+      <c r="S111" s="114" t="str">
         <f t="shared" ref="S111:S122" si="13">IF(C240="","",C240)</f>
         <v/>
       </c>
     </row>
     <row r="112" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="141"/>
-      <c r="C112" s="156" t="s">
+      <c r="B112" s="130"/>
+      <c r="C112" s="145" t="s">
         <v>113</v>
       </c>
       <c r="D112" s="2"/>
-      <c r="E112" s="128" t="s">
+      <c r="E112" s="118" t="s">
         <v>112</v>
       </c>
-      <c r="F112" s="114" t="str">
+      <c r="F112" s="110" t="str">
         <f>IF(F110="","NA",IF(AUTO_MANUAL=1,IF(F110&gt;44,"NO","YES"),IF(F110&gt;88,"NO","YES")))</f>
         <v>YES</v>
       </c>
       <c r="G112" s="2"/>
-      <c r="H112" s="128" t="s">
+      <c r="H112" s="118" t="s">
         <v>112</v>
       </c>
-      <c r="I112" s="114" t="str">
+      <c r="I112" s="110" t="str">
         <f>IF(I110="","NA",IF(AUTO_MANUAL=1,IF(I110&gt;44,"NO","YES"),IF(I110&gt;88,"NO","YES")))</f>
         <v>YES</v>
       </c>
       <c r="J112" s="2"/>
-      <c r="K112" s="128" t="s">
+      <c r="K112" s="118" t="s">
         <v>112</v>
       </c>
-      <c r="L112" s="114" t="str">
+      <c r="L112" s="110" t="str">
         <f>IF(OR(AND($B$94=1,L110=""),AND(F110="",I110="",L110="")),"NA",IF(L110="","NA",IF(AUTO_MANUAL="",IF(B94=2,IF(L110&gt;88,"NO","YES"),IF(L110&gt;176,"NO","YES")),IF(L110&gt;44,"NO","YES"))))</f>
         <v>YES</v>
       </c>
-      <c r="M112" s="142"/>
+      <c r="M112" s="131"/>
       <c r="P112" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="Q112" s="122"/>
-      <c r="S112" s="123" t="str">
+      <c r="Q112" s="113"/>
+      <c r="S112" s="114" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="113" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B113" s="141"/>
-      <c r="C113" s="156" t="s">
+      <c r="B113" s="130"/>
+      <c r="C113" s="145" t="s">
         <v>114</v>
       </c>
       <c r="D113" s="2"/>
@@ -6900,19 +6723,19 @@
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
-      <c r="M113" s="142"/>
+      <c r="M113" s="131"/>
       <c r="P113" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="Q113" s="122"/>
-      <c r="S113" s="123" t="str">
+      <c r="Q113" s="113"/>
+      <c r="S113" s="114" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="114" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B114" s="141"/>
-      <c r="C114" s="156" t="s">
+      <c r="B114" s="130"/>
+      <c r="C114" s="145" t="s">
         <v>115</v>
       </c>
       <c r="D114" s="2"/>
@@ -6924,19 +6747,19 @@
       <c r="J114" s="2"/>
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
-      <c r="M114" s="142"/>
+      <c r="M114" s="131"/>
       <c r="P114" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="Q114" s="122"/>
-      <c r="S114" s="123" t="str">
+      <c r="Q114" s="113"/>
+      <c r="S114" s="114" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="115" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B115" s="141"/>
-      <c r="C115" s="156" t="s">
+      <c r="B115" s="130"/>
+      <c r="C115" s="145" t="s">
         <v>116</v>
       </c>
       <c r="D115" s="2"/>
@@ -6948,19 +6771,19 @@
       <c r="J115" s="2"/>
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
-      <c r="M115" s="142"/>
+      <c r="M115" s="131"/>
       <c r="P115" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="Q115" s="122"/>
-      <c r="S115" s="123" t="str">
+      <c r="Q115" s="113"/>
+      <c r="S115" s="114" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="116" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B116" s="141"/>
-      <c r="C116" s="156" t="s">
+      <c r="B116" s="130"/>
+      <c r="C116" s="145" t="s">
         <v>117</v>
       </c>
       <c r="D116" s="2"/>
@@ -6972,22 +6795,22 @@
       <c r="J116" s="2"/>
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
-      <c r="M116" s="142"/>
+      <c r="M116" s="131"/>
       <c r="P116" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="Q116" s="122"/>
-      <c r="S116" s="123" t="str">
+      <c r="Q116" s="113"/>
+      <c r="S116" s="114" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="117" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B117" s="141"/>
-      <c r="C117" s="163" t="s">
+      <c r="B117" s="130"/>
+      <c r="C117" s="152" t="s">
         <v>118</v>
       </c>
-      <c r="D117" s="156" t="s">
+      <c r="D117" s="145" t="s">
         <v>119</v>
       </c>
       <c r="E117" s="2"/>
@@ -6998,20 +6821,20 @@
       <c r="J117" s="2"/>
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
-      <c r="M117" s="142"/>
+      <c r="M117" s="131"/>
       <c r="P117" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="Q117" s="122"/>
-      <c r="S117" s="123" t="str">
+      <c r="Q117" s="113"/>
+      <c r="S117" s="114" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="118" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B118" s="141"/>
+      <c r="B118" s="130"/>
       <c r="C118" s="2"/>
-      <c r="D118" s="156" t="s">
+      <c r="D118" s="145" t="s">
         <v>48</v>
       </c>
       <c r="E118" s="2"/>
@@ -7022,23 +6845,23 @@
       <c r="J118" s="2"/>
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
-      <c r="M118" s="142"/>
+      <c r="M118" s="131"/>
       <c r="P118" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="Q118" s="122"/>
-      <c r="S118" s="123" t="str">
+      <c r="Q118" s="113"/>
+      <c r="S118" s="114" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="119" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B119" s="141"/>
-      <c r="C119" s="150" t="s">
+      <c r="B119" s="130"/>
+      <c r="C119" s="139" t="s">
         <v>120</v>
       </c>
       <c r="D119" s="17" t="str">
-        <f>IF(Q148="","",Q148)</f>
+        <f>IF(D121&lt;&gt;"",D121,IF(Q148="","",Q148))</f>
         <v/>
       </c>
       <c r="E119" s="3"/>
@@ -7049,23 +6872,23 @@
       <c r="J119" s="3"/>
       <c r="K119" s="3"/>
       <c r="L119" s="2"/>
-      <c r="M119" s="142"/>
+      <c r="M119" s="131"/>
       <c r="P119" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="Q119" s="122"/>
-      <c r="S119" s="123" t="str">
+      <c r="Q119" s="113"/>
+      <c r="S119" s="114" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="120" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B120" s="141"/>
-      <c r="C120" s="164" t="s">
+      <c r="B120" s="130"/>
+      <c r="C120" s="153" t="s">
         <v>121</v>
       </c>
       <c r="D120" s="2"/>
-      <c r="E120" s="165">
+      <c r="E120" s="154">
         <f>LEN(D119)</f>
         <v>0</v>
       </c>
@@ -7076,19 +6899,19 @@
       <c r="J120" s="2"/>
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
-      <c r="M120" s="142"/>
+      <c r="M120" s="131"/>
       <c r="P120" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="Q120" s="122"/>
-      <c r="S120" s="123" t="str">
+      <c r="Q120" s="113"/>
+      <c r="S120" s="114" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="121" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B121" s="141"/>
-      <c r="C121" s="150" t="s">
+      <c r="B121" s="130"/>
+      <c r="C121" s="139" t="s">
         <v>122</v>
       </c>
       <c r="D121" s="8"/>
@@ -7100,64 +6923,64 @@
       <c r="J121" s="3"/>
       <c r="K121" s="3"/>
       <c r="L121" s="2"/>
-      <c r="M121" s="142"/>
+      <c r="M121" s="131"/>
       <c r="P121" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="Q121" s="122"/>
-      <c r="S121" s="123" t="str">
+      <c r="Q121" s="113"/>
+      <c r="S121" s="114" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="122" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="143"/>
-      <c r="C122" s="144"/>
-      <c r="D122" s="144"/>
-      <c r="E122" s="144"/>
-      <c r="F122" s="144"/>
-      <c r="G122" s="144"/>
-      <c r="H122" s="144"/>
-      <c r="I122" s="144"/>
-      <c r="J122" s="144"/>
-      <c r="K122" s="144"/>
-      <c r="L122" s="144"/>
-      <c r="M122" s="146"/>
+      <c r="B122" s="132"/>
+      <c r="C122" s="133"/>
+      <c r="D122" s="133"/>
+      <c r="E122" s="133"/>
+      <c r="F122" s="133"/>
+      <c r="G122" s="133"/>
+      <c r="H122" s="133"/>
+      <c r="I122" s="133"/>
+      <c r="J122" s="133"/>
+      <c r="K122" s="133"/>
+      <c r="L122" s="133"/>
+      <c r="M122" s="135"/>
       <c r="P122" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="Q122" s="122"/>
-      <c r="S122" s="123" t="str">
+      <c r="Q122" s="113"/>
+      <c r="S122" s="114" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="123" spans="2:19" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="166" t="s">
+      <c r="B123" s="155" t="s">
         <v>123</v>
       </c>
-      <c r="C123" s="139"/>
-      <c r="D123" s="139"/>
-      <c r="E123" s="139"/>
-      <c r="F123" s="139"/>
-      <c r="G123" s="139"/>
-      <c r="H123" s="139"/>
-      <c r="I123" s="139"/>
-      <c r="J123" s="139"/>
-      <c r="K123" s="139"/>
-      <c r="L123" s="139"/>
-      <c r="M123" s="140"/>
+      <c r="C123" s="128"/>
+      <c r="D123" s="128"/>
+      <c r="E123" s="128"/>
+      <c r="F123" s="128"/>
+      <c r="G123" s="128"/>
+      <c r="H123" s="128"/>
+      <c r="I123" s="128"/>
+      <c r="J123" s="128"/>
+      <c r="K123" s="128"/>
+      <c r="L123" s="128"/>
+      <c r="M123" s="129"/>
       <c r="P123" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="Q123" s="122"/>
-      <c r="S123" s="123" t="str">
+      <c r="Q123" s="113"/>
+      <c r="S123" s="114" t="str">
         <f t="shared" ref="S123:S134" si="14">IF(D240="","",D240)</f>
         <v/>
       </c>
     </row>
     <row r="124" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B124" s="154">
+      <c r="B124" s="143">
         <v>2</v>
       </c>
       <c r="C124" s="2" t="s">
@@ -7172,18 +6995,18 @@
       <c r="J124" s="2"/>
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
-      <c r="M124" s="142"/>
+      <c r="M124" s="131"/>
       <c r="P124" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="Q124" s="122"/>
-      <c r="S124" s="123" t="str">
+      <c r="Q124" s="113"/>
+      <c r="S124" s="114" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="125" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B125" s="141"/>
+      <c r="B125" s="130"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -7194,50 +7017,50 @@
       <c r="J125" s="2"/>
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
-      <c r="M125" s="142"/>
+      <c r="M125" s="131"/>
       <c r="P125" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="Q125" s="122"/>
-      <c r="S125" s="123" t="str">
+      <c r="Q125" s="113"/>
+      <c r="S125" s="114" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="126" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="167" t="s">
+      <c r="B126" s="156" t="s">
         <v>125</v>
       </c>
       <c r="C126" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D126" s="117" t="s">
+      <c r="D126" s="185" t="s">
         <v>126</v>
       </c>
       <c r="E126" s="22" t="s">
         <v>106</v>
       </c>
       <c r="F126" s="2"/>
-      <c r="G126" s="168" t="s">
+      <c r="G126" s="157" t="s">
         <v>127</v>
       </c>
-      <c r="H126" s="169"/>
-      <c r="I126" s="169"/>
-      <c r="J126" s="169"/>
-      <c r="K126" s="169"/>
+      <c r="H126" s="158"/>
+      <c r="I126" s="158"/>
+      <c r="J126" s="158"/>
+      <c r="K126" s="158"/>
       <c r="L126" s="2"/>
-      <c r="M126" s="142"/>
+      <c r="M126" s="131"/>
       <c r="P126" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="Q126" s="122"/>
-      <c r="S126" s="123" t="str">
+      <c r="Q126" s="113"/>
+      <c r="S126" s="114" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="127" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B127" s="170">
+      <c r="B127" s="159">
         <v>80</v>
       </c>
       <c r="C127" s="60"/>
@@ -7262,18 +7085,18 @@
         <v>131</v>
       </c>
       <c r="L127" s="2"/>
-      <c r="M127" s="142"/>
+      <c r="M127" s="131"/>
       <c r="P127" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="Q127" s="122"/>
-      <c r="S127" s="123" t="str">
+      <c r="Q127" s="113"/>
+      <c r="S127" s="114" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="128" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="141"/>
+      <c r="B128" s="130"/>
       <c r="C128" s="2"/>
       <c r="D128" s="74">
         <v>0</v>
@@ -7301,18 +7124,18 @@
         <v>TBD</v>
       </c>
       <c r="L128" s="2"/>
-      <c r="M128" s="142"/>
+      <c r="M128" s="131"/>
       <c r="P128" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="Q128" s="122"/>
-      <c r="S128" s="123" t="str">
+      <c r="Q128" s="113"/>
+      <c r="S128" s="114" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="129" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B129" s="141"/>
+      <c r="B129" s="130"/>
       <c r="C129" s="2"/>
       <c r="D129" s="76"/>
       <c r="E129" s="40"/>
@@ -7333,20 +7156,20 @@
         <f>IF(OR(H128="",H129=""),"",IF(I128=SMALL(DHALF,2),G128,IF(I129=SMALL(DHALF,2),G129,IF(I130=SMALL(DHALF,2),G130,IF(I131=SMALL(DHALF,2),G131,"")))))</f>
         <v/>
       </c>
-      <c r="K129" s="169"/>
+      <c r="K129" s="158"/>
       <c r="L129" s="2"/>
-      <c r="M129" s="142"/>
+      <c r="M129" s="131"/>
       <c r="P129" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="Q129" s="122"/>
-      <c r="S129" s="123" t="str">
+      <c r="Q129" s="113"/>
+      <c r="S129" s="114" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="130" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="141"/>
+      <c r="B130" s="130"/>
       <c r="C130" s="2"/>
       <c r="D130" s="73" t="str">
         <f>IF(D129="","",D129)</f>
@@ -7366,21 +7189,21 @@
         <f>IF(H130="","",ABS(H130-$H$128/2))</f>
         <v/>
       </c>
-      <c r="J130" s="169"/>
-      <c r="K130" s="169"/>
+      <c r="J130" s="158"/>
+      <c r="K130" s="158"/>
       <c r="L130" s="2"/>
-      <c r="M130" s="142"/>
+      <c r="M130" s="131"/>
       <c r="P130" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="Q130" s="122"/>
-      <c r="S130" s="123" t="str">
+      <c r="Q130" s="113"/>
+      <c r="S130" s="114" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="131" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B131" s="141"/>
+      <c r="B131" s="130"/>
       <c r="C131" s="2"/>
       <c r="D131" s="75"/>
       <c r="E131" s="60"/>
@@ -7397,25 +7220,25 @@
         <f>IF(H131="","",ABS(H131-$H$128/2))</f>
         <v/>
       </c>
-      <c r="J131" s="169" t="s">
+      <c r="J131" s="158" t="s">
         <v>132</v>
       </c>
-      <c r="K131" s="169" t="s">
+      <c r="K131" s="158" t="s">
         <v>133</v>
       </c>
       <c r="L131" s="2"/>
-      <c r="M131" s="142"/>
+      <c r="M131" s="131"/>
       <c r="P131" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="Q131" s="122"/>
-      <c r="S131" s="123" t="str">
+      <c r="Q131" s="113"/>
+      <c r="S131" s="114" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="132" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B132" s="141"/>
+      <c r="B132" s="130"/>
       <c r="C132" s="2"/>
       <c r="D132" s="73" t="str">
         <f>IF(D131="","",D131)</f>
@@ -7423,11 +7246,11 @@
       </c>
       <c r="E132" s="55"/>
       <c r="F132" s="2"/>
-      <c r="G132" s="129" t="str">
+      <c r="G132" s="119" t="str">
         <f>HVL</f>
         <v>TBD</v>
       </c>
-      <c r="H132" s="129" t="str" cm="1">
+      <c r="H132" s="119" t="str" cm="1">
         <f t="array" ref="H132">_xlfn.SINGLE(IF(HVL="TBD","TBD",EXP(TREND(LNEXP,ALUM,G132))))</f>
         <v>TBD</v>
       </c>
@@ -7441,26 +7264,26 @@
         <v/>
       </c>
       <c r="L132" s="2"/>
-      <c r="M132" s="142"/>
+      <c r="M132" s="131"/>
       <c r="P132" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="Q132" s="122"/>
-      <c r="S132" s="123" t="str">
+      <c r="Q132" s="113"/>
+      <c r="S132" s="114" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="133" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B133" s="141"/>
+      <c r="B133" s="130"/>
       <c r="C133" s="2"/>
       <c r="D133" s="75"/>
       <c r="E133" s="60"/>
       <c r="F133" s="2"/>
-      <c r="G133" s="219" t="s">
+      <c r="G133" s="195" t="s">
         <v>134</v>
       </c>
-      <c r="H133" s="220"/>
+      <c r="H133" s="196"/>
       <c r="I133" s="81"/>
       <c r="J133" s="77" t="str">
         <f>IF(OR(H128="",H129=""),"",IF(G128=J129,H128,IF(G129=J129,H129,IF(G130=J129,H130,IF(G131=J129,H131,"")))))</f>
@@ -7471,18 +7294,18 @@
         <v/>
       </c>
       <c r="L133" s="2"/>
-      <c r="M133" s="142"/>
+      <c r="M133" s="131"/>
       <c r="P133" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="Q133" s="122"/>
-      <c r="S133" s="123" t="str">
+      <c r="Q133" s="113"/>
+      <c r="S133" s="114" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="134" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="141"/>
+      <c r="B134" s="130"/>
       <c r="C134" s="2"/>
       <c r="D134" s="73" t="str">
         <f>IF(D133="","",D133)</f>
@@ -7497,22 +7320,22 @@
         <f t="array" ref="H134">IF($B$124=1,IF(B127&lt;=75,MIN(ROUND(TREND(Tables!B81:B83,Tables!A81:A83,B127),1),TRUNC(TREND(Tables!B81:B83,Tables!A81:A83,B127),2)),MIN(ROUND(TREND(Tables!B84:B92,Tables!A84:A92,B127),1),TRUNC(TREND(Tables!B84:B92,Tables!A84:A92,B127),2))),MIN(ROUND(TREND(Tables!F78:F80,Tables!D78:D80,B127),1),TRUNC(TREND(Tables!F80:F85,Tables!D80:D85,B127),2)))</f>
         <v>2.6</v>
       </c>
-      <c r="I134" s="169"/>
-      <c r="J134" s="169"/>
-      <c r="K134" s="169"/>
+      <c r="I134" s="158"/>
+      <c r="J134" s="158"/>
+      <c r="K134" s="158"/>
       <c r="L134" s="2"/>
-      <c r="M134" s="142"/>
+      <c r="M134" s="131"/>
       <c r="P134" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="Q134" s="122"/>
-      <c r="S134" s="123" t="str">
+      <c r="Q134" s="113"/>
+      <c r="S134" s="114" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="135" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B135" s="141"/>
+      <c r="B135" s="130"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -7524,27 +7347,27 @@
         <f t="array" ref="H135">IF($B$124=1,"",ROUND(AVERAGE(ROUND(TREND(Tables!E78:E85,Tables!D78:D85,B127),2),TRUNC(TREND(Tables!E78:E85,Tables!D78:D85,B127),2)),1))</f>
         <v>3.1</v>
       </c>
-      <c r="I135" s="169"/>
-      <c r="J135" s="171" t="s">
+      <c r="I135" s="158"/>
+      <c r="J135" s="160" t="s">
         <v>135</v>
       </c>
-      <c r="K135" s="130" t="str">
+      <c r="K135" s="120" t="str">
         <f>IF(AND(E127="",E128=""),"TBD",IF(HVL&gt;=H134,"YES","NO"))</f>
         <v>TBD</v>
       </c>
       <c r="L135" s="2"/>
-      <c r="M135" s="142"/>
+      <c r="M135" s="131"/>
       <c r="P135" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="Q135" s="122"/>
-      <c r="S135" s="123" t="str">
+      <c r="Q135" s="113"/>
+      <c r="S135" s="114" t="str">
         <f t="shared" ref="S135:S146" si="15">IF(E240="","",E240)</f>
         <v/>
       </c>
     </row>
     <row r="136" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B136" s="141"/>
+      <c r="B136" s="130"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -7556,30 +7379,30 @@
         <f t="array" ref="H136">IF($B$124=1,"",MAX(ROUND(TREND(Tables!G78:G85,Tables!D78:D85,B127),1),TRUNC(TREND(Tables!G78:G85,Tables!D78:D85,B127,B127),2)))</f>
         <v>3.5</v>
       </c>
-      <c r="I136" s="169"/>
-      <c r="J136" s="169"/>
-      <c r="K136" s="169"/>
+      <c r="I136" s="158"/>
+      <c r="J136" s="158"/>
+      <c r="K136" s="158"/>
       <c r="L136" s="2"/>
-      <c r="M136" s="142"/>
+      <c r="M136" s="131"/>
       <c r="P136" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="Q136" s="122"/>
-      <c r="S136" s="123" t="str">
+      <c r="Q136" s="113"/>
+      <c r="S136" s="114" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="137" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B137" s="141"/>
+      <c r="B137" s="130"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
       <c r="H137" s="2"/>
-      <c r="I137" s="169"/>
-      <c r="J137" s="171" t="str">
+      <c r="I137" s="158"/>
+      <c r="J137" s="160" t="str">
         <f>"Previous HVL @ "&amp;Q79&amp;" kV:"</f>
         <v>Previous HVL @  kV:</v>
       </c>
@@ -7588,64 +7411,64 @@
         <v/>
       </c>
       <c r="L137" s="2"/>
-      <c r="M137" s="142"/>
+      <c r="M137" s="131"/>
       <c r="P137" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="Q137" s="122"/>
-      <c r="S137" s="123" t="str">
+      <c r="Q137" s="113"/>
+      <c r="S137" s="114" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="138" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B138" s="143"/>
-      <c r="C138" s="144"/>
-      <c r="D138" s="144"/>
-      <c r="E138" s="144"/>
-      <c r="F138" s="144"/>
-      <c r="G138" s="144"/>
-      <c r="H138" s="144"/>
-      <c r="I138" s="172"/>
-      <c r="J138" s="145"/>
-      <c r="K138" s="145"/>
-      <c r="L138" s="144"/>
-      <c r="M138" s="146"/>
+      <c r="B138" s="132"/>
+      <c r="C138" s="133"/>
+      <c r="D138" s="133"/>
+      <c r="E138" s="133"/>
+      <c r="F138" s="133"/>
+      <c r="G138" s="133"/>
+      <c r="H138" s="133"/>
+      <c r="I138" s="161"/>
+      <c r="J138" s="134"/>
+      <c r="K138" s="134"/>
+      <c r="L138" s="133"/>
+      <c r="M138" s="135"/>
       <c r="P138" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="Q138" s="122"/>
-      <c r="S138" s="123" t="str">
+      <c r="Q138" s="113"/>
+      <c r="S138" s="114" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="139" spans="2:19" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="166" t="s">
+      <c r="B139" s="155" t="s">
         <v>172</v>
       </c>
-      <c r="C139" s="139"/>
-      <c r="D139" s="139"/>
-      <c r="E139" s="139"/>
-      <c r="F139" s="139"/>
-      <c r="G139" s="139"/>
-      <c r="H139" s="139"/>
-      <c r="I139" s="139"/>
-      <c r="J139" s="139"/>
-      <c r="K139" s="139"/>
-      <c r="L139" s="139"/>
-      <c r="M139" s="140"/>
+      <c r="C139" s="128"/>
+      <c r="D139" s="128"/>
+      <c r="E139" s="128"/>
+      <c r="F139" s="128"/>
+      <c r="G139" s="128"/>
+      <c r="H139" s="128"/>
+      <c r="I139" s="128"/>
+      <c r="J139" s="128"/>
+      <c r="K139" s="128"/>
+      <c r="L139" s="128"/>
+      <c r="M139" s="129"/>
       <c r="P139" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="Q139" s="122"/>
-      <c r="S139" s="123" t="str">
+      <c r="Q139" s="113"/>
+      <c r="S139" s="114" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="140" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B140" s="154"/>
+      <c r="B140" s="143"/>
       <c r="C140" s="2" t="s">
         <v>173</v>
       </c>
@@ -7662,18 +7485,18 @@
         <v>93</v>
       </c>
       <c r="L140" s="2"/>
-      <c r="M140" s="142"/>
+      <c r="M140" s="131"/>
       <c r="P140" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="Q140" s="122"/>
-      <c r="S140" s="123" t="str">
+      <c r="Q140" s="113"/>
+      <c r="S140" s="114" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="141" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B141" s="154"/>
+      <c r="B141" s="143"/>
       <c r="C141" s="2" t="s">
         <v>174</v>
       </c>
@@ -7690,18 +7513,18 @@
         <v>186</v>
       </c>
       <c r="L141" s="2"/>
-      <c r="M141" s="142"/>
+      <c r="M141" s="131"/>
       <c r="P141" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="Q141" s="122"/>
-      <c r="S141" s="123" t="str">
+      <c r="Q141" s="113"/>
+      <c r="S141" s="114" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="142" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B142" s="173" t="str">
+      <c r="B142" s="162" t="str">
         <f>IF(OR(B140=0,B141=0),"",(B140/B141)^2)</f>
         <v/>
       </c>
@@ -7721,18 +7544,18 @@
         <v>94</v>
       </c>
       <c r="L142" s="2"/>
-      <c r="M142" s="142"/>
+      <c r="M142" s="131"/>
       <c r="P142" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="Q142" s="122"/>
-      <c r="S142" s="123" t="str">
+      <c r="Q142" s="113"/>
+      <c r="S142" s="114" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="143" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B143" s="141"/>
+      <c r="B143" s="130"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -7743,86 +7566,86 @@
       <c r="J143" s="2"/>
       <c r="K143" s="2"/>
       <c r="L143" s="2"/>
-      <c r="M143" s="142"/>
+      <c r="M143" s="131"/>
       <c r="P143" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="Q143" s="122"/>
-      <c r="S143" s="123" t="str">
+      <c r="Q143" s="113"/>
+      <c r="S143" s="114" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="144" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B144" s="141"/>
+      <c r="B144" s="130"/>
       <c r="C144" s="2"/>
-      <c r="D144" s="117" t="s">
+      <c r="D144" s="185" t="s">
         <v>178</v>
       </c>
-      <c r="E144" s="117" t="s">
+      <c r="E144" s="185" t="s">
         <v>179</v>
       </c>
-      <c r="F144" s="117" t="s">
+      <c r="F144" s="185" t="s">
         <v>189</v>
       </c>
-      <c r="G144" s="117" t="s">
+      <c r="G144" s="185" t="s">
         <v>190</v>
       </c>
-      <c r="H144" s="117" t="s">
+      <c r="H144" s="185" t="s">
         <v>192</v>
       </c>
-      <c r="I144" s="117"/>
+      <c r="I144" s="185"/>
       <c r="J144" s="2"/>
       <c r="K144" s="2"/>
       <c r="L144" s="2"/>
-      <c r="M144" s="142"/>
+      <c r="M144" s="131"/>
       <c r="P144" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="Q144" s="122"/>
-      <c r="S144" s="123" t="str">
+      <c r="Q144" s="113"/>
+      <c r="S144" s="114" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="145" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B145" s="174" t="s">
+      <c r="B145" s="163" t="s">
         <v>125</v>
       </c>
-      <c r="C145" s="117" t="s">
+      <c r="C145" s="185" t="s">
         <v>105</v>
       </c>
-      <c r="D145" s="222" t="s">
+      <c r="D145" s="198" t="s">
         <v>171</v>
       </c>
-      <c r="E145" s="222"/>
-      <c r="F145" s="92" t="s">
+      <c r="E145" s="198"/>
+      <c r="F145" s="91" t="s">
         <v>183</v>
       </c>
-      <c r="G145" s="175" t="s">
+      <c r="G145" s="164" t="s">
         <v>191</v>
       </c>
-      <c r="H145" s="92" t="s">
+      <c r="H145" s="91" t="s">
         <v>183</v>
       </c>
-      <c r="I145" s="117" t="s">
+      <c r="I145" s="185" t="s">
         <v>187</v>
       </c>
       <c r="J145" s="2"/>
       <c r="K145" s="2"/>
       <c r="L145" s="2"/>
-      <c r="M145" s="142"/>
+      <c r="M145" s="131"/>
       <c r="P145" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="Q145" s="122"/>
-      <c r="S145" s="123" t="str">
+      <c r="Q145" s="113"/>
+      <c r="S145" s="114" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="146" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B146" s="170"/>
+      <c r="B146" s="159"/>
       <c r="C146" s="39"/>
       <c r="D146" s="37"/>
       <c r="E146" s="39"/>
@@ -7834,26 +7657,26 @@
         <f>IF(F146="","",F146*$B$142)</f>
         <v/>
       </c>
-      <c r="H146" s="89"/>
-      <c r="I146" s="93" t="str">
+      <c r="H146" s="88"/>
+      <c r="I146" s="92" t="str">
         <f>IF(G146="","",(G146-H146)/H146)</f>
         <v/>
       </c>
       <c r="J146" s="2"/>
       <c r="K146" s="2"/>
       <c r="L146" s="2"/>
-      <c r="M146" s="142"/>
+      <c r="M146" s="131"/>
       <c r="P146" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="Q146" s="122"/>
-      <c r="S146" s="123" t="str">
+      <c r="Q146" s="113"/>
+      <c r="S146" s="114" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="147" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B147" s="176"/>
+      <c r="B147" s="165"/>
       <c r="C147" s="44"/>
       <c r="D147" s="42"/>
       <c r="E147" s="44"/>
@@ -7865,21 +7688,21 @@
         <f t="shared" ref="G147:G150" si="17">IF(F147="","",F147*$B$142)</f>
         <v/>
       </c>
-      <c r="H147" s="90"/>
-      <c r="I147" s="94" t="str">
+      <c r="H147" s="89"/>
+      <c r="I147" s="93" t="str">
         <f t="shared" ref="I147:I150" si="18">IF(G147="","",(G147-H147)/H147)</f>
         <v/>
       </c>
       <c r="J147" s="2"/>
       <c r="K147" s="2"/>
       <c r="L147" s="2"/>
-      <c r="M147" s="142"/>
+      <c r="M147" s="131"/>
       <c r="P147" s="9" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="148" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B148" s="176"/>
+      <c r="B148" s="165"/>
       <c r="C148" s="44"/>
       <c r="D148" s="42"/>
       <c r="E148" s="44"/>
@@ -7891,26 +7714,26 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="H148" s="90"/>
-      <c r="I148" s="94" t="str">
+      <c r="H148" s="89"/>
+      <c r="I148" s="93" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="J148" s="2"/>
       <c r="K148" s="2"/>
       <c r="L148" s="2"/>
-      <c r="M148" s="142"/>
+      <c r="M148" s="131"/>
       <c r="P148" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="Q148" s="122"/>
-      <c r="S148" s="123" t="str">
+      <c r="Q148" s="113"/>
+      <c r="S148" s="114" t="str">
         <f>IF(D121="","",D121)</f>
         <v/>
       </c>
     </row>
     <row r="149" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B149" s="176"/>
+      <c r="B149" s="165"/>
       <c r="C149" s="44"/>
       <c r="D149" s="42"/>
       <c r="E149" s="44"/>
@@ -7922,26 +7745,26 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="H149" s="90"/>
-      <c r="I149" s="94" t="str">
+      <c r="H149" s="89"/>
+      <c r="I149" s="93" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="J149" s="2"/>
       <c r="K149" s="2"/>
       <c r="L149" s="2"/>
-      <c r="M149" s="142"/>
+      <c r="M149" s="131"/>
       <c r="P149" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="Q149" s="122"/>
-      <c r="S149" s="123" t="str">
+      <c r="Q149" s="113"/>
+      <c r="S149" s="114" t="str">
         <f>IF(D198="","",D198)</f>
         <v/>
       </c>
     </row>
     <row r="150" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="177"/>
+      <c r="B150" s="166"/>
       <c r="C150" s="54"/>
       <c r="D150" s="52"/>
       <c r="E150" s="54"/>
@@ -7953,94 +7776,94 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="H150" s="91"/>
-      <c r="I150" s="95" t="str">
+      <c r="H150" s="90"/>
+      <c r="I150" s="94" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="J150" s="2"/>
       <c r="K150" s="2"/>
       <c r="L150" s="2"/>
-      <c r="M150" s="142"/>
+      <c r="M150" s="131"/>
       <c r="P150" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="Q150" s="122"/>
-      <c r="S150" s="123" t="str">
+      <c r="Q150" s="113"/>
+      <c r="S150" s="114" t="str">
         <f>IF(D181="","",D181)</f>
         <v/>
       </c>
     </row>
     <row r="151" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B151" s="141"/>
+      <c r="B151" s="130"/>
       <c r="C151" s="2"/>
-      <c r="D151" s="117" t="s">
+      <c r="D151" s="185" t="s">
         <v>180</v>
       </c>
-      <c r="E151" s="117" t="s">
+      <c r="E151" s="185" t="s">
         <v>181</v>
       </c>
-      <c r="F151" s="117" t="s">
+      <c r="F151" s="185" t="s">
         <v>189</v>
       </c>
-      <c r="G151" s="117" t="s">
+      <c r="G151" s="185" t="s">
         <v>193</v>
       </c>
-      <c r="H151" s="117" t="s">
+      <c r="H151" s="185" t="s">
         <v>192</v>
       </c>
-      <c r="I151" s="117"/>
+      <c r="I151" s="185"/>
       <c r="J151" s="2"/>
       <c r="K151" s="2"/>
       <c r="L151" s="2"/>
-      <c r="M151" s="142"/>
+      <c r="M151" s="131"/>
       <c r="P151" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="Q151" s="122"/>
-      <c r="S151" s="123" t="str">
+      <c r="Q151" s="113"/>
+      <c r="S151" s="114" t="str">
         <f>IF(D235="","",D235)</f>
         <v/>
       </c>
     </row>
     <row r="152" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B152" s="174" t="s">
+      <c r="B152" s="163" t="s">
         <v>125</v>
       </c>
-      <c r="C152" s="117" t="s">
+      <c r="C152" s="185" t="s">
         <v>105</v>
       </c>
-      <c r="D152" s="222" t="s">
+      <c r="D152" s="198" t="s">
         <v>184</v>
       </c>
-      <c r="E152" s="222"/>
-      <c r="F152" s="92" t="s">
+      <c r="E152" s="198"/>
+      <c r="F152" s="91" t="s">
         <v>185</v>
       </c>
-      <c r="G152" s="175" t="s">
+      <c r="G152" s="164" t="s">
         <v>191</v>
       </c>
-      <c r="H152" s="92" t="s">
+      <c r="H152" s="91" t="s">
         <v>185</v>
       </c>
-      <c r="I152" s="117" t="s">
+      <c r="I152" s="185" t="s">
         <v>187</v>
       </c>
       <c r="J152" s="2"/>
       <c r="K152" s="2"/>
       <c r="L152" s="2"/>
-      <c r="M152" s="142"/>
+      <c r="M152" s="131"/>
       <c r="P152" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="Q152" s="122"/>
-      <c r="S152" s="123" t="str">
+      <c r="Q152" s="113"/>
+      <c r="S152" s="114" t="str">
         <f>IF(D254="","",D254)</f>
         <v/>
       </c>
     </row>
     <row r="153" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B153" s="170"/>
+      <c r="B153" s="159"/>
       <c r="C153" s="39"/>
       <c r="D153" s="37"/>
       <c r="E153" s="39"/>
@@ -8052,26 +7875,26 @@
         <f t="shared" ref="G153:G157" si="20">IF(F153="","",F153*$B$142)</f>
         <v/>
       </c>
-      <c r="H153" s="89"/>
-      <c r="I153" s="96" t="str">
+      <c r="H153" s="88"/>
+      <c r="I153" s="95" t="str">
         <f t="shared" ref="I153:I157" si="21">IF(G153="","",(G153-H153)/H153)</f>
         <v/>
       </c>
       <c r="J153" s="2"/>
       <c r="K153" s="2"/>
       <c r="L153" s="2"/>
-      <c r="M153" s="142"/>
+      <c r="M153" s="131"/>
       <c r="P153" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="Q153" s="122"/>
-      <c r="S153" s="123" t="str">
+      <c r="Q153" s="113"/>
+      <c r="S153" s="114" t="str">
         <f>IF(D267="","",D267)</f>
         <v/>
       </c>
     </row>
     <row r="154" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B154" s="176"/>
+      <c r="B154" s="165"/>
       <c r="C154" s="44"/>
       <c r="D154" s="42"/>
       <c r="E154" s="44"/>
@@ -8083,22 +7906,21 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="H154" s="90"/>
-      <c r="I154" s="97" t="str">
+      <c r="H154" s="89"/>
+      <c r="I154" s="96" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="J154" s="2"/>
       <c r="K154" s="2"/>
       <c r="L154" s="2"/>
-      <c r="M154" s="142"/>
-      <c r="P154" s="206"/>
-      <c r="Q154" s="206"/>
-      <c r="R154" s="206"/>
-      <c r="S154" s="206"/>
+      <c r="M154" s="131"/>
+      <c r="Q154" s="1"/>
+      <c r="R154" s="1"/>
+      <c r="S154" s="1"/>
     </row>
     <row r="155" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B155" s="176"/>
+      <c r="B155" s="165"/>
       <c r="C155" s="44"/>
       <c r="D155" s="42"/>
       <c r="E155" s="44"/>
@@ -8110,24 +7932,22 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="H155" s="90"/>
-      <c r="I155" s="97" t="str">
+      <c r="H155" s="89"/>
+      <c r="I155" s="96" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="J155" s="2"/>
       <c r="K155" s="2"/>
       <c r="L155" s="2"/>
-      <c r="M155" s="142"/>
-      <c r="P155" s="207" t="s">
-        <v>404</v>
-      </c>
-      <c r="Q155" s="206"/>
-      <c r="R155" s="206"/>
-      <c r="S155" s="206"/>
+      <c r="M155" s="131"/>
+      <c r="P155" s="9"/>
+      <c r="Q155" s="1"/>
+      <c r="R155" s="1"/>
+      <c r="S155" s="1"/>
     </row>
     <row r="156" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B156" s="176"/>
+      <c r="B156" s="165"/>
       <c r="C156" s="44"/>
       <c r="D156" s="42"/>
       <c r="E156" s="44"/>
@@ -8139,21 +7959,21 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="H156" s="90"/>
-      <c r="I156" s="97" t="str">
+      <c r="H156" s="89"/>
+      <c r="I156" s="96" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="J156" s="2"/>
       <c r="K156" s="2"/>
       <c r="L156" s="2"/>
-      <c r="M156" s="142"/>
+      <c r="M156" s="131"/>
       <c r="P156" s="9" t="s">
-        <v>405</v>
+        <v>375</v>
       </c>
     </row>
     <row r="157" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B157" s="177"/>
+      <c r="B157" s="166"/>
       <c r="C157" s="54"/>
       <c r="D157" s="52"/>
       <c r="E157" s="54"/>
@@ -8165,69 +7985,69 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="H157" s="91"/>
-      <c r="I157" s="98" t="str">
+      <c r="H157" s="90"/>
+      <c r="I157" s="97" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="J157" s="2"/>
       <c r="K157" s="2"/>
       <c r="L157" s="2"/>
-      <c r="M157" s="142"/>
+      <c r="M157" s="131"/>
       <c r="P157" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q157" s="122"/>
-      <c r="S157" s="123" t="str">
-        <f>IF(D274="","",D274)</f>
+        <v>376</v>
+      </c>
+      <c r="Q157" s="113"/>
+      <c r="S157" s="114" t="str">
+        <f>IF(D270="","",D270)</f>
         <v/>
       </c>
     </row>
     <row r="158" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B158" s="141"/>
+      <c r="B158" s="130"/>
       <c r="C158" s="2"/>
-      <c r="D158" s="117" t="s">
+      <c r="D158" s="185" t="s">
         <v>189</v>
       </c>
-      <c r="E158" s="117" t="s">
+      <c r="E158" s="185" t="s">
         <v>182</v>
       </c>
-      <c r="F158" s="117" t="s">
+      <c r="F158" s="185" t="s">
         <v>192</v>
       </c>
-      <c r="G158" s="117"/>
+      <c r="G158" s="185"/>
       <c r="H158" s="2"/>
       <c r="I158" s="2"/>
       <c r="J158" s="2"/>
       <c r="K158" s="2"/>
       <c r="L158" s="2"/>
-      <c r="M158" s="142"/>
+      <c r="M158" s="131"/>
       <c r="P158" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q158" s="122"/>
-      <c r="S158" s="123" t="str">
-        <f t="shared" ref="S158:S168" si="22">IF(D275="","",D275)</f>
+        <v>316</v>
+      </c>
+      <c r="Q158" s="113"/>
+      <c r="S158" s="114" t="str">
+        <f t="shared" ref="S158:S159" si="22">IF(D271="","",D271)</f>
         <v/>
       </c>
     </row>
     <row r="159" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B159" s="174" t="s">
+      <c r="B159" s="163" t="s">
         <v>125</v>
       </c>
-      <c r="C159" s="117" t="s">
+      <c r="C159" s="185" t="s">
         <v>105</v>
       </c>
-      <c r="D159" s="92" t="s">
+      <c r="D159" s="91" t="s">
         <v>194</v>
       </c>
-      <c r="E159" s="175" t="s">
+      <c r="E159" s="164" t="s">
         <v>191</v>
       </c>
-      <c r="F159" s="92" t="s">
+      <c r="F159" s="91" t="s">
         <v>194</v>
       </c>
-      <c r="G159" s="117" t="s">
+      <c r="G159" s="185" t="s">
         <v>187</v>
       </c>
       <c r="H159" s="2"/>
@@ -8235,18 +8055,18 @@
       <c r="J159" s="2"/>
       <c r="K159" s="2"/>
       <c r="L159" s="2"/>
-      <c r="M159" s="142"/>
+      <c r="M159" s="131"/>
       <c r="P159" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="Q159" s="122"/>
-      <c r="S159" s="123" t="str">
+      <c r="Q159" s="113"/>
+      <c r="S159" s="114" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
     <row r="160" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B160" s="170"/>
+      <c r="B160" s="159"/>
       <c r="C160" s="39"/>
       <c r="D160" s="40"/>
       <c r="E160" s="85" t="str">
@@ -8254,7 +8074,7 @@
         <v/>
       </c>
       <c r="F160" s="37"/>
-      <c r="G160" s="99" t="str">
+      <c r="G160" s="98" t="str">
         <f t="shared" ref="G160:G164" si="23">IF(E160="","",(E160-F160)/F160)</f>
         <v/>
       </c>
@@ -8263,18 +8083,18 @@
       <c r="J160" s="2"/>
       <c r="K160" s="2"/>
       <c r="L160" s="2"/>
-      <c r="M160" s="142"/>
+      <c r="M160" s="131"/>
       <c r="P160" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q160" s="122"/>
-      <c r="S160" s="123" t="str">
-        <f t="shared" si="22"/>
-        <v/>
+        <v>381</v>
+      </c>
+      <c r="Q160" s="113"/>
+      <c r="S160" s="114">
+        <f>IF(D281="","",D281)</f>
+        <v>18.036666666666665</v>
       </c>
     </row>
     <row r="161" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B161" s="176"/>
+      <c r="B161" s="165"/>
       <c r="C161" s="44"/>
       <c r="D161" s="45"/>
       <c r="E161" s="86" t="str">
@@ -8282,7 +8102,7 @@
         <v/>
       </c>
       <c r="F161" s="42"/>
-      <c r="G161" s="100" t="str">
+      <c r="G161" s="99" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -8291,18 +8111,18 @@
       <c r="J161" s="2"/>
       <c r="K161" s="2"/>
       <c r="L161" s="2"/>
-      <c r="M161" s="142"/>
+      <c r="M161" s="131"/>
       <c r="P161" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q161" s="122"/>
-      <c r="S161" s="123" t="str">
-        <f t="shared" si="22"/>
+        <v>384</v>
+      </c>
+      <c r="Q161" s="113"/>
+      <c r="S161" s="114" t="str">
+        <f>IF(D288="","",D288)</f>
         <v/>
       </c>
     </row>
     <row r="162" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B162" s="176"/>
+      <c r="B162" s="165"/>
       <c r="C162" s="44"/>
       <c r="D162" s="45"/>
       <c r="E162" s="86" t="str">
@@ -8310,7 +8130,7 @@
         <v/>
       </c>
       <c r="F162" s="42"/>
-      <c r="G162" s="100" t="str">
+      <c r="G162" s="99" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -8319,18 +8139,16 @@
       <c r="J162" s="2"/>
       <c r="K162" s="2"/>
       <c r="L162" s="2"/>
-      <c r="M162" s="142"/>
-      <c r="P162" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q162" s="122"/>
-      <c r="S162" s="123" t="str">
-        <f t="shared" si="22"/>
+      <c r="M162" s="131"/>
+      <c r="P162" s="4"/>
+      <c r="Q162" s="113"/>
+      <c r="S162" s="114" t="str">
+        <f>IF(E282="","",E282)</f>
         <v/>
       </c>
     </row>
     <row r="163" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B163" s="176"/>
+      <c r="B163" s="165"/>
       <c r="C163" s="44"/>
       <c r="D163" s="45"/>
       <c r="E163" s="86" t="str">
@@ -8338,7 +8156,7 @@
         <v/>
       </c>
       <c r="F163" s="42"/>
-      <c r="G163" s="100" t="str">
+      <c r="G163" s="99" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -8347,18 +8165,16 @@
       <c r="J163" s="2"/>
       <c r="K163" s="2"/>
       <c r="L163" s="2"/>
-      <c r="M163" s="142"/>
-      <c r="P163" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q163" s="122"/>
-      <c r="S163" s="123" t="str">
-        <f t="shared" si="22"/>
+      <c r="M163" s="131"/>
+      <c r="P163" s="4"/>
+      <c r="Q163" s="113"/>
+      <c r="S163" s="114" t="str">
+        <f>IF(E283="","",E283)</f>
         <v/>
       </c>
     </row>
     <row r="164" spans="2:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B164" s="177"/>
+      <c r="B164" s="166"/>
       <c r="C164" s="54"/>
       <c r="D164" s="55"/>
       <c r="E164" s="87" t="str">
@@ -8366,7 +8182,7 @@
         <v/>
       </c>
       <c r="F164" s="52"/>
-      <c r="G164" s="101" t="str">
+      <c r="G164" s="100" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -8375,274 +8191,254 @@
       <c r="J164" s="2"/>
       <c r="K164" s="2"/>
       <c r="L164" s="2"/>
-      <c r="M164" s="142"/>
-      <c r="P164" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q164" s="122"/>
-      <c r="S164" s="123" t="str">
-        <f t="shared" si="22"/>
+      <c r="M164" s="131"/>
+      <c r="P164" s="4"/>
+      <c r="Q164" s="113"/>
+      <c r="S164" s="114" t="str">
+        <f>IF(E284="","",E284)</f>
         <v/>
       </c>
     </row>
     <row r="165" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B165" s="178"/>
-      <c r="C165" s="179"/>
-      <c r="D165" s="179"/>
-      <c r="E165" s="179"/>
-      <c r="F165" s="179"/>
-      <c r="G165" s="179"/>
-      <c r="H165" s="179"/>
-      <c r="I165" s="179"/>
-      <c r="J165" s="117"/>
+      <c r="B165" s="130"/>
+      <c r="C165" s="2"/>
+      <c r="D165" s="2"/>
+      <c r="E165" s="2"/>
+      <c r="F165" s="2"/>
+      <c r="G165" s="2"/>
+      <c r="H165" s="2"/>
+      <c r="I165" s="2"/>
+      <c r="J165" s="185"/>
       <c r="K165" s="2"/>
       <c r="L165" s="2"/>
-      <c r="M165" s="142"/>
-      <c r="P165" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="Q165" s="122"/>
-      <c r="S165" s="123" t="str">
-        <f t="shared" si="22"/>
-        <v/>
+      <c r="M165" s="131"/>
+      <c r="P165" s="4"/>
+      <c r="Q165" s="113"/>
+      <c r="S165" s="114" t="e">
+        <f>IF(#REF!="","",#REF!)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="166" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B166" s="180" t="s">
+      <c r="B166" s="176" t="s">
         <v>118</v>
       </c>
-      <c r="C166" s="181" t="s">
+      <c r="C166" s="145" t="s">
         <v>195</v>
       </c>
-      <c r="D166" s="179"/>
-      <c r="E166" s="179"/>
-      <c r="F166" s="179"/>
-      <c r="G166" s="179"/>
-      <c r="H166" s="179"/>
-      <c r="I166" s="179"/>
-      <c r="J166" s="117"/>
+      <c r="D166" s="2"/>
+      <c r="E166" s="2"/>
+      <c r="F166" s="2"/>
+      <c r="G166" s="2"/>
+      <c r="H166" s="2"/>
+      <c r="I166" s="2"/>
+      <c r="J166" s="185"/>
       <c r="K166" s="2"/>
       <c r="L166" s="2"/>
-      <c r="M166" s="142"/>
-      <c r="P166" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q166" s="122"/>
-      <c r="S166" s="123" t="str">
-        <f t="shared" si="22"/>
-        <v/>
+      <c r="M166" s="131"/>
+      <c r="P166" s="4"/>
+      <c r="Q166" s="113"/>
+      <c r="S166" s="114" t="e">
+        <f>IF(#REF!="","",#REF!)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="167" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B167" s="182"/>
-      <c r="C167" s="183"/>
-      <c r="D167" s="183"/>
-      <c r="E167" s="183"/>
-      <c r="F167" s="183"/>
-      <c r="G167" s="183"/>
-      <c r="H167" s="183"/>
-      <c r="I167" s="183"/>
-      <c r="J167" s="144"/>
-      <c r="K167" s="144"/>
-      <c r="L167" s="144"/>
-      <c r="M167" s="146"/>
-      <c r="P167" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q167" s="122"/>
-      <c r="S167" s="123" t="str">
-        <f t="shared" si="22"/>
-        <v/>
+      <c r="B167" s="132"/>
+      <c r="C167" s="133"/>
+      <c r="D167" s="133"/>
+      <c r="E167" s="133"/>
+      <c r="F167" s="133"/>
+      <c r="G167" s="133"/>
+      <c r="H167" s="133"/>
+      <c r="I167" s="133"/>
+      <c r="J167" s="133"/>
+      <c r="K167" s="133"/>
+      <c r="L167" s="133"/>
+      <c r="M167" s="135"/>
+      <c r="P167" s="4"/>
+      <c r="Q167" s="113"/>
+      <c r="S167" s="114" t="e">
+        <f>IF(#REF!="","",#REF!)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="168" spans="2:19" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="184" t="s">
+      <c r="B168" s="155" t="s">
         <v>196</v>
       </c>
-      <c r="C168" s="185"/>
-      <c r="D168" s="185"/>
-      <c r="E168" s="185"/>
-      <c r="F168" s="185"/>
-      <c r="G168" s="185"/>
-      <c r="H168" s="185"/>
-      <c r="I168" s="185"/>
-      <c r="J168" s="139"/>
-      <c r="K168" s="139"/>
-      <c r="L168" s="139"/>
-      <c r="M168" s="140"/>
-      <c r="P168" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q168" s="122"/>
-      <c r="S168" s="123" t="str">
-        <f t="shared" si="22"/>
+      <c r="C168" s="128"/>
+      <c r="D168" s="128"/>
+      <c r="E168" s="128"/>
+      <c r="F168" s="128"/>
+      <c r="G168" s="128"/>
+      <c r="H168" s="128"/>
+      <c r="I168" s="128"/>
+      <c r="J168" s="128"/>
+      <c r="K168" s="128"/>
+      <c r="L168" s="128"/>
+      <c r="M168" s="129"/>
+      <c r="P168" s="4"/>
+      <c r="Q168" s="113"/>
+      <c r="S168" s="114" t="str">
+        <f t="shared" ref="S158:S168" si="25">IF(D285="","",D285)</f>
         <v/>
       </c>
     </row>
     <row r="169" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B169" s="178"/>
-      <c r="C169" s="179"/>
-      <c r="D169" s="179"/>
-      <c r="E169" s="179"/>
-      <c r="F169" s="186" t="s">
+      <c r="B169" s="130"/>
+      <c r="C169" s="2"/>
+      <c r="D169" s="2"/>
+      <c r="E169" s="2"/>
+      <c r="F169" s="185" t="s">
         <v>197</v>
       </c>
-      <c r="G169" s="179"/>
-      <c r="H169" s="179"/>
-      <c r="I169" s="179"/>
+      <c r="G169" s="2"/>
+      <c r="H169" s="2"/>
+      <c r="I169" s="2"/>
       <c r="J169" s="2"/>
       <c r="K169" s="2"/>
       <c r="L169" s="2"/>
-      <c r="M169" s="142"/>
-      <c r="P169" s="9" t="s">
-        <v>406</v>
-      </c>
+      <c r="M169" s="131"/>
+      <c r="P169" s="9"/>
     </row>
     <row r="170" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B170" s="178"/>
-      <c r="C170" s="179"/>
-      <c r="D170" s="186" t="s">
+      <c r="B170" s="130"/>
+      <c r="C170" s="2"/>
+      <c r="D170" s="185" t="s">
         <v>104</v>
       </c>
-      <c r="E170" s="186" t="s">
+      <c r="E170" s="185" t="s">
         <v>105</v>
       </c>
-      <c r="F170" s="186" t="s">
+      <c r="F170" s="185" t="s">
         <v>106</v>
       </c>
-      <c r="G170" s="186" t="s">
+      <c r="G170" s="185" t="s">
         <v>198</v>
       </c>
-      <c r="H170" s="186" t="s">
+      <c r="H170" s="185" t="s">
         <v>199</v>
       </c>
-      <c r="I170" s="179"/>
-      <c r="J170" s="104" t="s">
+      <c r="I170" s="2"/>
+      <c r="J170" s="101" t="s">
         <v>200</v>
       </c>
       <c r="K170" s="2"/>
       <c r="L170" s="2"/>
-      <c r="M170" s="142"/>
-      <c r="P170" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q170" s="122"/>
-      <c r="S170" s="123" t="str">
-        <f>IF(E274="","",E274)</f>
+      <c r="M170" s="131"/>
+      <c r="P170" s="4"/>
+      <c r="Q170" s="113"/>
+      <c r="S170" s="114" t="str">
+        <f>IF(F277="","",F277)</f>
         <v/>
       </c>
     </row>
     <row r="171" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B171" s="178"/>
-      <c r="C171" s="102" t="s">
+      <c r="B171" s="130"/>
+      <c r="C171" s="210" t="s">
         <v>201</v>
       </c>
-      <c r="D171" s="103" t="str">
+      <c r="D171" s="211" t="str">
         <f>IF(AND(D44="",G44=""),"",IF($B$93=1,D44,IF(AND($B$94=1,J44&lt;&gt;""),J44,IF(G44&lt;&gt;"",G44,IF(D44&lt;&gt;"",D44,"")))))</f>
         <v/>
       </c>
-      <c r="E171" s="103" t="str">
-        <f t="shared" ref="E171:F171" si="25">IF(AND(E44="",H44=""),"",IF($B$93=1,E44,IF(AND($B$94=1,K44&lt;&gt;""),K44,IF(H44&lt;&gt;"",H44,IF(E44&lt;&gt;"",E44,"")))))</f>
-        <v/>
-      </c>
-      <c r="F171" s="103" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="G171" s="127">
+      <c r="E171" s="211" t="str">
+        <f t="shared" ref="E171:F171" si="26">IF(AND(E44="",H44=""),"",IF($B$93=1,E44,IF(AND($B$94=1,K44&lt;&gt;""),K44,IF(H44&lt;&gt;"",H44,IF(E44&lt;&gt;"",E44,"")))))</f>
+        <v/>
+      </c>
+      <c r="F171" s="211" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="G171" s="212">
         <v>0</v>
       </c>
-      <c r="H171" s="106" t="str">
+      <c r="H171" s="213" t="str">
         <f>IF(Q82="","",Q82)</f>
         <v/>
       </c>
-      <c r="I171" s="179"/>
-      <c r="J171" s="105" t="str">
+      <c r="I171" s="2"/>
+      <c r="J171" s="102" t="str">
         <f>IF(G171="NA","NA",IF(OR(F171="",G171=""),"TBD",IF(G171&lt;=2*F171,"YES","NO")))</f>
         <v>TBD</v>
       </c>
       <c r="K171" s="2"/>
       <c r="L171" s="2"/>
-      <c r="M171" s="142"/>
-      <c r="P171" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q171" s="122"/>
-      <c r="S171" s="123" t="str">
-        <f t="shared" ref="S171:S181" si="26">IF(E275="","",E275)</f>
+      <c r="M171" s="131"/>
+      <c r="P171" s="4"/>
+      <c r="Q171" s="113"/>
+      <c r="S171" s="114" t="str">
+        <f>IF(F278="","",F278)</f>
         <v/>
       </c>
     </row>
     <row r="172" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B172" s="178"/>
-      <c r="C172" s="179"/>
-      <c r="D172" s="179"/>
-      <c r="E172" s="179"/>
-      <c r="F172" s="186" t="s">
+      <c r="B172" s="130"/>
+      <c r="C172" s="2"/>
+      <c r="D172" s="2"/>
+      <c r="E172" s="2"/>
+      <c r="F172" s="185" t="s">
         <v>202</v>
       </c>
-      <c r="G172" s="186" t="s">
+      <c r="G172" s="185" t="s">
         <v>203</v>
       </c>
-      <c r="H172" s="186" t="s">
+      <c r="H172" s="185" t="s">
         <v>202</v>
       </c>
-      <c r="I172" s="186" t="s">
+      <c r="I172" s="185" t="s">
         <v>203</v>
       </c>
-      <c r="J172" s="117" t="s">
+      <c r="J172" s="185" t="s">
         <v>202</v>
       </c>
-      <c r="K172" s="117" t="s">
+      <c r="K172" s="185" t="s">
         <v>203</v>
       </c>
       <c r="L172" s="2"/>
-      <c r="M172" s="142"/>
-      <c r="P172" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q172" s="122"/>
-      <c r="S172" s="123" t="str">
-        <f t="shared" si="26"/>
-        <v/>
+      <c r="M172" s="131"/>
+      <c r="P172" s="4"/>
+      <c r="Q172" s="113"/>
+      <c r="S172" s="114">
+        <f>IF(F279="","",F279)</f>
+        <v>18.68</v>
       </c>
     </row>
     <row r="173" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="141"/>
+      <c r="B173" s="130"/>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
-      <c r="F173" s="117" t="s">
+      <c r="F173" s="185" t="s">
         <v>204</v>
       </c>
-      <c r="G173" s="117" t="s">
+      <c r="G173" s="185" t="s">
         <v>204</v>
       </c>
-      <c r="H173" s="117" t="s">
+      <c r="H173" s="185" t="s">
         <v>198</v>
       </c>
-      <c r="I173" s="117" t="s">
+      <c r="I173" s="185" t="s">
         <v>198</v>
       </c>
-      <c r="J173" s="117" t="s">
+      <c r="J173" s="185" t="s">
         <v>198</v>
       </c>
-      <c r="K173" s="117" t="s">
+      <c r="K173" s="185" t="s">
         <v>198</v>
       </c>
       <c r="L173" s="2"/>
-      <c r="M173" s="142"/>
-      <c r="P173" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q173" s="122"/>
-      <c r="S173" s="123" t="str">
-        <f t="shared" si="26"/>
-        <v/>
+      <c r="M173" s="131"/>
+      <c r="P173" s="4"/>
+      <c r="Q173" s="113"/>
+      <c r="S173" s="114" t="e">
+        <f>IF(F280="","",F280)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="174" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B174" s="223" t="s">
+      <c r="B174" s="199" t="s">
         <v>205</v>
       </c>
       <c r="C174" s="27" t="s">
@@ -8666,27 +8462,25 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="J174" s="126" t="str">
+      <c r="J174" s="117" t="str">
         <f>IF(Q83="","",Q83)</f>
         <v/>
       </c>
-      <c r="K174" s="110" t="str">
+      <c r="K174" s="106" t="str">
         <f>IF(Q85="","",Q85)</f>
         <v/>
       </c>
       <c r="L174" s="2"/>
-      <c r="M174" s="142"/>
-      <c r="P174" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q174" s="122"/>
-      <c r="S174" s="123" t="str">
-        <f t="shared" si="26"/>
+      <c r="M174" s="131"/>
+      <c r="P174" s="4"/>
+      <c r="Q174" s="113"/>
+      <c r="S174" s="114" t="str">
+        <f>IF(F281="","",F281)</f>
         <v/>
       </c>
     </row>
     <row r="175" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B175" s="224"/>
+      <c r="B175" s="200"/>
       <c r="C175" s="33" t="s">
         <v>207</v>
       </c>
@@ -8717,22 +8511,20 @@
         <v/>
       </c>
       <c r="L175" s="2"/>
-      <c r="M175" s="142"/>
-      <c r="P175" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q175" s="122"/>
-      <c r="S175" s="123" t="str">
-        <f t="shared" si="26"/>
+      <c r="M175" s="131"/>
+      <c r="P175" s="4"/>
+      <c r="Q175" s="113"/>
+      <c r="S175" s="114" t="str">
+        <f>IF(F282="","",F282)</f>
         <v/>
       </c>
     </row>
     <row r="176" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B176" s="141"/>
-      <c r="C176" s="156" t="s">
+      <c r="B176" s="130"/>
+      <c r="C176" s="145" t="s">
         <v>208</v>
       </c>
-      <c r="D176" s="156"/>
+      <c r="D176" s="145"/>
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
       <c r="G176" s="2"/>
@@ -8741,22 +8533,20 @@
       <c r="J176" s="2"/>
       <c r="K176" s="2"/>
       <c r="L176" s="2"/>
-      <c r="M176" s="142"/>
-      <c r="P176" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q176" s="122"/>
-      <c r="S176" s="123" t="str">
-        <f t="shared" si="26"/>
+      <c r="M176" s="131"/>
+      <c r="P176" s="4"/>
+      <c r="Q176" s="113"/>
+      <c r="S176" s="114" t="str">
+        <f>IF(F283="","",F283)</f>
         <v/>
       </c>
     </row>
     <row r="177" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B177" s="141"/>
-      <c r="C177" s="156" t="s">
+      <c r="B177" s="130"/>
+      <c r="C177" s="145" t="s">
         <v>209</v>
       </c>
-      <c r="D177" s="156"/>
+      <c r="D177" s="145"/>
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
       <c r="G177" s="2"/>
@@ -8765,22 +8555,20 @@
       <c r="J177" s="2"/>
       <c r="K177" s="2"/>
       <c r="L177" s="2"/>
-      <c r="M177" s="142"/>
-      <c r="P177" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q177" s="122"/>
-      <c r="S177" s="123" t="str">
-        <f t="shared" si="26"/>
+      <c r="M177" s="131"/>
+      <c r="P177" s="4"/>
+      <c r="Q177" s="113"/>
+      <c r="S177" s="114" t="str">
+        <f>IF(F284="","",F284)</f>
         <v/>
       </c>
     </row>
     <row r="178" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B178" s="141"/>
-      <c r="C178" s="163" t="s">
+      <c r="B178" s="130"/>
+      <c r="C178" s="152" t="s">
         <v>118</v>
       </c>
-      <c r="D178" s="156" t="s">
+      <c r="D178" s="145" t="s">
         <v>210</v>
       </c>
       <c r="E178" s="2"/>
@@ -8791,23 +8579,21 @@
       <c r="J178" s="2"/>
       <c r="K178" s="2"/>
       <c r="L178" s="2"/>
-      <c r="M178" s="142"/>
-      <c r="P178" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="Q178" s="122"/>
-      <c r="S178" s="123" t="str">
-        <f t="shared" si="26"/>
-        <v/>
+      <c r="M178" s="131"/>
+      <c r="P178" s="4"/>
+      <c r="Q178" s="113"/>
+      <c r="S178" s="114" t="e">
+        <f>IF(#REF!="","",#REF!)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="179" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B179" s="141"/>
-      <c r="C179" s="150" t="s">
+      <c r="B179" s="130"/>
+      <c r="C179" s="139" t="s">
         <v>120</v>
       </c>
       <c r="D179" s="17" t="str">
-        <f>IF(Q150="","",Q150)</f>
+        <f>IF(D181&lt;&gt;"",D181,IF(Q150="","",Q150))</f>
         <v/>
       </c>
       <c r="E179" s="3"/>
@@ -8818,23 +8604,21 @@
       <c r="J179" s="3"/>
       <c r="K179" s="3"/>
       <c r="L179" s="2"/>
-      <c r="M179" s="142"/>
-      <c r="P179" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q179" s="122"/>
-      <c r="S179" s="123" t="str">
-        <f t="shared" si="26"/>
-        <v/>
+      <c r="M179" s="131"/>
+      <c r="P179" s="4"/>
+      <c r="Q179" s="113"/>
+      <c r="S179" s="114" t="e">
+        <f>IF(#REF!="","",#REF!)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="180" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B180" s="141"/>
-      <c r="C180" s="164" t="s">
+      <c r="B180" s="130"/>
+      <c r="C180" s="153" t="s">
         <v>121</v>
       </c>
       <c r="D180" s="2"/>
-      <c r="E180" s="165">
+      <c r="E180" s="154">
         <f>LEN(D179)</f>
         <v>0</v>
       </c>
@@ -8845,19 +8629,17 @@
       <c r="J180" s="2"/>
       <c r="K180" s="2"/>
       <c r="L180" s="2"/>
-      <c r="M180" s="142"/>
-      <c r="P180" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q180" s="122"/>
-      <c r="S180" s="123" t="str">
-        <f t="shared" si="26"/>
-        <v/>
+      <c r="M180" s="131"/>
+      <c r="P180" s="4"/>
+      <c r="Q180" s="113"/>
+      <c r="S180" s="114" t="e">
+        <f>IF(#REF!="","",#REF!)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="181" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B181" s="141"/>
-      <c r="C181" s="150" t="s">
+      <c r="B181" s="130"/>
+      <c r="C181" s="139" t="s">
         <v>122</v>
       </c>
       <c r="D181" s="8"/>
@@ -8869,123 +8651,113 @@
       <c r="J181" s="3"/>
       <c r="K181" s="3"/>
       <c r="L181" s="2"/>
-      <c r="M181" s="142"/>
-      <c r="P181" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q181" s="122"/>
-      <c r="S181" s="123" t="str">
-        <f t="shared" si="26"/>
+      <c r="M181" s="131"/>
+      <c r="P181" s="4"/>
+      <c r="Q181" s="113"/>
+      <c r="S181" s="114" t="str">
+        <f t="shared" ref="S171:S181" si="28">IF(E285="","",E285)</f>
         <v/>
       </c>
     </row>
     <row r="182" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B182" s="143"/>
-      <c r="C182" s="144"/>
-      <c r="D182" s="144"/>
-      <c r="E182" s="144"/>
-      <c r="F182" s="144"/>
-      <c r="G182" s="144"/>
-      <c r="H182" s="144"/>
-      <c r="I182" s="144"/>
-      <c r="J182" s="144"/>
-      <c r="K182" s="144"/>
-      <c r="L182" s="144"/>
-      <c r="M182" s="146"/>
-      <c r="P182" s="9" t="s">
-        <v>407</v>
-      </c>
+      <c r="B182" s="132"/>
+      <c r="C182" s="133"/>
+      <c r="D182" s="133"/>
+      <c r="E182" s="133"/>
+      <c r="F182" s="133"/>
+      <c r="G182" s="133"/>
+      <c r="H182" s="133"/>
+      <c r="I182" s="133"/>
+      <c r="J182" s="133"/>
+      <c r="K182" s="133"/>
+      <c r="L182" s="133"/>
+      <c r="M182" s="135"/>
+      <c r="P182" s="9"/>
     </row>
     <row r="183" spans="2:19" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B183" s="166" t="s">
+      <c r="B183" s="155" t="s">
         <v>211</v>
       </c>
-      <c r="C183" s="139"/>
-      <c r="D183" s="139"/>
-      <c r="E183" s="139"/>
-      <c r="F183" s="139"/>
-      <c r="G183" s="139"/>
-      <c r="H183" s="139"/>
-      <c r="I183" s="139"/>
-      <c r="J183" s="139"/>
-      <c r="K183" s="139"/>
-      <c r="L183" s="139"/>
-      <c r="M183" s="140"/>
-      <c r="P183" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q183" s="122"/>
-      <c r="S183" s="123" t="str">
-        <f>IF(F274="","",F274)</f>
+      <c r="C183" s="128"/>
+      <c r="D183" s="128"/>
+      <c r="E183" s="128"/>
+      <c r="F183" s="128"/>
+      <c r="G183" s="128"/>
+      <c r="H183" s="128"/>
+      <c r="I183" s="128"/>
+      <c r="J183" s="128"/>
+      <c r="K183" s="128"/>
+      <c r="L183" s="128"/>
+      <c r="M183" s="129"/>
+      <c r="P183" s="4"/>
+      <c r="Q183" s="113"/>
+      <c r="S183" s="114" t="str">
+        <f>IF(G277="","",G277)</f>
         <v/>
       </c>
     </row>
     <row r="184" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B184" s="174" t="s">
+      <c r="B184" s="163" t="s">
         <v>212</v>
       </c>
-      <c r="C184" s="117" t="s">
+      <c r="C184" s="185" t="s">
         <v>213</v>
       </c>
-      <c r="D184" s="117"/>
-      <c r="E184" s="117"/>
-      <c r="F184" s="117"/>
-      <c r="G184" s="117"/>
-      <c r="H184" s="117" t="s">
+      <c r="D184" s="185"/>
+      <c r="E184" s="185"/>
+      <c r="F184" s="185"/>
+      <c r="G184" s="185"/>
+      <c r="H184" s="185" t="s">
         <v>214</v>
       </c>
       <c r="I184" s="2"/>
       <c r="J184" s="2"/>
       <c r="K184" s="2"/>
       <c r="L184" s="2"/>
-      <c r="M184" s="142"/>
-      <c r="P184" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q184" s="122"/>
-      <c r="S184" s="123" t="str">
-        <f t="shared" ref="S184:S193" si="28">IF(F275="","",F275)</f>
+      <c r="M184" s="131"/>
+      <c r="P184" s="4"/>
+      <c r="Q184" s="113"/>
+      <c r="S184" s="114" t="str">
+        <f>IF(G278="","",G278)</f>
         <v/>
       </c>
     </row>
     <row r="185" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B185" s="174" t="s">
+      <c r="B185" s="163" t="s">
         <v>215</v>
       </c>
-      <c r="C185" s="117" t="s">
+      <c r="C185" s="185" t="s">
         <v>216</v>
       </c>
-      <c r="D185" s="117" t="s">
+      <c r="D185" s="185" t="s">
         <v>104</v>
       </c>
-      <c r="E185" s="117" t="s">
+      <c r="E185" s="185" t="s">
         <v>105</v>
       </c>
-      <c r="F185" s="117" t="s">
+      <c r="F185" s="185" t="s">
         <v>204</v>
       </c>
-      <c r="G185" s="117" t="s">
+      <c r="G185" s="185" t="s">
         <v>217</v>
       </c>
-      <c r="H185" s="117" t="s">
+      <c r="H185" s="185" t="s">
         <v>217</v>
       </c>
       <c r="I185" s="2"/>
       <c r="J185" s="2"/>
       <c r="K185" s="2"/>
       <c r="L185" s="2"/>
-      <c r="M185" s="142"/>
-      <c r="P185" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q185" s="122"/>
-      <c r="S185" s="123" t="str">
-        <f t="shared" si="28"/>
-        <v/>
+      <c r="M185" s="131"/>
+      <c r="P185" s="4"/>
+      <c r="Q185" s="113"/>
+      <c r="S185" s="114">
+        <f>IF(G279="","",G279)</f>
+        <v>22.38</v>
       </c>
     </row>
     <row r="186" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B186" s="214" t="str">
+      <c r="B186" s="190" t="str">
         <f>IF(D99="","",D99)</f>
         <v/>
       </c>
@@ -8997,28 +8769,26 @@
       <c r="E186" s="38"/>
       <c r="F186" s="38"/>
       <c r="G186" s="38"/>
-      <c r="H186" s="110" t="str">
+      <c r="H186" s="106" t="str">
         <f>IF(Q88="","",Q88)</f>
         <v/>
       </c>
       <c r="I186" s="2"/>
-      <c r="J186" s="156" t="s">
+      <c r="J186" s="145" t="s">
         <v>218</v>
       </c>
       <c r="K186" s="2"/>
       <c r="L186" s="2"/>
-      <c r="M186" s="142"/>
-      <c r="P186" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q186" s="122"/>
-      <c r="S186" s="123" t="str">
-        <f t="shared" si="28"/>
-        <v/>
+      <c r="M186" s="131"/>
+      <c r="P186" s="4"/>
+      <c r="Q186" s="113"/>
+      <c r="S186" s="114" t="e">
+        <f>IF(G280="","",G280)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="187" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B187" s="215"/>
+      <c r="B187" s="191"/>
       <c r="C187" s="30" t="str">
         <f>IF($B$105="","",$B$105)</f>
         <v/>
@@ -9027,29 +8797,27 @@
       <c r="E187" s="43"/>
       <c r="F187" s="43"/>
       <c r="G187" s="43"/>
-      <c r="H187" s="112" t="str">
+      <c r="H187" s="108" t="str">
         <f t="shared" ref="H187:H194" si="29">IF(Q89="","",Q89)</f>
         <v/>
       </c>
       <c r="I187" s="2"/>
-      <c r="J187" s="156" t="s">
+      <c r="J187" s="145" t="s">
         <v>219</v>
       </c>
       <c r="K187" s="2"/>
       <c r="L187" s="2"/>
-      <c r="M187" s="142"/>
-      <c r="P187" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q187" s="122"/>
-      <c r="S187" s="123" t="str">
-        <f t="shared" si="28"/>
+      <c r="M187" s="131"/>
+      <c r="P187" s="4"/>
+      <c r="Q187" s="113"/>
+      <c r="S187" s="114" t="str">
+        <f>IF(G281="","",G281)</f>
         <v/>
       </c>
     </row>
     <row r="188" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B188" s="215"/>
-      <c r="C188" s="131" t="str">
+      <c r="B188" s="191"/>
+      <c r="C188" s="121" t="str">
         <f>IF($B$108="","",$B$108)</f>
         <v/>
       </c>
@@ -9057,28 +8825,26 @@
       <c r="E188" s="48"/>
       <c r="F188" s="48"/>
       <c r="G188" s="48"/>
-      <c r="H188" s="132" t="str">
+      <c r="H188" s="122" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I188" s="2"/>
-      <c r="J188" s="156" t="s">
+      <c r="J188" s="145" t="s">
         <v>220</v>
       </c>
       <c r="K188" s="2"/>
       <c r="L188" s="2"/>
-      <c r="M188" s="142"/>
-      <c r="P188" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q188" s="122"/>
-      <c r="S188" s="123" t="str">
-        <f t="shared" si="28"/>
+      <c r="M188" s="131"/>
+      <c r="P188" s="4"/>
+      <c r="Q188" s="113"/>
+      <c r="S188" s="114" t="str">
+        <f>IF(G282="","",G282)</f>
         <v/>
       </c>
     </row>
     <row r="189" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B189" s="214" t="str">
+      <c r="B189" s="190" t="str">
         <f>IF(G99="","",G99)</f>
         <v/>
       </c>
@@ -9090,7 +8856,7 @@
       <c r="E189" s="38"/>
       <c r="F189" s="38"/>
       <c r="G189" s="38"/>
-      <c r="H189" s="110" t="str">
+      <c r="H189" s="106" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
@@ -9098,18 +8864,16 @@
       <c r="J189" s="2"/>
       <c r="K189" s="2"/>
       <c r="L189" s="2"/>
-      <c r="M189" s="142"/>
-      <c r="P189" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q189" s="122"/>
-      <c r="S189" s="123" t="str">
-        <f t="shared" si="28"/>
+      <c r="M189" s="131"/>
+      <c r="P189" s="4"/>
+      <c r="Q189" s="113"/>
+      <c r="S189" s="114" t="str">
+        <f>IF(G283="","",G283)</f>
         <v/>
       </c>
     </row>
     <row r="190" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B190" s="215"/>
+      <c r="B190" s="191"/>
       <c r="C190" s="30" t="str">
         <f>IF($B$105="","",$B$105)</f>
         <v/>
@@ -9118,7 +8882,7 @@
       <c r="E190" s="43"/>
       <c r="F190" s="43"/>
       <c r="G190" s="43"/>
-      <c r="H190" s="112" t="str">
+      <c r="H190" s="108" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
@@ -9126,19 +8890,17 @@
       <c r="J190" s="2"/>
       <c r="K190" s="2"/>
       <c r="L190" s="2"/>
-      <c r="M190" s="142"/>
-      <c r="P190" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q190" s="122"/>
-      <c r="S190" s="123" t="str">
-        <f t="shared" si="28"/>
+      <c r="M190" s="131"/>
+      <c r="P190" s="4"/>
+      <c r="Q190" s="113"/>
+      <c r="S190" s="114" t="str">
+        <f>IF(G284="","",G284)</f>
         <v/>
       </c>
     </row>
     <row r="191" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B191" s="216"/>
-      <c r="C191" s="131" t="str">
+      <c r="B191" s="192"/>
+      <c r="C191" s="121" t="str">
         <f>IF($B$108="","",$B$108)</f>
         <v/>
       </c>
@@ -9147,25 +8909,23 @@
       <c r="F191" s="53"/>
       <c r="G191" s="53"/>
       <c r="H191" s="65" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(Q93="","",Q93)</f>
         <v/>
       </c>
       <c r="I191" s="2"/>
       <c r="J191" s="2"/>
       <c r="K191" s="2"/>
       <c r="L191" s="2"/>
-      <c r="M191" s="142"/>
-      <c r="P191" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="Q191" s="122"/>
-      <c r="S191" s="123" t="str">
-        <f t="shared" si="28"/>
-        <v/>
+      <c r="M191" s="131"/>
+      <c r="P191" s="4"/>
+      <c r="Q191" s="113"/>
+      <c r="S191" s="114" t="e">
+        <f>IF(#REF!="","",#REF!)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="192" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B192" s="214" t="str">
+      <c r="B192" s="190" t="str">
         <f>IF(J99="","",J99)</f>
         <v/>
       </c>
@@ -9177,7 +8937,7 @@
       <c r="E192" s="58"/>
       <c r="F192" s="58"/>
       <c r="G192" s="58"/>
-      <c r="H192" s="133" t="str">
+      <c r="H192" s="123" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
@@ -9185,18 +8945,16 @@
       <c r="J192" s="2"/>
       <c r="K192" s="2"/>
       <c r="L192" s="2"/>
-      <c r="M192" s="142"/>
-      <c r="P192" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q192" s="122"/>
-      <c r="S192" s="123" t="str">
-        <f t="shared" si="28"/>
-        <v/>
+      <c r="M192" s="131"/>
+      <c r="P192" s="4"/>
+      <c r="Q192" s="113"/>
+      <c r="S192" s="114" t="e">
+        <f>IF(#REF!="","",#REF!)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="193" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B193" s="215"/>
+      <c r="B193" s="191"/>
       <c r="C193" s="30" t="str">
         <f>IF($B$105="","",$B$105)</f>
         <v/>
@@ -9205,7 +8963,7 @@
       <c r="E193" s="43"/>
       <c r="F193" s="43"/>
       <c r="G193" s="43"/>
-      <c r="H193" s="112" t="str">
+      <c r="H193" s="108" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
@@ -9213,18 +8971,16 @@
       <c r="J193" s="2"/>
       <c r="K193" s="2"/>
       <c r="L193" s="2"/>
-      <c r="M193" s="142"/>
-      <c r="P193" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q193" s="122"/>
-      <c r="S193" s="123" t="str">
-        <f t="shared" si="28"/>
-        <v/>
+      <c r="M193" s="131"/>
+      <c r="P193" s="4"/>
+      <c r="Q193" s="113"/>
+      <c r="S193" s="114" t="e">
+        <f>IF(#REF!="","",#REF!)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="194" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B194" s="216"/>
+      <c r="B194" s="192"/>
       <c r="C194" s="33" t="str">
         <f>IF($B$108="","",$B$108)</f>
         <v/>
@@ -9241,18 +8997,16 @@
       <c r="J194" s="2"/>
       <c r="K194" s="2"/>
       <c r="L194" s="2"/>
-      <c r="M194" s="142"/>
-      <c r="P194" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q194" s="122"/>
-      <c r="S194" s="123" t="str">
+      <c r="M194" s="131"/>
+      <c r="P194" s="4"/>
+      <c r="Q194" s="113"/>
+      <c r="S194" s="114" t="str">
         <f>IF(F285="","",F285)</f>
         <v/>
       </c>
     </row>
     <row r="195" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B195" s="141"/>
+      <c r="B195" s="130"/>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
@@ -9263,18 +9017,16 @@
       <c r="J195" s="2"/>
       <c r="K195" s="2"/>
       <c r="L195" s="2"/>
-      <c r="M195" s="142"/>
-      <c r="P195" s="209" t="s">
-        <v>379</v>
-      </c>
+      <c r="M195" s="131"/>
+      <c r="P195" s="183"/>
     </row>
     <row r="196" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B196" s="141"/>
-      <c r="C196" s="150" t="s">
+      <c r="B196" s="130"/>
+      <c r="C196" s="139" t="s">
         <v>120</v>
       </c>
       <c r="D196" s="17" t="str">
-        <f>IF(Q149="","",Q149)</f>
+        <f>IF(D198&lt;&gt;"",D198,IF(Q149="","",Q149))</f>
         <v/>
       </c>
       <c r="E196" s="3"/>
@@ -9285,20 +9037,17 @@
       <c r="J196" s="3"/>
       <c r="K196" s="3"/>
       <c r="L196" s="2"/>
-      <c r="M196" s="142"/>
-      <c r="P196" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="Q196" s="122"/>
-      <c r="S196" s="123"/>
+      <c r="M196" s="131"/>
+      <c r="Q196" s="113"/>
+      <c r="S196" s="114"/>
     </row>
     <row r="197" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B197" s="141"/>
-      <c r="C197" s="164" t="s">
+      <c r="B197" s="130"/>
+      <c r="C197" s="153" t="s">
         <v>121</v>
       </c>
       <c r="D197" s="2"/>
-      <c r="E197" s="165">
+      <c r="E197" s="154">
         <f>LEN(D196)</f>
         <v>0</v>
       </c>
@@ -9309,16 +9058,13 @@
       <c r="J197" s="2"/>
       <c r="K197" s="2"/>
       <c r="L197" s="2"/>
-      <c r="M197" s="142"/>
-      <c r="P197" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="Q197" s="122"/>
-      <c r="S197" s="123"/>
+      <c r="M197" s="131"/>
+      <c r="Q197" s="113"/>
+      <c r="S197" s="114"/>
     </row>
     <row r="198" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B198" s="141"/>
-      <c r="C198" s="150" t="s">
+      <c r="B198" s="130"/>
+      <c r="C198" s="139" t="s">
         <v>122</v>
       </c>
       <c r="D198" s="8"/>
@@ -9330,85 +9076,82 @@
       <c r="J198" s="3"/>
       <c r="K198" s="3"/>
       <c r="L198" s="2"/>
-      <c r="M198" s="142"/>
-      <c r="P198" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="Q198" s="122"/>
-      <c r="S198" s="123"/>
+      <c r="M198" s="131"/>
+      <c r="Q198" s="113"/>
+      <c r="S198" s="114"/>
     </row>
     <row r="199" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B199" s="143"/>
-      <c r="C199" s="144"/>
-      <c r="D199" s="144"/>
-      <c r="E199" s="144"/>
-      <c r="F199" s="144"/>
-      <c r="G199" s="144"/>
-      <c r="H199" s="144"/>
-      <c r="I199" s="144"/>
-      <c r="J199" s="144"/>
-      <c r="K199" s="144"/>
-      <c r="L199" s="144"/>
-      <c r="M199" s="146"/>
+      <c r="B199" s="132"/>
+      <c r="C199" s="133"/>
+      <c r="D199" s="133"/>
+      <c r="E199" s="133"/>
+      <c r="F199" s="133"/>
+      <c r="G199" s="133"/>
+      <c r="H199" s="133"/>
+      <c r="I199" s="133"/>
+      <c r="J199" s="133"/>
+      <c r="K199" s="133"/>
+      <c r="L199" s="133"/>
+      <c r="M199" s="135"/>
     </row>
     <row r="200" spans="2:19" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B200" s="166" t="s">
+      <c r="B200" s="155" t="s">
         <v>221</v>
       </c>
-      <c r="C200" s="139"/>
-      <c r="D200" s="139"/>
-      <c r="E200" s="139"/>
-      <c r="F200" s="139"/>
-      <c r="G200" s="139"/>
-      <c r="H200" s="139"/>
-      <c r="I200" s="139"/>
-      <c r="J200" s="139"/>
-      <c r="K200" s="139"/>
-      <c r="L200" s="139"/>
-      <c r="M200" s="140"/>
+      <c r="C200" s="128"/>
+      <c r="D200" s="128"/>
+      <c r="E200" s="128"/>
+      <c r="F200" s="128"/>
+      <c r="G200" s="128"/>
+      <c r="H200" s="128"/>
+      <c r="I200" s="128"/>
+      <c r="J200" s="128"/>
+      <c r="K200" s="128"/>
+      <c r="L200" s="128"/>
+      <c r="M200" s="129"/>
     </row>
     <row r="201" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B201" s="141"/>
-      <c r="C201" s="150" t="s">
+      <c r="B201" s="130"/>
+      <c r="C201" s="139" t="s">
         <v>222</v>
       </c>
-      <c r="D201" s="210" t="s">
+      <c r="D201" s="207" t="s">
         <v>245</v>
       </c>
-      <c r="E201" s="210"/>
+      <c r="E201" s="207"/>
       <c r="F201" s="2"/>
-      <c r="G201" s="150" t="s">
+      <c r="G201" s="139" t="s">
         <v>223</v>
       </c>
-      <c r="H201" s="211"/>
-      <c r="I201" s="211"/>
+      <c r="H201" s="208"/>
+      <c r="I201" s="208"/>
       <c r="J201" s="2"/>
       <c r="K201" s="2"/>
       <c r="L201" s="2"/>
-      <c r="M201" s="142"/>
+      <c r="M201" s="131"/>
     </row>
     <row r="202" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B202" s="141"/>
-      <c r="C202" s="150" t="s">
+      <c r="B202" s="130"/>
+      <c r="C202" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="D202" s="210" t="s">
+      <c r="D202" s="207" t="s">
         <v>246</v>
       </c>
-      <c r="E202" s="210"/>
+      <c r="E202" s="207"/>
       <c r="F202" s="2"/>
-      <c r="G202" s="150" t="s">
+      <c r="G202" s="139" t="s">
         <v>224</v>
       </c>
-      <c r="H202" s="212"/>
-      <c r="I202" s="212"/>
+      <c r="H202" s="209"/>
+      <c r="I202" s="209"/>
       <c r="J202" s="2"/>
       <c r="K202" s="2"/>
       <c r="L202" s="2"/>
-      <c r="M202" s="142"/>
+      <c r="M202" s="131"/>
     </row>
     <row r="203" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B203" s="141"/>
+      <c r="B203" s="130"/>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
       <c r="E203" s="2"/>
@@ -9419,10 +9162,10 @@
       <c r="J203" s="2"/>
       <c r="K203" s="2"/>
       <c r="L203" s="2"/>
-      <c r="M203" s="142"/>
+      <c r="M203" s="131"/>
     </row>
     <row r="204" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B204" s="141"/>
+      <c r="B204" s="130"/>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
       <c r="E204" s="2"/>
@@ -9433,18 +9176,18 @@
       <c r="J204" s="2"/>
       <c r="K204" s="2"/>
       <c r="L204" s="2"/>
-      <c r="M204" s="142"/>
+      <c r="M204" s="131"/>
     </row>
     <row r="205" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B205" s="158" t="s">
+      <c r="B205" s="147" t="s">
         <v>239</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
-      <c r="E205" s="117" t="s">
+      <c r="E205" s="185" t="s">
         <v>238</v>
       </c>
-      <c r="F205" s="117" t="s">
+      <c r="F205" s="185" t="s">
         <v>236</v>
       </c>
       <c r="G205" s="2"/>
@@ -9453,40 +9196,40 @@
       <c r="J205" s="2"/>
       <c r="K205" s="2"/>
       <c r="L205" s="2"/>
-      <c r="M205" s="142"/>
+      <c r="M205" s="131"/>
     </row>
     <row r="206" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B206" s="174" t="s">
+      <c r="B206" s="163" t="s">
         <v>225</v>
       </c>
-      <c r="C206" s="117" t="s">
+      <c r="C206" s="185" t="s">
         <v>226</v>
       </c>
-      <c r="D206" s="117" t="s">
+      <c r="D206" s="185" t="s">
         <v>125</v>
       </c>
-      <c r="E206" s="117" t="s">
+      <c r="E206" s="185" t="s">
         <v>237</v>
       </c>
-      <c r="F206" s="117" t="s">
+      <c r="F206" s="185" t="s">
         <v>235</v>
       </c>
-      <c r="G206" s="117" t="s">
+      <c r="G206" s="185" t="s">
         <v>131</v>
       </c>
-      <c r="H206" s="117" t="s">
+      <c r="H206" s="185" t="s">
         <v>227</v>
       </c>
-      <c r="I206" s="117" t="s">
+      <c r="I206" s="185" t="s">
         <v>228</v>
       </c>
       <c r="J206" s="2"/>
       <c r="K206" s="2"/>
       <c r="L206" s="2"/>
-      <c r="M206" s="142"/>
+      <c r="M206" s="131"/>
     </row>
     <row r="207" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B207" s="187">
+      <c r="B207" s="167">
         <f>IF('Data Entry'!M4="","",'Data Entry'!M4)</f>
         <v>60</v>
       </c>
@@ -9514,18 +9257,18 @@
         <f>IF('Data Entry'!S4="","",'Data Entry'!S4)</f>
         <v/>
       </c>
-      <c r="I207" s="200" t="str">
+      <c r="I207" s="180" t="str">
         <f>IF(D207="","",(D207-B207)/B207)</f>
         <v/>
       </c>
       <c r="J207" s="2"/>
       <c r="K207" s="2"/>
       <c r="L207" s="2"/>
-      <c r="M207" s="142"/>
+      <c r="M207" s="131"/>
       <c r="P207" s="4"/>
     </row>
     <row r="208" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B208" s="188">
+      <c r="B208" s="168">
         <f>IF('Data Entry'!M5="","",'Data Entry'!M5)</f>
         <v>80</v>
       </c>
@@ -9560,11 +9303,11 @@
       <c r="J208" s="2"/>
       <c r="K208" s="2"/>
       <c r="L208" s="2"/>
-      <c r="M208" s="142"/>
+      <c r="M208" s="131"/>
       <c r="P208" s="4"/>
     </row>
     <row r="209" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B209" s="188">
+      <c r="B209" s="168">
         <f>IF('Data Entry'!M10="","",'Data Entry'!M10)</f>
         <v>100</v>
       </c>
@@ -9599,11 +9342,11 @@
       <c r="J209" s="2"/>
       <c r="K209" s="2"/>
       <c r="L209" s="2"/>
-      <c r="M209" s="142"/>
+      <c r="M209" s="131"/>
       <c r="P209" s="4"/>
     </row>
     <row r="210" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B210" s="189">
+      <c r="B210" s="169">
         <f>IF('Data Entry'!M11="","",'Data Entry'!M11)</f>
         <v>120</v>
       </c>
@@ -9638,23 +9381,23 @@
       <c r="J210" s="2"/>
       <c r="K210" s="2"/>
       <c r="L210" s="2"/>
-      <c r="M210" s="142"/>
+      <c r="M210" s="131"/>
       <c r="P210" s="4"/>
-      <c r="Q210" s="122"/>
-      <c r="S210" s="123"/>
+      <c r="Q210" s="113"/>
+      <c r="S210" s="114"/>
     </row>
     <row r="211" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B211" s="141"/>
-      <c r="C211" s="163" t="s">
+      <c r="B211" s="130"/>
+      <c r="C211" s="152" t="s">
         <v>118</v>
       </c>
-      <c r="D211" s="156" t="s">
+      <c r="D211" s="145" t="s">
         <v>229</v>
       </c>
       <c r="E211" s="2"/>
       <c r="F211" s="2"/>
       <c r="G211" s="2"/>
-      <c r="H211" s="150" t="s">
+      <c r="H211" s="139" t="s">
         <v>112</v>
       </c>
       <c r="I211" s="67" t="s">
@@ -9663,13 +9406,13 @@
       <c r="J211" s="2"/>
       <c r="K211" s="2"/>
       <c r="L211" s="2"/>
-      <c r="M211" s="142"/>
+      <c r="M211" s="131"/>
       <c r="P211" s="4"/>
-      <c r="Q211" s="122"/>
-      <c r="S211" s="123"/>
+      <c r="Q211" s="113"/>
+      <c r="S211" s="114"/>
     </row>
     <row r="212" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B212" s="158" t="s">
+      <c r="B212" s="147" t="s">
         <v>240</v>
       </c>
       <c r="C212" s="2"/>
@@ -9679,65 +9422,65 @@
       <c r="G212" s="2"/>
       <c r="H212" s="2"/>
       <c r="L212" s="2"/>
-      <c r="M212" s="142"/>
+      <c r="M212" s="131"/>
       <c r="P212" s="4"/>
-      <c r="Q212" s="122"/>
-      <c r="S212" s="123"/>
+      <c r="Q212" s="113"/>
+      <c r="S212" s="114"/>
     </row>
     <row r="213" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B213" s="141"/>
+      <c r="B213" s="130"/>
       <c r="C213" s="2"/>
-      <c r="D213" s="117" t="s">
+      <c r="D213" s="185" t="s">
         <v>238</v>
       </c>
-      <c r="E213" s="117" t="s">
+      <c r="E213" s="185" t="s">
         <v>236</v>
       </c>
       <c r="F213" s="2"/>
       <c r="G213" s="2"/>
       <c r="H213" s="2"/>
-      <c r="I213" s="190" t="s">
+      <c r="I213" s="170" t="s">
         <v>241</v>
       </c>
       <c r="J213" s="2"/>
       <c r="K213" s="2"/>
       <c r="L213" s="2"/>
-      <c r="M213" s="142"/>
+      <c r="M213" s="131"/>
     </row>
     <row r="214" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B214" s="174" t="s">
+      <c r="B214" s="163" t="s">
         <v>230</v>
       </c>
-      <c r="C214" s="117" t="s">
+      <c r="C214" s="185" t="s">
         <v>125</v>
       </c>
-      <c r="D214" s="117" t="s">
+      <c r="D214" s="185" t="s">
         <v>237</v>
       </c>
-      <c r="E214" s="117" t="s">
+      <c r="E214" s="185" t="s">
         <v>235</v>
       </c>
-      <c r="F214" s="117" t="s">
+      <c r="F214" s="185" t="s">
         <v>131</v>
       </c>
-      <c r="G214" s="117" t="s">
+      <c r="G214" s="185" t="s">
         <v>227</v>
       </c>
       <c r="H214" s="2"/>
-      <c r="I214" s="117" t="s">
+      <c r="I214" s="185" t="s">
         <v>230</v>
       </c>
-      <c r="J214" s="117" t="s">
+      <c r="J214" s="185" t="s">
         <v>105</v>
       </c>
-      <c r="K214" s="117" t="s">
+      <c r="K214" s="185" t="s">
         <v>106</v>
       </c>
       <c r="L214" s="2"/>
-      <c r="M214" s="142"/>
+      <c r="M214" s="131"/>
     </row>
     <row r="215" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B215" s="191">
+      <c r="B215" s="171">
         <f>IF('Data Entry'!M5="","",'Data Entry'!M5)</f>
         <v>80</v>
       </c>
@@ -9775,10 +9518,10 @@
         <v/>
       </c>
       <c r="L215" s="2"/>
-      <c r="M215" s="142"/>
+      <c r="M215" s="131"/>
     </row>
     <row r="216" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B216" s="141"/>
+      <c r="B216" s="130"/>
       <c r="C216" s="29" t="str">
         <f>IF('Data Entry'!O6="","",'Data Entry'!O6)</f>
         <v/>
@@ -9810,10 +9553,10 @@
         <v/>
       </c>
       <c r="L216" s="2"/>
-      <c r="M216" s="142"/>
+      <c r="M216" s="131"/>
     </row>
     <row r="217" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B217" s="141"/>
+      <c r="B217" s="130"/>
       <c r="C217" s="29" t="str">
         <f>IF('Data Entry'!O7="","",'Data Entry'!O7)</f>
         <v/>
@@ -9845,10 +9588,10 @@
         <v/>
       </c>
       <c r="L217" s="2"/>
-      <c r="M217" s="142"/>
+      <c r="M217" s="131"/>
     </row>
     <row r="218" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B218" s="141"/>
+      <c r="B218" s="130"/>
       <c r="C218" s="29" t="str">
         <f>IF('Data Entry'!O8="","",'Data Entry'!O8)</f>
         <v/>
@@ -9880,10 +9623,10 @@
         <v/>
       </c>
       <c r="L218" s="2"/>
-      <c r="M218" s="142"/>
+      <c r="M218" s="131"/>
     </row>
     <row r="219" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B219" s="141"/>
+      <c r="B219" s="130"/>
       <c r="C219" s="32" t="str">
         <f>IF('Data Entry'!O9="","",'Data Entry'!O9)</f>
         <v/>
@@ -9906,25 +9649,25 @@
       </c>
       <c r="H219" s="2"/>
       <c r="I219" s="2"/>
-      <c r="J219" s="150" t="s">
+      <c r="J219" s="139" t="s">
         <v>242</v>
       </c>
       <c r="K219" s="67" t="s">
         <v>89</v>
       </c>
       <c r="L219" s="2"/>
-      <c r="M219" s="142"/>
+      <c r="M219" s="131"/>
     </row>
     <row r="220" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B220" s="192" t="s">
+      <c r="B220" s="172" t="s">
         <v>231</v>
       </c>
-      <c r="C220" s="104" t="str">
+      <c r="C220" s="101" t="str">
         <f>IF(C215="","",AVERAGE(C215:C219))</f>
         <v/>
       </c>
       <c r="D220" s="2"/>
-      <c r="E220" s="104" t="str">
+      <c r="E220" s="101" t="str">
         <f>IF(E215="","",AVERAGE(E215:E219))</f>
         <v/>
       </c>
@@ -9932,25 +9675,25 @@
       <c r="G220" s="2"/>
       <c r="H220" s="2"/>
       <c r="I220" s="2"/>
-      <c r="J220" s="150" t="s">
+      <c r="J220" s="139" t="s">
         <v>112</v>
       </c>
       <c r="K220" s="67" t="s">
         <v>89</v>
       </c>
       <c r="L220" s="2"/>
-      <c r="M220" s="142"/>
+      <c r="M220" s="131"/>
     </row>
     <row r="221" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B221" s="192" t="s">
+      <c r="B221" s="172" t="s">
         <v>232</v>
       </c>
-      <c r="C221" s="108" t="str">
+      <c r="C221" s="104" t="str">
         <f>IF(C215="","",STDEV(C215:C219))</f>
         <v/>
       </c>
       <c r="D221" s="2"/>
-      <c r="E221" s="108" t="str">
+      <c r="E221" s="104" t="str">
         <f>IF(E215="","",STDEV(E215:E219))</f>
         <v/>
       </c>
@@ -9958,25 +9701,25 @@
       <c r="G221" s="2"/>
       <c r="H221" s="2"/>
       <c r="I221" s="2"/>
-      <c r="J221" s="163" t="s">
+      <c r="J221" s="152" t="s">
         <v>118</v>
       </c>
-      <c r="K221" s="156" t="s">
+      <c r="K221" s="145" t="s">
         <v>243</v>
       </c>
       <c r="L221" s="2"/>
-      <c r="M221" s="142"/>
+      <c r="M221" s="131"/>
     </row>
     <row r="222" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B222" s="192" t="s">
+      <c r="B222" s="172" t="s">
         <v>234</v>
       </c>
-      <c r="C222" s="108" t="str">
+      <c r="C222" s="104" t="str">
         <f>IF(OR(C220="",C221=""),"",C221/C220)</f>
         <v/>
       </c>
       <c r="D222" s="2"/>
-      <c r="E222" s="108" t="str">
+      <c r="E222" s="104" t="str">
         <f>IF(OR(E220="",E221=""),"",E221/E220)</f>
         <v/>
       </c>
@@ -9987,18 +9730,18 @@
       <c r="J222" s="2"/>
       <c r="K222" s="2"/>
       <c r="L222" s="2"/>
-      <c r="M222" s="142"/>
+      <c r="M222" s="131"/>
     </row>
     <row r="223" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B223" s="192" t="s">
+      <c r="B223" s="172" t="s">
         <v>112</v>
       </c>
-      <c r="C223" s="105" t="str">
+      <c r="C223" s="102" t="str">
         <f>IF(C222="","",IF(C222&lt;0.05,"PASS", "FAIL"))</f>
         <v/>
       </c>
       <c r="D223" s="2"/>
-      <c r="E223" s="105" t="str">
+      <c r="E223" s="102" t="str">
         <f>IF(E222="","",IF(E222&lt;0.05,"PASS", "FAIL"))</f>
         <v/>
       </c>
@@ -10009,14 +9752,14 @@
       <c r="J223" s="2"/>
       <c r="K223" s="2"/>
       <c r="L223" s="2"/>
-      <c r="M223" s="142"/>
+      <c r="M223" s="131"/>
     </row>
     <row r="224" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B224" s="141"/>
-      <c r="C224" s="163" t="s">
+      <c r="B224" s="130"/>
+      <c r="C224" s="152" t="s">
         <v>118</v>
       </c>
-      <c r="D224" s="156" t="s">
+      <c r="D224" s="145" t="s">
         <v>233</v>
       </c>
       <c r="E224" s="2"/>
@@ -10027,40 +9770,40 @@
       <c r="J224" s="2"/>
       <c r="K224" s="2"/>
       <c r="L224" s="2"/>
-      <c r="M224" s="142"/>
+      <c r="M224" s="131"/>
     </row>
     <row r="225" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B225" s="143"/>
-      <c r="C225" s="144"/>
-      <c r="D225" s="144"/>
-      <c r="E225" s="144"/>
-      <c r="F225" s="144"/>
-      <c r="G225" s="144"/>
-      <c r="H225" s="144"/>
-      <c r="I225" s="144"/>
-      <c r="J225" s="144"/>
-      <c r="K225" s="144"/>
-      <c r="L225" s="144"/>
-      <c r="M225" s="146"/>
+      <c r="B225" s="132"/>
+      <c r="C225" s="133"/>
+      <c r="D225" s="133"/>
+      <c r="E225" s="133"/>
+      <c r="F225" s="133"/>
+      <c r="G225" s="133"/>
+      <c r="H225" s="133"/>
+      <c r="I225" s="133"/>
+      <c r="J225" s="133"/>
+      <c r="K225" s="133"/>
+      <c r="L225" s="133"/>
+      <c r="M225" s="135"/>
     </row>
     <row r="226" spans="2:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B226" s="166" t="s">
+      <c r="B226" s="155" t="s">
         <v>244</v>
       </c>
-      <c r="C226" s="139"/>
-      <c r="D226" s="139"/>
-      <c r="E226" s="139"/>
-      <c r="F226" s="139"/>
-      <c r="G226" s="139"/>
-      <c r="H226" s="139"/>
-      <c r="I226" s="139"/>
-      <c r="J226" s="139"/>
-      <c r="K226" s="139"/>
-      <c r="L226" s="139"/>
-      <c r="M226" s="140"/>
+      <c r="C226" s="128"/>
+      <c r="D226" s="128"/>
+      <c r="E226" s="128"/>
+      <c r="F226" s="128"/>
+      <c r="G226" s="128"/>
+      <c r="H226" s="128"/>
+      <c r="I226" s="128"/>
+      <c r="J226" s="128"/>
+      <c r="K226" s="128"/>
+      <c r="L226" s="128"/>
+      <c r="M226" s="129"/>
     </row>
     <row r="227" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B227" s="193" t="s">
+      <c r="B227" s="173" t="s">
         <v>247</v>
       </c>
       <c r="C227" s="35" t="s">
@@ -10078,22 +9821,22 @@
       <c r="G227" s="36" t="s">
         <v>252</v>
       </c>
-      <c r="H227" s="150" t="s">
+      <c r="H227" s="139" t="s">
         <v>253</v>
       </c>
-      <c r="I227" s="125">
+      <c r="I227" s="116">
         <f>IF(J227&lt;&gt;"",J227,IF(Q98="","",Q98))</f>
         <v>70</v>
       </c>
-      <c r="J227" s="116">
+      <c r="J227" s="184">
         <v>70</v>
       </c>
       <c r="K227" s="2"/>
       <c r="L227" s="2"/>
-      <c r="M227" s="142"/>
+      <c r="M227" s="131"/>
     </row>
     <row r="228" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B228" s="188" t="str">
+      <c r="B228" s="168" t="str">
         <f>IF($B$102="","",$B$102)</f>
         <v/>
       </c>
@@ -10103,18 +9846,18 @@
       <c r="F228" s="43"/>
       <c r="G228" s="45"/>
       <c r="H228" s="2"/>
-      <c r="I228" s="225" t="s">
+      <c r="I228" s="201" t="s">
         <v>254</v>
       </c>
-      <c r="J228" s="225"/>
-      <c r="K228" s="156" t="s">
+      <c r="J228" s="201"/>
+      <c r="K228" s="145" t="s">
         <v>255</v>
       </c>
       <c r="L228" s="2"/>
-      <c r="M228" s="142"/>
+      <c r="M228" s="131"/>
     </row>
     <row r="229" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B229" s="188" t="str">
+      <c r="B229" s="168" t="str">
         <f>IF($B$105="","",$B$105)</f>
         <v/>
       </c>
@@ -10124,20 +9867,20 @@
       <c r="F229" s="43"/>
       <c r="G229" s="45"/>
       <c r="H229" s="2"/>
-      <c r="I229" s="115">
+      <c r="I229" s="188">
         <v>1</v>
       </c>
-      <c r="J229" s="115" t="s">
+      <c r="J229" s="188" t="s">
         <v>140</v>
       </c>
-      <c r="K229" s="156" t="s">
+      <c r="K229" s="145" t="s">
         <v>256</v>
       </c>
       <c r="L229" s="2"/>
-      <c r="M229" s="142"/>
+      <c r="M229" s="131"/>
     </row>
     <row r="230" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B230" s="189" t="str">
+      <c r="B230" s="169" t="str">
         <f>IF($B$108="","",$B$108)</f>
         <v/>
       </c>
@@ -10147,61 +9890,61 @@
       <c r="F230" s="53"/>
       <c r="G230" s="55"/>
       <c r="H230" s="2"/>
-      <c r="I230" s="115">
+      <c r="I230" s="188">
         <v>2</v>
       </c>
-      <c r="J230" s="115" t="s">
+      <c r="J230" s="188" t="s">
         <v>141</v>
       </c>
       <c r="K230" s="2"/>
       <c r="L230" s="2"/>
-      <c r="M230" s="142"/>
+      <c r="M230" s="131"/>
     </row>
     <row r="231" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B231" s="141"/>
+      <c r="B231" s="130"/>
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
-      <c r="E231" s="150" t="s">
+      <c r="E231" s="139" t="s">
         <v>112</v>
       </c>
-      <c r="F231" s="107"/>
-      <c r="G231" s="107"/>
+      <c r="F231" s="103"/>
+      <c r="G231" s="103"/>
       <c r="H231" s="2"/>
-      <c r="I231" s="115">
+      <c r="I231" s="188">
         <v>3</v>
       </c>
-      <c r="J231" s="115" t="s">
+      <c r="J231" s="188" t="s">
         <v>142</v>
       </c>
       <c r="K231" s="2"/>
       <c r="L231" s="2"/>
-      <c r="M231" s="142"/>
+      <c r="M231" s="131"/>
     </row>
     <row r="232" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B232" s="141"/>
+      <c r="B232" s="130"/>
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
       <c r="F232" s="2"/>
       <c r="G232" s="2"/>
       <c r="H232" s="2"/>
-      <c r="I232" s="115">
+      <c r="I232" s="188">
         <v>4</v>
       </c>
-      <c r="J232" s="115" t="s">
+      <c r="J232" s="188" t="s">
         <v>143</v>
       </c>
       <c r="K232" s="2"/>
       <c r="L232" s="2"/>
-      <c r="M232" s="142"/>
+      <c r="M232" s="131"/>
     </row>
     <row r="233" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B233" s="141"/>
-      <c r="C233" s="150" t="s">
+      <c r="B233" s="130"/>
+      <c r="C233" s="139" t="s">
         <v>120</v>
       </c>
       <c r="D233" s="17" t="str">
-        <f>IF(Q151="","",Q151)</f>
+        <f>IF(D235&lt;&gt;"",D235,IF(Q151="","",Q151))</f>
         <v/>
       </c>
       <c r="E233" s="3"/>
@@ -10212,15 +9955,15 @@
       <c r="J233" s="3"/>
       <c r="K233" s="3"/>
       <c r="L233" s="2"/>
-      <c r="M233" s="142"/>
+      <c r="M233" s="131"/>
     </row>
     <row r="234" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B234" s="141"/>
-      <c r="C234" s="164" t="s">
+      <c r="B234" s="130"/>
+      <c r="C234" s="153" t="s">
         <v>121</v>
       </c>
       <c r="D234" s="2"/>
-      <c r="E234" s="165">
+      <c r="E234" s="154">
         <f>LEN(D233)</f>
         <v>0</v>
       </c>
@@ -10231,11 +9974,11 @@
       <c r="J234" s="2"/>
       <c r="K234" s="2"/>
       <c r="L234" s="2"/>
-      <c r="M234" s="142"/>
+      <c r="M234" s="131"/>
     </row>
     <row r="235" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B235" s="141"/>
-      <c r="C235" s="150" t="s">
+      <c r="B235" s="130"/>
+      <c r="C235" s="139" t="s">
         <v>122</v>
       </c>
       <c r="D235" s="8"/>
@@ -10247,10 +9990,10 @@
       <c r="J235" s="3"/>
       <c r="K235" s="3"/>
       <c r="L235" s="2"/>
-      <c r="M235" s="142"/>
+      <c r="M235" s="131"/>
     </row>
     <row r="236" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B236" s="141"/>
+      <c r="B236" s="130"/>
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
@@ -10261,10 +10004,10 @@
       <c r="J236" s="2"/>
       <c r="K236" s="2"/>
       <c r="L236" s="2"/>
-      <c r="M236" s="142"/>
+      <c r="M236" s="131"/>
     </row>
     <row r="237" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B237" s="141"/>
+      <c r="B237" s="130"/>
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
       <c r="E237" s="2"/>
@@ -10275,17 +10018,17 @@
       <c r="J237" s="2"/>
       <c r="K237" s="2"/>
       <c r="L237" s="2"/>
-      <c r="M237" s="142"/>
+      <c r="M237" s="131"/>
     </row>
     <row r="238" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B238" s="158" t="s">
+      <c r="B238" s="147" t="s">
         <v>149</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
       <c r="F238" s="2"/>
-      <c r="G238" s="190" t="s">
+      <c r="G238" s="170" t="s">
         <v>258</v>
       </c>
       <c r="H238" s="2"/>
@@ -10293,10 +10036,10 @@
       <c r="J238" s="2"/>
       <c r="K238" s="2"/>
       <c r="L238" s="2"/>
-      <c r="M238" s="142"/>
+      <c r="M238" s="131"/>
     </row>
     <row r="239" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B239" s="188" t="s">
+      <c r="B239" s="168" t="s">
         <v>257</v>
       </c>
       <c r="C239" s="30" t="str">
@@ -10312,21 +10055,21 @@
         <v/>
       </c>
       <c r="F239" s="2"/>
-      <c r="G239" s="125" t="str">
+      <c r="G239" s="116" t="str">
         <f>IF(H239&lt;&gt;"",H239,IF(Q105="","",Q105))</f>
         <v/>
       </c>
-      <c r="H239" s="116"/>
-      <c r="I239" s="194" t="s">
+      <c r="H239" s="184"/>
+      <c r="I239" s="174" t="s">
         <v>262</v>
       </c>
       <c r="J239" s="2"/>
       <c r="K239" s="2"/>
       <c r="L239" s="2"/>
-      <c r="M239" s="142"/>
+      <c r="M239" s="131"/>
     </row>
     <row r="240" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B240" s="188" t="s">
+      <c r="B240" s="168" t="s">
         <v>152</v>
       </c>
       <c r="C240" s="43"/>
@@ -10339,10 +10082,10 @@
       <c r="J240" s="2"/>
       <c r="K240" s="2"/>
       <c r="L240" s="2"/>
-      <c r="M240" s="142"/>
+      <c r="M240" s="131"/>
     </row>
     <row r="241" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B241" s="188" t="s">
+      <c r="B241" s="168" t="s">
         <v>153</v>
       </c>
       <c r="C241" s="43"/>
@@ -10364,17 +10107,17 @@
       </c>
       <c r="K241" s="2"/>
       <c r="L241" s="2"/>
-      <c r="M241" s="142"/>
+      <c r="M241" s="131"/>
     </row>
     <row r="242" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B242" s="188" t="s">
+      <c r="B242" s="168" t="s">
         <v>154</v>
       </c>
       <c r="C242" s="43"/>
       <c r="D242" s="43"/>
       <c r="E242" s="43"/>
       <c r="F242" s="2"/>
-      <c r="G242" s="150" t="s">
+      <c r="G242" s="139" t="s">
         <v>259</v>
       </c>
       <c r="H242" s="43"/>
@@ -10382,17 +10125,17 @@
       <c r="J242" s="43"/>
       <c r="K242" s="2"/>
       <c r="L242" s="2"/>
-      <c r="M242" s="142"/>
+      <c r="M242" s="131"/>
     </row>
     <row r="243" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B243" s="188" t="s">
+      <c r="B243" s="168" t="s">
         <v>155</v>
       </c>
       <c r="C243" s="43"/>
       <c r="D243" s="43"/>
       <c r="E243" s="43"/>
       <c r="F243" s="2"/>
-      <c r="G243" s="150" t="s">
+      <c r="G243" s="139" t="s">
         <v>260</v>
       </c>
       <c r="H243" s="43"/>
@@ -10400,17 +10143,17 @@
       <c r="J243" s="43"/>
       <c r="K243" s="2"/>
       <c r="L243" s="2"/>
-      <c r="M243" s="142"/>
+      <c r="M243" s="131"/>
     </row>
     <row r="244" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B244" s="188" t="s">
+      <c r="B244" s="168" t="s">
         <v>156</v>
       </c>
       <c r="C244" s="43"/>
       <c r="D244" s="43"/>
       <c r="E244" s="43"/>
       <c r="F244" s="2"/>
-      <c r="G244" s="150" t="s">
+      <c r="G244" s="139" t="s">
         <v>261</v>
       </c>
       <c r="H244" s="30" t="str">
@@ -10427,17 +10170,17 @@
       </c>
       <c r="K244" s="2"/>
       <c r="L244" s="2"/>
-      <c r="M244" s="142"/>
+      <c r="M244" s="131"/>
     </row>
     <row r="245" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B245" s="188" t="s">
+      <c r="B245" s="168" t="s">
         <v>157</v>
       </c>
       <c r="C245" s="43"/>
       <c r="D245" s="43"/>
       <c r="E245" s="43"/>
       <c r="F245" s="2"/>
-      <c r="G245" s="150" t="s">
+      <c r="G245" s="139" t="s">
         <v>112</v>
       </c>
       <c r="H245" s="30" t="str">
@@ -10454,10 +10197,10 @@
       </c>
       <c r="K245" s="2"/>
       <c r="L245" s="2"/>
-      <c r="M245" s="142"/>
+      <c r="M245" s="131"/>
     </row>
     <row r="246" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B246" s="188" t="s">
+      <c r="B246" s="168" t="s">
         <v>158</v>
       </c>
       <c r="C246" s="43"/>
@@ -10465,19 +10208,19 @@
       <c r="E246" s="43"/>
       <c r="F246" s="2"/>
       <c r="G246" s="2"/>
-      <c r="H246" s="163" t="s">
+      <c r="H246" s="152" t="s">
         <v>263</v>
       </c>
-      <c r="I246" s="156" t="s">
+      <c r="I246" s="145" t="s">
         <v>264</v>
       </c>
       <c r="J246" s="2"/>
       <c r="K246" s="2"/>
       <c r="L246" s="2"/>
-      <c r="M246" s="142"/>
+      <c r="M246" s="131"/>
     </row>
     <row r="247" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B247" s="188" t="s">
+      <c r="B247" s="168" t="s">
         <v>159</v>
       </c>
       <c r="C247" s="43"/>
@@ -10490,10 +10233,10 @@
       <c r="J247" s="2"/>
       <c r="K247" s="2"/>
       <c r="L247" s="2"/>
-      <c r="M247" s="142"/>
+      <c r="M247" s="131"/>
     </row>
     <row r="248" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B248" s="188" t="s">
+      <c r="B248" s="168" t="s">
         <v>160</v>
       </c>
       <c r="C248" s="43"/>
@@ -10506,10 +10249,10 @@
       <c r="J248" s="2"/>
       <c r="K248" s="2"/>
       <c r="L248" s="2"/>
-      <c r="M248" s="142"/>
+      <c r="M248" s="131"/>
     </row>
     <row r="249" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B249" s="188" t="s">
+      <c r="B249" s="168" t="s">
         <v>161</v>
       </c>
       <c r="C249" s="43"/>
@@ -10522,10 +10265,10 @@
       <c r="J249" s="2"/>
       <c r="K249" s="2"/>
       <c r="L249" s="2"/>
-      <c r="M249" s="142"/>
+      <c r="M249" s="131"/>
     </row>
     <row r="250" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B250" s="188" t="s">
+      <c r="B250" s="168" t="s">
         <v>162</v>
       </c>
       <c r="C250" s="43"/>
@@ -10538,10 +10281,10 @@
       <c r="J250" s="2"/>
       <c r="K250" s="2"/>
       <c r="L250" s="2"/>
-      <c r="M250" s="142"/>
+      <c r="M250" s="131"/>
     </row>
     <row r="251" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B251" s="188" t="s">
+      <c r="B251" s="168" t="s">
         <v>163</v>
       </c>
       <c r="C251" s="43"/>
@@ -10554,15 +10297,15 @@
       <c r="J251" s="2"/>
       <c r="K251" s="2"/>
       <c r="L251" s="2"/>
-      <c r="M251" s="142"/>
+      <c r="M251" s="131"/>
     </row>
     <row r="252" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B252" s="141"/>
-      <c r="C252" s="150" t="s">
+      <c r="B252" s="130"/>
+      <c r="C252" s="139" t="s">
         <v>120</v>
       </c>
       <c r="D252" s="17" t="str">
-        <f>IF(Q152="","",Q152)</f>
+        <f>IF(D254&lt;&gt;"",D254,IF(Q152="","",Q152))</f>
         <v/>
       </c>
       <c r="E252" s="3"/>
@@ -10573,15 +10316,15 @@
       <c r="J252" s="3"/>
       <c r="K252" s="3"/>
       <c r="L252" s="2"/>
-      <c r="M252" s="142"/>
+      <c r="M252" s="131"/>
     </row>
     <row r="253" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B253" s="141"/>
-      <c r="C253" s="164" t="s">
+      <c r="B253" s="130"/>
+      <c r="C253" s="153" t="s">
         <v>121</v>
       </c>
       <c r="D253" s="2"/>
-      <c r="E253" s="165">
+      <c r="E253" s="154">
         <f>LEN(D252)</f>
         <v>0</v>
       </c>
@@ -10592,11 +10335,11 @@
       <c r="J253" s="2"/>
       <c r="K253" s="2"/>
       <c r="L253" s="2"/>
-      <c r="M253" s="142"/>
+      <c r="M253" s="131"/>
     </row>
     <row r="254" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B254" s="141"/>
-      <c r="C254" s="150" t="s">
+      <c r="B254" s="130"/>
+      <c r="C254" s="139" t="s">
         <v>122</v>
       </c>
       <c r="D254" s="8"/>
@@ -10608,10 +10351,10 @@
       <c r="J254" s="3"/>
       <c r="K254" s="3"/>
       <c r="L254" s="2"/>
-      <c r="M254" s="142"/>
+      <c r="M254" s="131"/>
     </row>
     <row r="255" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B255" s="141"/>
+      <c r="B255" s="130"/>
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
@@ -10622,10 +10365,10 @@
       <c r="J255" s="2"/>
       <c r="K255" s="2"/>
       <c r="L255" s="2"/>
-      <c r="M255" s="142"/>
+      <c r="M255" s="131"/>
     </row>
     <row r="256" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B256" s="158" t="s">
+      <c r="B256" s="147" t="s">
         <v>265</v>
       </c>
       <c r="C256" s="2"/>
@@ -10638,10 +10381,10 @@
       <c r="J256" s="2"/>
       <c r="K256" s="2"/>
       <c r="L256" s="2"/>
-      <c r="M256" s="142"/>
+      <c r="M256" s="131"/>
     </row>
     <row r="257" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B257" s="195" t="str">
+      <c r="B257" s="175" t="str">
         <f>IF(C257&lt;&gt;"",C257,IF(Q106="","",Q106))</f>
         <v/>
       </c>
@@ -10657,113 +10400,113 @@
       <c r="J257" s="2"/>
       <c r="K257" s="2"/>
       <c r="L257" s="2"/>
-      <c r="M257" s="142"/>
+      <c r="M257" s="131"/>
     </row>
     <row r="258" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B258" s="141"/>
-      <c r="C258" s="117" t="s">
+      <c r="B258" s="130"/>
+      <c r="C258" s="185" t="s">
         <v>189</v>
       </c>
-      <c r="D258" s="117" t="s">
+      <c r="D258" s="185" t="s">
         <v>267</v>
       </c>
-      <c r="E258" s="117" t="s">
+      <c r="E258" s="185" t="s">
         <v>268</v>
       </c>
-      <c r="F258" s="117" t="s">
+      <c r="F258" s="185" t="s">
         <v>199</v>
       </c>
       <c r="G258" s="2"/>
       <c r="H258" s="2"/>
-      <c r="I258" s="117" t="s">
+      <c r="I258" s="185" t="s">
         <v>269</v>
       </c>
-      <c r="J258" s="117" t="s">
+      <c r="J258" s="185" t="s">
         <v>153</v>
       </c>
-      <c r="K258" s="117" t="s">
+      <c r="K258" s="185" t="s">
         <v>162</v>
       </c>
-      <c r="L258" s="117" t="s">
+      <c r="L258" s="185" t="s">
         <v>270</v>
       </c>
-      <c r="M258" s="142"/>
+      <c r="M258" s="131"/>
     </row>
     <row r="259" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B259" s="192" t="s">
+      <c r="B259" s="172" t="s">
         <v>278</v>
       </c>
-      <c r="C259" s="109" t="str">
+      <c r="C259" s="105" t="str">
         <f>IF(OR(I259="",I260="",I263=""),"",(I259-I260)*I263)</f>
         <v/>
       </c>
-      <c r="D259" s="226" t="str">
+      <c r="D259" s="202" t="str">
         <f>IF(OR(C259="",C260=""),"",(ABS(C259)+ABS(C260))/$B$257)</f>
         <v/>
       </c>
-      <c r="E259" s="226" t="str">
+      <c r="E259" s="202" t="str">
         <f>IF(OR(D259="",D261=""),"",D259+D261)</f>
         <v/>
       </c>
-      <c r="F259" s="134" t="str">
+      <c r="F259" s="124" t="str">
         <f>IF(Q107="","",Q107)</f>
         <v/>
       </c>
       <c r="G259" s="2"/>
-      <c r="H259" s="150" t="s">
+      <c r="H259" s="139" t="s">
         <v>273</v>
       </c>
       <c r="I259" s="43"/>
       <c r="J259" s="43"/>
       <c r="K259" s="43"/>
       <c r="L259" s="43"/>
-      <c r="M259" s="142"/>
+      <c r="M259" s="131"/>
     </row>
     <row r="260" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B260" s="192" t="s">
+      <c r="B260" s="172" t="s">
         <v>279</v>
       </c>
-      <c r="C260" s="111" t="str">
+      <c r="C260" s="107" t="str">
         <f>IF(OR(J259="",J260="",I263=""),"",(J259-J260)*I263)</f>
         <v/>
       </c>
-      <c r="D260" s="227"/>
-      <c r="E260" s="230"/>
-      <c r="F260" s="135" t="str">
+      <c r="D260" s="203"/>
+      <c r="E260" s="206"/>
+      <c r="F260" s="125" t="str">
         <f>IF(Q108="","",Q108)</f>
         <v/>
       </c>
       <c r="G260" s="2"/>
-      <c r="H260" s="150" t="s">
+      <c r="H260" s="139" t="s">
         <v>274</v>
       </c>
       <c r="I260" s="43"/>
       <c r="J260" s="43"/>
       <c r="K260" s="43"/>
       <c r="L260" s="43"/>
-      <c r="M260" s="142"/>
+      <c r="M260" s="131"/>
     </row>
     <row r="261" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B261" s="192" t="s">
+      <c r="B261" s="172" t="s">
         <v>280</v>
       </c>
-      <c r="C261" s="111" t="str">
+      <c r="C261" s="107" t="str">
         <f>IF(OR(K259="",K260="",I263=""),"",(K259-K260)*I263)</f>
         <v/>
       </c>
-      <c r="D261" s="228" t="str">
+      <c r="D261" s="204" t="str">
         <f>IF(OR(C261="",C262=""),"",(ABS(C261)+ABS(C262))/$B$257)</f>
         <v/>
       </c>
-      <c r="E261" s="230"/>
-      <c r="F261" s="135" t="str">
+      <c r="E261" s="206"/>
+      <c r="F261" s="125" t="str">
         <f>IF(Q109="","",Q109)</f>
         <v/>
       </c>
-      <c r="G261" s="117" t="s">
+      <c r="G261" s="185" t="s">
         <v>200</v>
       </c>
-      <c r="H261" s="150" t="s">
+      <c r="H261" s="139" t="s">
         <v>275</v>
       </c>
       <c r="I261" s="30" t="str">
@@ -10773,47 +10516,47 @@
       <c r="J261" s="2"/>
       <c r="K261" s="2"/>
       <c r="L261" s="2"/>
-      <c r="M261" s="142"/>
+      <c r="M261" s="131"/>
     </row>
     <row r="262" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B262" s="192" t="s">
+      <c r="B262" s="172" t="s">
         <v>281</v>
       </c>
-      <c r="C262" s="113" t="str">
+      <c r="C262" s="109" t="str">
         <f>IF(OR(L259="",L260="",I263=""),"",(L259-L260)*I263)</f>
         <v/>
       </c>
-      <c r="D262" s="229"/>
-      <c r="E262" s="229"/>
-      <c r="F262" s="136" t="str">
+      <c r="D262" s="205"/>
+      <c r="E262" s="205"/>
+      <c r="F262" s="126" t="str">
         <f>IF(Q110="","",Q110)</f>
         <v/>
       </c>
-      <c r="G262" s="114" t="str">
+      <c r="G262" s="110" t="str">
         <f>IF(OR(D259="",D261="",E259=""),"",IF(OR(D259&gt;0.02,D261&gt;0.02,E259&gt;0.04),"NO","YES"))</f>
         <v/>
       </c>
-      <c r="H262" s="150" t="s">
+      <c r="H262" s="139" t="s">
         <v>276</v>
       </c>
       <c r="I262" s="43"/>
       <c r="J262" s="2"/>
       <c r="K262" s="2"/>
       <c r="L262" s="2"/>
-      <c r="M262" s="142"/>
+      <c r="M262" s="131"/>
     </row>
     <row r="263" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B263" s="196" t="s">
+      <c r="B263" s="176" t="s">
         <v>118</v>
       </c>
-      <c r="C263" s="156" t="s">
+      <c r="C263" s="145" t="s">
         <v>271</v>
       </c>
       <c r="D263" s="2"/>
       <c r="E263" s="2"/>
       <c r="F263" s="2"/>
       <c r="G263" s="2"/>
-      <c r="H263" s="150" t="s">
+      <c r="H263" s="139" t="s">
         <v>277</v>
       </c>
       <c r="I263" s="30" t="str">
@@ -10823,11 +10566,11 @@
       <c r="J263" s="2"/>
       <c r="K263" s="2"/>
       <c r="L263" s="2"/>
-      <c r="M263" s="142"/>
+      <c r="M263" s="131"/>
     </row>
     <row r="264" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B264" s="141"/>
-      <c r="C264" s="156" t="s">
+      <c r="B264" s="130"/>
+      <c r="C264" s="145" t="s">
         <v>272</v>
       </c>
       <c r="D264" s="2"/>
@@ -10839,14 +10582,17 @@
       <c r="J264" s="2"/>
       <c r="K264" s="2"/>
       <c r="L264" s="2"/>
-      <c r="M264" s="142"/>
+      <c r="M264" s="131"/>
     </row>
     <row r="265" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B265" s="141"/>
-      <c r="C265" s="150" t="s">
+      <c r="B265" s="130"/>
+      <c r="C265" s="139" t="s">
         <v>120</v>
       </c>
-      <c r="D265" s="17"/>
+      <c r="D265" s="17" t="str">
+        <f>IF(D267&lt;&gt;"",D267,IF(Q153="","",Q153))</f>
+        <v/>
+      </c>
       <c r="E265" s="3"/>
       <c r="F265" s="3"/>
       <c r="G265" s="3"/>
@@ -10855,15 +10601,15 @@
       <c r="J265" s="3"/>
       <c r="K265" s="3"/>
       <c r="L265" s="2"/>
-      <c r="M265" s="142"/>
+      <c r="M265" s="131"/>
     </row>
     <row r="266" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B266" s="141"/>
-      <c r="C266" s="164" t="s">
+      <c r="B266" s="130"/>
+      <c r="C266" s="153" t="s">
         <v>121</v>
       </c>
       <c r="D266" s="2"/>
-      <c r="E266" s="165">
+      <c r="E266" s="154">
         <f>LEN(D265)</f>
         <v>0</v>
       </c>
@@ -10874,17 +10620,14 @@
       <c r="J266" s="2"/>
       <c r="K266" s="2"/>
       <c r="L266" s="2"/>
-      <c r="M266" s="142"/>
+      <c r="M266" s="131"/>
     </row>
     <row r="267" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B267" s="141"/>
-      <c r="C267" s="150" t="s">
+      <c r="B267" s="130"/>
+      <c r="C267" s="139" t="s">
         <v>122</v>
       </c>
-      <c r="D267" s="8" t="str">
-        <f>IF(Q153="","",Q153)</f>
-        <v/>
-      </c>
+      <c r="D267" s="8"/>
       <c r="E267" s="3"/>
       <c r="F267" s="3"/>
       <c r="G267" s="3"/>
@@ -10893,609 +10636,250 @@
       <c r="J267" s="3"/>
       <c r="K267" s="3"/>
       <c r="L267" s="2"/>
-      <c r="M267" s="142"/>
+      <c r="M267" s="131"/>
     </row>
     <row r="268" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B268" s="143"/>
-      <c r="C268" s="144"/>
-      <c r="D268" s="144"/>
-      <c r="E268" s="144"/>
-      <c r="F268" s="144"/>
-      <c r="G268" s="144"/>
-      <c r="H268" s="144"/>
-      <c r="I268" s="144"/>
-      <c r="J268" s="144"/>
-      <c r="K268" s="144"/>
-      <c r="L268" s="144"/>
-      <c r="M268" s="146"/>
-    </row>
-    <row r="269" spans="2:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="273" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D273" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="E273" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="F273" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="274" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C274" s="4" t="s">
+      <c r="B268" s="132"/>
+      <c r="C268" s="133"/>
+      <c r="D268" s="133"/>
+      <c r="E268" s="133"/>
+      <c r="F268" s="133"/>
+      <c r="G268" s="133"/>
+      <c r="H268" s="133"/>
+      <c r="I268" s="133"/>
+      <c r="J268" s="133"/>
+      <c r="K268" s="133"/>
+      <c r="L268" s="133"/>
+      <c r="M268" s="135"/>
+    </row>
+    <row r="269" spans="2:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B269" s="18" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="270" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B270" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C270" s="116" t="str">
+        <f>IF(D270&lt;&gt;"",D270,IF(Q157="","",Q157))</f>
+        <v/>
+      </c>
+      <c r="D270" s="184"/>
+    </row>
+    <row r="271" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B271" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C271" s="116" t="str">
+        <f t="shared" ref="C271:C272" si="32">IF(D271&lt;&gt;"",D271,IF(Q158="","",Q158))</f>
+        <v/>
+      </c>
+      <c r="D271" s="184"/>
+    </row>
+    <row r="272" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B272" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C272" s="116" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="D272" s="184"/>
+    </row>
+    <row r="274" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B274" s="18" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="275" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D275" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F275" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="G275" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="H275" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="276" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D276" s="43">
+        <v>9</v>
+      </c>
+      <c r="E276" s="43">
+        <v>29.93</v>
+      </c>
+      <c r="F276" s="43">
+        <v>18.68</v>
+      </c>
+      <c r="G276" s="43">
+        <v>22.38</v>
+      </c>
+      <c r="H276" s="43">
+        <v>19.23</v>
+      </c>
+    </row>
+    <row r="277" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D277" s="43"/>
+      <c r="E277" s="43"/>
+      <c r="F277" s="43"/>
+      <c r="G277" s="43"/>
+      <c r="H277" s="43"/>
+    </row>
+    <row r="278" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D278" s="43"/>
+      <c r="E278" s="43"/>
+      <c r="F278" s="43"/>
+      <c r="G278" s="43"/>
+      <c r="H278" s="43"/>
+    </row>
+    <row r="279" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C279" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="D279" s="30">
+        <f>IF(D276="","",AVERAGE(D276:D278))</f>
+        <v>9</v>
+      </c>
+      <c r="E279" s="30">
+        <f t="shared" ref="E279:H279" si="33">IF(E276="","",AVERAGE(E276:E278))</f>
+        <v>29.93</v>
+      </c>
+      <c r="F279" s="30">
+        <f t="shared" si="33"/>
+        <v>18.68</v>
+      </c>
+      <c r="G279" s="30">
+        <f t="shared" si="33"/>
+        <v>22.38</v>
+      </c>
+      <c r="H279" s="30">
+        <f t="shared" si="33"/>
+        <v>19.23</v>
+      </c>
+    </row>
+    <row r="280" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C280" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="D280" s="30" t="e">
+        <f>IF(D276="","",STDEV(D276:D278))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E280" s="30" t="e">
+        <f t="shared" ref="E280:H280" si="34">IF(E276="","",STDEV(E276:E278))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F280" s="30" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G280" s="30" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H280" s="30" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="281" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C281" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="D281" s="216">
+        <f>IF(D279="","",D279/3+(2/3)*AVERAGE(E279:H279))</f>
+        <v>18.036666666666665</v>
+      </c>
+    </row>
+    <row r="282" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C282" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="D282" s="214" t="str">
+        <f>IF(Q160="","",Q160)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="283" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C283" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="D283" s="215" t="str">
+        <f>IF(OR(D281="",D282=""),"",(D281-D282)/D282)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="284" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C284" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="D274" s="203" t="str">
-        <f>IF(G274&lt;&gt;"",G274,IF(Q157="","",Q157))</f>
-        <v/>
-      </c>
-      <c r="E274" s="203" t="str">
-        <f>IF(H274&lt;&gt;"",H274,IF(Q170="","",Q170))</f>
-        <v/>
-      </c>
-      <c r="F274" s="203" t="str">
-        <f>IF(I274&lt;&gt;"",I274,IF(Q183="","",Q183))</f>
-        <v/>
-      </c>
-      <c r="G274" s="204"/>
-      <c r="H274" s="204"/>
-      <c r="I274" s="204"/>
-    </row>
-    <row r="275" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C275" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="D275" s="203" t="str">
-        <f t="shared" ref="D275:D285" si="32">IF(G275&lt;&gt;"",G275,IF(Q158="","",Q158))</f>
-        <v/>
-      </c>
-      <c r="E275" s="203" t="str">
-        <f t="shared" ref="E275:E285" si="33">IF(H275&lt;&gt;"",H275,IF(Q171="","",Q171))</f>
-        <v/>
-      </c>
-      <c r="F275" s="203" t="str">
-        <f t="shared" ref="F275:F285" si="34">IF(I275&lt;&gt;"",I275,IF(Q184="","",Q184))</f>
-        <v/>
-      </c>
-      <c r="G275" s="204"/>
-      <c r="H275" s="204"/>
-      <c r="I275" s="204"/>
-    </row>
-    <row r="276" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C276" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="D276" s="203" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="E276" s="203" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="F276" s="203" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="G276" s="204"/>
-      <c r="H276" s="204"/>
-      <c r="I276" s="204"/>
-    </row>
-    <row r="277" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C277" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="D277" s="203" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="E277" s="203" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="F277" s="203" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="G277" s="204"/>
-      <c r="H277" s="204"/>
-      <c r="I277" s="204"/>
-    </row>
-    <row r="278" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C278" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="D278" s="203" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="E278" s="203" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="F278" s="203" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="G278" s="204"/>
-      <c r="H278" s="204"/>
-      <c r="I278" s="204"/>
-    </row>
-    <row r="279" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C279" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="D279" s="203" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="E279" s="203" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="F279" s="203" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="G279" s="204"/>
-      <c r="H279" s="204"/>
-      <c r="I279" s="204"/>
-    </row>
-    <row r="280" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C280" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="D280" s="203" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="E280" s="203" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="F280" s="203" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="G280" s="204"/>
-      <c r="H280" s="204"/>
-      <c r="I280" s="204"/>
-    </row>
-    <row r="281" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C281" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="D281" s="203" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="E281" s="203" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="F281" s="203" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="G281" s="204"/>
-      <c r="H281" s="204"/>
-      <c r="I281" s="204"/>
-    </row>
-    <row r="282" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C282" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="D282" s="203" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="E282" s="203" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="F282" s="203" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="G282" s="204"/>
-      <c r="H282" s="204"/>
-      <c r="I282" s="204"/>
-    </row>
-    <row r="283" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C283" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D283" s="203" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="E283" s="203" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="F283" s="203" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="G283" s="204"/>
-      <c r="H283" s="204"/>
-      <c r="I283" s="204"/>
-    </row>
-    <row r="284" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C284" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="D284" s="203" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="E284" s="203" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="F284" s="203" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="G284" s="204"/>
-      <c r="H284" s="204"/>
-      <c r="I284" s="204"/>
-    </row>
-    <row r="285" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C285" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="D285" s="203" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="E285" s="203" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="F285" s="203" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="G285" s="204"/>
-      <c r="H285" s="204"/>
-      <c r="I285" s="204"/>
-    </row>
-    <row r="287" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B287" s="18" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="288" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C288" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="D288" s="205"/>
-      <c r="I288" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="J288" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="L288" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="M288" s="8"/>
-    </row>
-    <row r="289" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C289" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="D289" s="205"/>
-      <c r="I289" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="J289" s="205"/>
-      <c r="L289" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="M289" s="205"/>
-    </row>
-    <row r="290" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C290" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="D290" s="205"/>
-    </row>
-    <row r="291" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C291" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="D291" s="208" t="str">
-        <f>IF(D274="","",D274)</f>
-        <v/>
-      </c>
-      <c r="E291" s="208" t="str">
-        <f>IF(E274="","",E274)</f>
-        <v/>
-      </c>
-      <c r="F291" s="208" t="str">
-        <f>IF(F274="","",F274)</f>
-        <v/>
-      </c>
-      <c r="K291" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="L291" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="292" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C292" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="D292" s="86" t="str">
-        <f>IF(D285="","",D285)</f>
-        <v/>
-      </c>
-      <c r="E292" s="86" t="str">
-        <f t="shared" ref="E292:F292" si="35">IF(E285="","",E285)</f>
-        <v/>
-      </c>
-      <c r="F292" s="86" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="K292" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="L292" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="293" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C293" s="213" t="s">
-        <v>386</v>
-      </c>
-      <c r="D293" s="88"/>
-      <c r="E293" s="88"/>
-      <c r="F293" s="88"/>
-      <c r="J293" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="K293" s="1">
-        <v>25</v>
-      </c>
-      <c r="L293" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="294" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C294" s="213"/>
-      <c r="D294" s="88"/>
-      <c r="E294" s="88"/>
-      <c r="F294" s="88"/>
-      <c r="J294" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="K294" s="1">
-        <v>75</v>
-      </c>
-      <c r="L294" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="295" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C295" s="213"/>
-      <c r="D295" s="88"/>
-      <c r="E295" s="88"/>
-      <c r="F295" s="88"/>
-      <c r="J295" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="K295" s="1">
-        <v>15</v>
-      </c>
-      <c r="L295" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="296" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C296" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="D296" s="86" t="str">
-        <f>IF(D293="","",$D$289*$D$290*AVERAGE(D293:D295)/($D$278*$D$279))</f>
-        <v/>
-      </c>
-      <c r="E296" s="86" t="str">
-        <f>IF(E293="","",$D$289*$D$290*AVERAGE(E293:E295)/($D$278*$D$279))</f>
-        <v/>
-      </c>
-      <c r="F296" s="86" t="str">
-        <f>IF(F293="","",$D$289*$D$290*AVERAGE(F293:F295)/($D$278*$D$279))</f>
-        <v/>
-      </c>
-      <c r="J296" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="K296" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="L296" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="297" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C297" s="213" t="s">
-        <v>388</v>
-      </c>
-      <c r="D297" s="88"/>
-      <c r="E297" s="88"/>
-      <c r="F297" s="88"/>
-      <c r="J297" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="K297" s="1">
-        <v>35</v>
-      </c>
-      <c r="L297" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="298" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C298" s="213"/>
-      <c r="D298" s="88"/>
-      <c r="E298" s="88"/>
-      <c r="F298" s="88"/>
-    </row>
-    <row r="299" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C299" s="213"/>
-      <c r="D299" s="88"/>
-      <c r="E299" s="88"/>
-      <c r="F299" s="88"/>
-    </row>
-    <row r="300" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C300" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="D300" s="86" t="str">
-        <f>IF(D297="","",$D$289*$D$290*AVERAGE(D297:D299)/($D$278*$D$279))</f>
-        <v/>
-      </c>
-      <c r="E300" s="86" t="str">
-        <f>IF(E297="","",$D$289*$D$290*AVERAGE(E297:E299)/($D$278*$D$279))</f>
-        <v/>
-      </c>
-      <c r="F300" s="86" t="str">
-        <f>IF(F297="","",$D$289*$D$290*AVERAGE(F297:F299)/($D$278*$D$279))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="301" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C301" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="D301" s="86" t="str">
-        <f>IF(OR(D296="",D300=""),"",(2/3)*D300+(1/3)*D296)</f>
-        <v/>
-      </c>
-      <c r="E301" s="86" t="str">
-        <f>IF(OR(E296="",E300=""),"",(2/3)*E300+(1/3)*E296)</f>
-        <v/>
-      </c>
-      <c r="F301" s="86" t="str">
-        <f>IF(OR(F296="",F300=""),"",(2/3)*F300+(1/3)*F296)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="302" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C302" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="D302" s="88"/>
-      <c r="E302" s="88"/>
-      <c r="F302" s="88"/>
-    </row>
-    <row r="303" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C303" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="D303" s="88"/>
-      <c r="E303" s="88"/>
-      <c r="F303" s="88"/>
-    </row>
-    <row r="304" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C304" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="D304" s="203" t="str">
-        <f>IF(Q196="","",Q196)</f>
-        <v/>
-      </c>
-      <c r="E304" s="203" t="str">
-        <f>IF(Q197="","",Q197)</f>
-        <v/>
-      </c>
-      <c r="F304" s="203" t="str">
-        <f>IF(Q198="","",Q198)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="305" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C305" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="D305" s="86" t="str">
-        <f>IF(OR(D304="",D301=""),"",ABS(D301-D304)/D304)</f>
-        <v/>
-      </c>
-      <c r="E305" s="86" t="str">
-        <f>IF(OR(E304="",E301=""),"",ABS(E301-E304)/E304)</f>
-        <v/>
-      </c>
-      <c r="F305" s="86" t="str">
-        <f>IF(OR(F304="",F301=""),"",ABS(F301-F304)/F304)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="306" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C306" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="D306" s="86" t="str">
-        <f>IF(OR(D292="",D301=""),"",ABS(D301-D292)/D292)</f>
-        <v/>
-      </c>
-      <c r="E306" s="86" t="str">
-        <f t="shared" ref="E306:F306" si="36">IF(OR(E292="",E301=""),"",ABS(E301-E292)/E292)</f>
-        <v/>
-      </c>
-      <c r="F306" s="86" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-    </row>
-    <row r="307" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C307" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D307" s="86" t="str">
-        <f>IF(D301="","",IF(AND(D301&lt;=L293),"Pass","Fail"))</f>
-        <v/>
-      </c>
-      <c r="E307" s="86" t="str">
-        <f>IF(E301="","",IF(AND(E301&lt;=L294,E305&lt;=0.052),"Pass","Fail"))</f>
-        <v/>
-      </c>
-      <c r="F307" s="86" t="str">
-        <f>IF(F301="","",IF(AND(F301&lt;=L293,F305&lt;=0.05),"Pass","Fail"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="308" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C308" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="D308" s="86" t="str">
-        <f>IF(OR(D301="",D277=""),"",D301/(E271/100))</f>
-        <v/>
-      </c>
-      <c r="E308" s="86" t="str">
-        <f>IF(OR(E301="",E277=""),"",E301/(F271/100))</f>
-        <v/>
-      </c>
-      <c r="F308" s="86" t="str">
-        <f>IF(OR(F301="",F277=""),"",F301/(G271/100))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="309" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C309" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="D309" s="203"/>
-      <c r="E309" s="203"/>
-      <c r="F309" s="203"/>
-    </row>
+      <c r="D284" s="215" t="str">
+        <f>IF(OR(D281="",C270=""),"",(D281-C270)/C270)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="286" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C286" s="139" t="s">
+        <v>120</v>
+      </c>
+      <c r="D286" s="17" t="str">
+        <f>IF(D288&lt;&gt;"",D288,IF(Q161="","",Q161))</f>
+        <v/>
+      </c>
+      <c r="E286" s="3"/>
+      <c r="F286" s="3"/>
+      <c r="G286" s="3"/>
+      <c r="H286" s="3"/>
+      <c r="I286" s="3"/>
+      <c r="J286" s="3"/>
+      <c r="K286" s="3"/>
+    </row>
+    <row r="287" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C287" s="153" t="s">
+        <v>121</v>
+      </c>
+      <c r="D287" s="2"/>
+      <c r="E287" s="154">
+        <f>LEN(D286)</f>
+        <v>0</v>
+      </c>
+      <c r="F287" s="2"/>
+      <c r="G287" s="2"/>
+      <c r="H287" s="2"/>
+      <c r="I287" s="2"/>
+      <c r="J287" s="2"/>
+      <c r="K287" s="2"/>
+    </row>
+    <row r="288" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C288" s="139" t="s">
+        <v>122</v>
+      </c>
+      <c r="D288" s="8"/>
+      <c r="E288" s="3"/>
+      <c r="F288" s="3"/>
+      <c r="G288" s="3"/>
+      <c r="H288" s="3"/>
+      <c r="I288" s="3"/>
+      <c r="J288" s="3"/>
+      <c r="K288" s="3"/>
+    </row>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="C297:C299"/>
+  <mergeCells count="18">
+    <mergeCell ref="D202:E202"/>
+    <mergeCell ref="H201:I201"/>
+    <mergeCell ref="H202:I202"/>
     <mergeCell ref="B192:B194"/>
     <mergeCell ref="J99:L99"/>
     <mergeCell ref="G133:H133"/>
@@ -11511,10 +10895,6 @@
     <mergeCell ref="D261:D262"/>
     <mergeCell ref="E259:E262"/>
     <mergeCell ref="D201:E201"/>
-    <mergeCell ref="D202:E202"/>
-    <mergeCell ref="H201:I201"/>
-    <mergeCell ref="H202:I202"/>
-    <mergeCell ref="C293:C295"/>
   </mergeCells>
   <conditionalFormatting sqref="K135">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
@@ -11527,176 +10907,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D8C2DC-BB42-489F-ADB5-9F8C773DF0A3}">
-  <dimension ref="A1:I11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E2" t="s">
-        <v>420</v>
-      </c>
-      <c r="H2" t="s">
-        <v>426</v>
-      </c>
-      <c r="I2" t="e">
-        <f>E3/3+(2/3)*AVERAGE(E4:E11)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>386</v>
-      </c>
-      <c r="B3" s="231"/>
-      <c r="C3" s="231"/>
-      <c r="D3" s="231"/>
-      <c r="E3" s="231" t="e">
-        <f>AVERAGE(B3:D3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F3" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>416</v>
-      </c>
-      <c r="B4" s="231"/>
-      <c r="C4" s="231"/>
-      <c r="D4" s="231"/>
-      <c r="E4" s="231" t="e">
-        <f>AVERAGE(B4:D4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F4" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>417</v>
-      </c>
-      <c r="B5" s="231"/>
-      <c r="C5" s="231"/>
-      <c r="D5" s="231"/>
-      <c r="E5" s="231" t="e">
-        <f>AVERAGE(B5:D5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F5" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>418</v>
-      </c>
-      <c r="B6" s="231"/>
-      <c r="C6" s="231"/>
-      <c r="D6" s="231"/>
-      <c r="E6" s="231" t="e">
-        <f>AVERAGE(B6:D6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F6" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>419</v>
-      </c>
-      <c r="B7" s="231"/>
-      <c r="C7" s="231"/>
-      <c r="D7" s="231"/>
-      <c r="E7" s="231" t="e">
-        <f>AVERAGE(B7:D7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F7" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>427</v>
-      </c>
-      <c r="B8" s="231"/>
-      <c r="C8" s="231"/>
-      <c r="D8" s="231"/>
-      <c r="E8" s="231" t="e">
-        <f t="shared" ref="E8:E11" si="0">AVERAGE(B8:D8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F8" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>428</v>
-      </c>
-      <c r="B9" s="231"/>
-      <c r="C9" s="231"/>
-      <c r="D9" s="231"/>
-      <c r="E9" s="231" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F9" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>429</v>
-      </c>
-      <c r="B10" s="231"/>
-      <c r="C10" s="231"/>
-      <c r="D10" s="231"/>
-      <c r="E10" s="231" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F10" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>430</v>
-      </c>
-      <c r="B11" s="231"/>
-      <c r="C11" s="231"/>
-      <c r="D11" s="231"/>
-      <c r="E11" s="231" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F11" t="s">
-        <v>434</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E071D1C-946B-42C0-B073-C807EAD76DA5}">
   <dimension ref="A1:S92"/>
   <sheetViews>
@@ -14368,7 +13578,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCFC2901-8DE2-4124-ADF4-895440D7E131}">
   <dimension ref="A1:AF14"/>
   <sheetViews>
@@ -14379,7 +13589,7 @@
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="147" t="s">
         <v>98</v>
       </c>
       <c r="B1" s="2"/>
@@ -14392,33 +13602,33 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-      <c r="M1" s="197" t="s">
+      <c r="M1" s="177" t="s">
         <v>356</v>
       </c>
-      <c r="N1" s="198"/>
-      <c r="O1" s="198"/>
-      <c r="P1" s="198"/>
-      <c r="Q1" s="198"/>
-      <c r="R1" s="198"/>
-      <c r="S1" s="198"/>
-      <c r="T1" s="198"/>
-      <c r="U1" s="197" t="s">
+      <c r="N1" s="178"/>
+      <c r="O1" s="178"/>
+      <c r="P1" s="178"/>
+      <c r="Q1" s="178"/>
+      <c r="R1" s="178"/>
+      <c r="S1" s="178"/>
+      <c r="T1" s="178"/>
+      <c r="U1" s="177" t="s">
         <v>356</v>
       </c>
-      <c r="V1" s="198"/>
-      <c r="W1" s="198"/>
-      <c r="X1" s="198"/>
-      <c r="Y1" s="198"/>
-      <c r="Z1" s="198"/>
-      <c r="AA1" s="198"/>
-      <c r="AB1" s="198"/>
-      <c r="AC1" s="198"/>
-      <c r="AD1" s="198"/>
-      <c r="AE1" s="198"/>
-      <c r="AF1" s="198"/>
+      <c r="V1" s="178"/>
+      <c r="W1" s="178"/>
+      <c r="X1" s="178"/>
+      <c r="Y1" s="178"/>
+      <c r="Z1" s="178"/>
+      <c r="AA1" s="178"/>
+      <c r="AB1" s="178"/>
+      <c r="AC1" s="178"/>
+      <c r="AD1" s="178"/>
+      <c r="AE1" s="178"/>
+      <c r="AF1" s="178"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="159" t="s">
+      <c r="A2" s="148" t="s">
         <v>99</v>
       </c>
       <c r="B2" s="23" t="s">
@@ -14439,110 +13649,110 @@
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="19"/>
-      <c r="M2" s="198"/>
-      <c r="N2" s="198"/>
-      <c r="O2" s="198"/>
-      <c r="P2" s="198"/>
-      <c r="Q2" s="198"/>
-      <c r="R2" s="198"/>
-      <c r="S2" s="198"/>
-      <c r="T2" s="198"/>
-      <c r="U2" s="198"/>
-      <c r="V2" s="198"/>
-      <c r="W2" s="198"/>
-      <c r="X2" s="198"/>
-      <c r="Y2" s="198"/>
-      <c r="Z2" s="198"/>
-      <c r="AA2" s="198"/>
-      <c r="AB2" s="198"/>
-      <c r="AC2" s="198"/>
-      <c r="AD2" s="198"/>
-      <c r="AE2" s="198"/>
-      <c r="AF2" s="198"/>
+      <c r="M2" s="178"/>
+      <c r="N2" s="178"/>
+      <c r="O2" s="178"/>
+      <c r="P2" s="178"/>
+      <c r="Q2" s="178"/>
+      <c r="R2" s="178"/>
+      <c r="S2" s="178"/>
+      <c r="T2" s="178"/>
+      <c r="U2" s="178"/>
+      <c r="V2" s="178"/>
+      <c r="W2" s="178"/>
+      <c r="X2" s="178"/>
+      <c r="Y2" s="178"/>
+      <c r="Z2" s="178"/>
+      <c r="AA2" s="178"/>
+      <c r="AB2" s="178"/>
+      <c r="AC2" s="178"/>
+      <c r="AD2" s="178"/>
+      <c r="AE2" s="178"/>
+      <c r="AF2" s="178"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" s="159" t="s">
+      <c r="A3" s="148" t="s">
         <v>101</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="221" t="s">
+      <c r="C3" s="197" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="217"/>
-      <c r="E3" s="218"/>
-      <c r="F3" s="221" t="s">
+      <c r="D3" s="193"/>
+      <c r="E3" s="194"/>
+      <c r="F3" s="197" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="217"/>
-      <c r="H3" s="218"/>
-      <c r="I3" s="217" t="s">
+      <c r="G3" s="193"/>
+      <c r="H3" s="194"/>
+      <c r="I3" s="193" t="s">
         <v>89</v>
       </c>
-      <c r="J3" s="217"/>
-      <c r="K3" s="218"/>
-      <c r="M3" s="199" t="s">
+      <c r="J3" s="193"/>
+      <c r="K3" s="194"/>
+      <c r="M3" s="179" t="s">
         <v>357</v>
       </c>
-      <c r="N3" s="199" t="s">
+      <c r="N3" s="179" t="s">
         <v>358</v>
       </c>
-      <c r="O3" s="199" t="s">
+      <c r="O3" s="179" t="s">
         <v>359</v>
       </c>
-      <c r="P3" s="199" t="s">
+      <c r="P3" s="179" t="s">
         <v>360</v>
       </c>
-      <c r="Q3" s="199" t="s">
+      <c r="Q3" s="179" t="s">
         <v>361</v>
       </c>
-      <c r="R3" s="199" t="s">
+      <c r="R3" s="179" t="s">
         <v>362</v>
       </c>
-      <c r="S3" s="199" t="s">
+      <c r="S3" s="179" t="s">
         <v>363</v>
       </c>
-      <c r="T3" s="198"/>
-      <c r="U3" s="199" t="s">
+      <c r="T3" s="178"/>
+      <c r="U3" s="179" t="s">
         <v>357</v>
       </c>
-      <c r="V3" s="199" t="s">
+      <c r="V3" s="179" t="s">
         <v>358</v>
       </c>
-      <c r="W3" s="199" t="s">
+      <c r="W3" s="179" t="s">
         <v>359</v>
       </c>
-      <c r="X3" s="199" t="s">
+      <c r="X3" s="179" t="s">
         <v>360</v>
       </c>
-      <c r="Y3" s="199" t="s">
+      <c r="Y3" s="179" t="s">
         <v>361</v>
       </c>
-      <c r="Z3" s="199" t="s">
+      <c r="Z3" s="179" t="s">
         <v>362</v>
       </c>
-      <c r="AA3" s="199" t="s">
+      <c r="AA3" s="179" t="s">
         <v>363</v>
       </c>
-      <c r="AB3" s="199" t="s">
+      <c r="AB3" s="179" t="s">
         <v>364</v>
       </c>
-      <c r="AC3" s="199" t="s">
+      <c r="AC3" s="179" t="s">
         <v>365</v>
       </c>
-      <c r="AD3" s="199" t="s">
+      <c r="AD3" s="179" t="s">
         <v>366</v>
       </c>
-      <c r="AE3" s="199" t="s">
+      <c r="AE3" s="179" t="s">
         <v>367</v>
       </c>
-      <c r="AF3" s="199" t="s">
+      <c r="AF3" s="179" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="159" t="s">
+      <c r="A4" s="148" t="s">
         <v>103</v>
       </c>
       <c r="B4" s="23" t="s">
@@ -14575,37 +13785,37 @@
       <c r="K4" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="M4" s="198">
+      <c r="M4" s="178">
         <v>60</v>
       </c>
-      <c r="N4" s="198">
+      <c r="N4" s="178">
         <v>5</v>
       </c>
-      <c r="O4" s="198"/>
-      <c r="P4" s="198"/>
-      <c r="Q4" s="198"/>
-      <c r="R4" s="198"/>
-      <c r="S4" s="198"/>
-      <c r="T4" s="198"/>
-      <c r="U4" s="198">
+      <c r="O4" s="178"/>
+      <c r="P4" s="178"/>
+      <c r="Q4" s="178"/>
+      <c r="R4" s="178"/>
+      <c r="S4" s="178"/>
+      <c r="T4" s="178"/>
+      <c r="U4" s="178">
         <v>60</v>
       </c>
-      <c r="V4" s="198">
+      <c r="V4" s="178">
         <v>5</v>
       </c>
-      <c r="W4" s="198"/>
-      <c r="X4" s="198"/>
-      <c r="Y4" s="198"/>
-      <c r="Z4" s="198"/>
-      <c r="AA4" s="198"/>
-      <c r="AB4" s="198"/>
-      <c r="AC4" s="198"/>
-      <c r="AD4" s="198"/>
-      <c r="AE4" s="198"/>
-      <c r="AF4" s="198"/>
+      <c r="W4" s="178"/>
+      <c r="X4" s="178"/>
+      <c r="Y4" s="178"/>
+      <c r="Z4" s="178"/>
+      <c r="AA4" s="178"/>
+      <c r="AB4" s="178"/>
+      <c r="AC4" s="178"/>
+      <c r="AD4" s="178"/>
+      <c r="AE4" s="178"/>
+      <c r="AF4" s="178"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5" s="160" t="s">
+      <c r="A5" s="149" t="s">
         <v>107</v>
       </c>
       <c r="B5" s="68">
@@ -14620,37 +13830,37 @@
       <c r="I5" s="41"/>
       <c r="J5" s="38"/>
       <c r="K5" s="40"/>
-      <c r="M5" s="198">
+      <c r="M5" s="178">
         <v>80</v>
       </c>
-      <c r="N5" s="198">
+      <c r="N5" s="178">
         <v>5</v>
       </c>
-      <c r="O5" s="198"/>
-      <c r="P5" s="198"/>
-      <c r="Q5" s="198"/>
-      <c r="R5" s="198"/>
-      <c r="S5" s="198"/>
-      <c r="T5" s="198"/>
-      <c r="U5" s="198">
+      <c r="O5" s="178"/>
+      <c r="P5" s="178"/>
+      <c r="Q5" s="178"/>
+      <c r="R5" s="178"/>
+      <c r="S5" s="178"/>
+      <c r="T5" s="178"/>
+      <c r="U5" s="178">
         <v>80</v>
       </c>
-      <c r="V5" s="198">
+      <c r="V5" s="178">
         <v>5</v>
       </c>
-      <c r="W5" s="198"/>
-      <c r="X5" s="198"/>
-      <c r="Y5" s="198"/>
-      <c r="Z5" s="198"/>
-      <c r="AA5" s="198"/>
-      <c r="AB5" s="198"/>
-      <c r="AC5" s="198"/>
-      <c r="AD5" s="198"/>
-      <c r="AE5" s="198"/>
-      <c r="AF5" s="198"/>
+      <c r="W5" s="178"/>
+      <c r="X5" s="178"/>
+      <c r="Y5" s="178"/>
+      <c r="Z5" s="178"/>
+      <c r="AA5" s="178"/>
+      <c r="AB5" s="178"/>
+      <c r="AC5" s="178"/>
+      <c r="AD5" s="178"/>
+      <c r="AE5" s="178"/>
+      <c r="AF5" s="178"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="161" t="s">
+      <c r="A6" s="150" t="s">
         <v>89</v>
       </c>
       <c r="B6" s="69">
@@ -14665,37 +13875,37 @@
       <c r="I6" s="46"/>
       <c r="J6" s="43"/>
       <c r="K6" s="45"/>
-      <c r="M6" s="198">
+      <c r="M6" s="178">
         <v>80</v>
       </c>
-      <c r="N6" s="198">
+      <c r="N6" s="178">
         <v>5</v>
       </c>
-      <c r="O6" s="198"/>
-      <c r="P6" s="198"/>
-      <c r="Q6" s="198"/>
-      <c r="R6" s="198"/>
-      <c r="S6" s="198"/>
-      <c r="T6" s="198"/>
-      <c r="U6" s="198">
+      <c r="O6" s="178"/>
+      <c r="P6" s="178"/>
+      <c r="Q6" s="178"/>
+      <c r="R6" s="178"/>
+      <c r="S6" s="178"/>
+      <c r="T6" s="178"/>
+      <c r="U6" s="178">
         <v>80</v>
       </c>
-      <c r="V6" s="198">
+      <c r="V6" s="178">
         <v>5</v>
       </c>
-      <c r="W6" s="198"/>
-      <c r="X6" s="198"/>
-      <c r="Y6" s="198"/>
-      <c r="Z6" s="198"/>
-      <c r="AA6" s="198"/>
-      <c r="AB6" s="198"/>
-      <c r="AC6" s="198"/>
-      <c r="AD6" s="198"/>
-      <c r="AE6" s="198"/>
-      <c r="AF6" s="198"/>
+      <c r="W6" s="178"/>
+      <c r="X6" s="178"/>
+      <c r="Y6" s="178"/>
+      <c r="Z6" s="178"/>
+      <c r="AA6" s="178"/>
+      <c r="AB6" s="178"/>
+      <c r="AC6" s="178"/>
+      <c r="AD6" s="178"/>
+      <c r="AE6" s="178"/>
+      <c r="AF6" s="178"/>
     </row>
     <row r="7" spans="1:32" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="162"/>
+      <c r="A7" s="151"/>
       <c r="B7" s="70">
         <v>30</v>
       </c>
@@ -14708,37 +13918,37 @@
       <c r="I7" s="51"/>
       <c r="J7" s="48"/>
       <c r="K7" s="50"/>
-      <c r="M7" s="198">
+      <c r="M7" s="178">
         <v>80</v>
       </c>
-      <c r="N7" s="198">
+      <c r="N7" s="178">
         <v>5</v>
       </c>
-      <c r="O7" s="198"/>
-      <c r="P7" s="198"/>
-      <c r="Q7" s="198"/>
-      <c r="R7" s="198"/>
-      <c r="S7" s="198"/>
-      <c r="T7" s="198"/>
-      <c r="U7" s="198">
+      <c r="O7" s="178"/>
+      <c r="P7" s="178"/>
+      <c r="Q7" s="178"/>
+      <c r="R7" s="178"/>
+      <c r="S7" s="178"/>
+      <c r="T7" s="178"/>
+      <c r="U7" s="178">
         <v>80</v>
       </c>
-      <c r="V7" s="198">
+      <c r="V7" s="178">
         <v>5</v>
       </c>
-      <c r="W7" s="198"/>
-      <c r="X7" s="198"/>
-      <c r="Y7" s="198"/>
-      <c r="Z7" s="198"/>
-      <c r="AA7" s="198"/>
-      <c r="AB7" s="198"/>
-      <c r="AC7" s="198"/>
-      <c r="AD7" s="198"/>
-      <c r="AE7" s="198"/>
-      <c r="AF7" s="198"/>
+      <c r="W7" s="178"/>
+      <c r="X7" s="178"/>
+      <c r="Y7" s="178"/>
+      <c r="Z7" s="178"/>
+      <c r="AA7" s="178"/>
+      <c r="AB7" s="178"/>
+      <c r="AC7" s="178"/>
+      <c r="AD7" s="178"/>
+      <c r="AE7" s="178"/>
+      <c r="AF7" s="178"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A8" s="160" t="s">
+      <c r="A8" s="149" t="s">
         <v>108</v>
       </c>
       <c r="B8" s="68">
@@ -14753,37 +13963,37 @@
       <c r="I8" s="41"/>
       <c r="J8" s="38"/>
       <c r="K8" s="40"/>
-      <c r="M8" s="198">
+      <c r="M8" s="178">
         <v>80</v>
       </c>
-      <c r="N8" s="198">
+      <c r="N8" s="178">
         <v>5</v>
       </c>
-      <c r="O8" s="198"/>
-      <c r="P8" s="198"/>
-      <c r="Q8" s="198"/>
-      <c r="R8" s="198"/>
-      <c r="S8" s="198"/>
-      <c r="T8" s="198"/>
-      <c r="U8" s="198">
+      <c r="O8" s="178"/>
+      <c r="P8" s="178"/>
+      <c r="Q8" s="178"/>
+      <c r="R8" s="178"/>
+      <c r="S8" s="178"/>
+      <c r="T8" s="178"/>
+      <c r="U8" s="178">
         <v>80</v>
       </c>
-      <c r="V8" s="198">
+      <c r="V8" s="178">
         <v>5</v>
       </c>
-      <c r="W8" s="198"/>
-      <c r="X8" s="198"/>
-      <c r="Y8" s="198"/>
-      <c r="Z8" s="198"/>
-      <c r="AA8" s="198"/>
-      <c r="AB8" s="198"/>
-      <c r="AC8" s="198"/>
-      <c r="AD8" s="198"/>
-      <c r="AE8" s="198"/>
-      <c r="AF8" s="198"/>
+      <c r="W8" s="178"/>
+      <c r="X8" s="178"/>
+      <c r="Y8" s="178"/>
+      <c r="Z8" s="178"/>
+      <c r="AA8" s="178"/>
+      <c r="AB8" s="178"/>
+      <c r="AC8" s="178"/>
+      <c r="AD8" s="178"/>
+      <c r="AE8" s="178"/>
+      <c r="AF8" s="178"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A9" s="161" t="s">
+      <c r="A9" s="150" t="s">
         <v>89</v>
       </c>
       <c r="B9" s="69">
@@ -14798,37 +14008,37 @@
       <c r="I9" s="46"/>
       <c r="J9" s="43"/>
       <c r="K9" s="45"/>
-      <c r="M9" s="198">
+      <c r="M9" s="178">
         <v>80</v>
       </c>
-      <c r="N9" s="198">
+      <c r="N9" s="178">
         <v>5</v>
       </c>
-      <c r="O9" s="198"/>
-      <c r="P9" s="198"/>
-      <c r="Q9" s="198"/>
-      <c r="R9" s="198"/>
-      <c r="S9" s="198"/>
-      <c r="T9" s="198"/>
-      <c r="U9" s="198">
+      <c r="O9" s="178"/>
+      <c r="P9" s="178"/>
+      <c r="Q9" s="178"/>
+      <c r="R9" s="178"/>
+      <c r="S9" s="178"/>
+      <c r="T9" s="178"/>
+      <c r="U9" s="178">
         <v>80</v>
       </c>
-      <c r="V9" s="198">
+      <c r="V9" s="178">
         <v>5</v>
       </c>
-      <c r="W9" s="198"/>
-      <c r="X9" s="198"/>
-      <c r="Y9" s="198"/>
-      <c r="Z9" s="198"/>
-      <c r="AA9" s="198"/>
-      <c r="AB9" s="198"/>
-      <c r="AC9" s="198"/>
-      <c r="AD9" s="198"/>
-      <c r="AE9" s="198"/>
-      <c r="AF9" s="198"/>
+      <c r="W9" s="178"/>
+      <c r="X9" s="178"/>
+      <c r="Y9" s="178"/>
+      <c r="Z9" s="178"/>
+      <c r="AA9" s="178"/>
+      <c r="AB9" s="178"/>
+      <c r="AC9" s="178"/>
+      <c r="AD9" s="178"/>
+      <c r="AE9" s="178"/>
+      <c r="AF9" s="178"/>
     </row>
     <row r="10" spans="1:32" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="162"/>
+      <c r="A10" s="151"/>
       <c r="B10" s="70">
         <v>30</v>
       </c>
@@ -14841,37 +14051,37 @@
       <c r="I10" s="56"/>
       <c r="J10" s="53"/>
       <c r="K10" s="55"/>
-      <c r="M10" s="198">
+      <c r="M10" s="178">
         <v>100</v>
       </c>
-      <c r="N10" s="198">
+      <c r="N10" s="178">
         <v>5</v>
       </c>
-      <c r="O10" s="198"/>
-      <c r="P10" s="198"/>
-      <c r="Q10" s="198"/>
-      <c r="R10" s="198"/>
-      <c r="S10" s="198"/>
-      <c r="T10" s="198"/>
-      <c r="U10" s="198">
+      <c r="O10" s="178"/>
+      <c r="P10" s="178"/>
+      <c r="Q10" s="178"/>
+      <c r="R10" s="178"/>
+      <c r="S10" s="178"/>
+      <c r="T10" s="178"/>
+      <c r="U10" s="178">
         <v>100</v>
       </c>
-      <c r="V10" s="198">
+      <c r="V10" s="178">
         <v>5</v>
       </c>
-      <c r="W10" s="198"/>
-      <c r="X10" s="198"/>
-      <c r="Y10" s="198"/>
-      <c r="Z10" s="198"/>
-      <c r="AA10" s="198"/>
-      <c r="AB10" s="198"/>
-      <c r="AC10" s="198"/>
-      <c r="AD10" s="198"/>
-      <c r="AE10" s="198"/>
-      <c r="AF10" s="198"/>
+      <c r="W10" s="178"/>
+      <c r="X10" s="178"/>
+      <c r="Y10" s="178"/>
+      <c r="Z10" s="178"/>
+      <c r="AA10" s="178"/>
+      <c r="AB10" s="178"/>
+      <c r="AC10" s="178"/>
+      <c r="AD10" s="178"/>
+      <c r="AE10" s="178"/>
+      <c r="AF10" s="178"/>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A11" s="159" t="s">
+      <c r="A11" s="148" t="s">
         <v>109</v>
       </c>
       <c r="B11" s="68">
@@ -14886,37 +14096,37 @@
       <c r="I11" s="61"/>
       <c r="J11" s="58"/>
       <c r="K11" s="60"/>
-      <c r="M11" s="198">
+      <c r="M11" s="178">
         <v>120</v>
       </c>
-      <c r="N11" s="198">
+      <c r="N11" s="178">
         <v>5</v>
       </c>
-      <c r="O11" s="198"/>
-      <c r="P11" s="198"/>
-      <c r="Q11" s="198"/>
-      <c r="R11" s="198"/>
-      <c r="S11" s="198"/>
-      <c r="T11" s="198"/>
-      <c r="U11" s="198">
+      <c r="O11" s="178"/>
+      <c r="P11" s="178"/>
+      <c r="Q11" s="178"/>
+      <c r="R11" s="178"/>
+      <c r="S11" s="178"/>
+      <c r="T11" s="178"/>
+      <c r="U11" s="178">
         <v>120</v>
       </c>
-      <c r="V11" s="198">
+      <c r="V11" s="178">
         <v>5</v>
       </c>
-      <c r="W11" s="198"/>
-      <c r="X11" s="198"/>
-      <c r="Y11" s="198"/>
-      <c r="Z11" s="198"/>
-      <c r="AA11" s="198"/>
-      <c r="AB11" s="198"/>
-      <c r="AC11" s="198"/>
-      <c r="AD11" s="198"/>
-      <c r="AE11" s="198"/>
-      <c r="AF11" s="198"/>
+      <c r="W11" s="178"/>
+      <c r="X11" s="178"/>
+      <c r="Y11" s="178"/>
+      <c r="Z11" s="178"/>
+      <c r="AA11" s="178"/>
+      <c r="AB11" s="178"/>
+      <c r="AC11" s="178"/>
+      <c r="AD11" s="178"/>
+      <c r="AE11" s="178"/>
+      <c r="AF11" s="178"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A12" s="161" t="s">
+      <c r="A12" s="150" t="s">
         <v>89</v>
       </c>
       <c r="B12" s="69">
@@ -14931,37 +14141,37 @@
       <c r="I12" s="46"/>
       <c r="J12" s="43"/>
       <c r="K12" s="45"/>
-      <c r="M12" s="198">
+      <c r="M12" s="178">
         <v>80</v>
       </c>
-      <c r="N12" s="198">
+      <c r="N12" s="178">
         <v>1</v>
       </c>
-      <c r="O12" s="198"/>
-      <c r="P12" s="198"/>
-      <c r="Q12" s="198"/>
-      <c r="R12" s="198"/>
-      <c r="S12" s="198"/>
-      <c r="T12" s="198"/>
-      <c r="U12" s="198">
+      <c r="O12" s="178"/>
+      <c r="P12" s="178"/>
+      <c r="Q12" s="178"/>
+      <c r="R12" s="178"/>
+      <c r="S12" s="178"/>
+      <c r="T12" s="178"/>
+      <c r="U12" s="178">
         <v>80</v>
       </c>
-      <c r="V12" s="198">
+      <c r="V12" s="178">
         <v>5</v>
       </c>
-      <c r="W12" s="198"/>
-      <c r="X12" s="198"/>
-      <c r="Y12" s="198"/>
-      <c r="Z12" s="198"/>
-      <c r="AA12" s="198"/>
-      <c r="AB12" s="198"/>
-      <c r="AC12" s="198"/>
-      <c r="AD12" s="198"/>
-      <c r="AE12" s="198"/>
-      <c r="AF12" s="198"/>
+      <c r="W12" s="178"/>
+      <c r="X12" s="178"/>
+      <c r="Y12" s="178"/>
+      <c r="Z12" s="178"/>
+      <c r="AA12" s="178"/>
+      <c r="AB12" s="178"/>
+      <c r="AC12" s="178"/>
+      <c r="AD12" s="178"/>
+      <c r="AE12" s="178"/>
+      <c r="AF12" s="178"/>
     </row>
     <row r="13" spans="1:32" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="162"/>
+      <c r="A13" s="151"/>
       <c r="B13" s="70">
         <v>30</v>
       </c>
@@ -14974,37 +14184,37 @@
       <c r="I13" s="56"/>
       <c r="J13" s="53"/>
       <c r="K13" s="55"/>
-      <c r="M13" s="198">
+      <c r="M13" s="178">
         <v>80</v>
       </c>
-      <c r="N13" s="198">
+      <c r="N13" s="178">
         <v>10</v>
       </c>
-      <c r="O13" s="198"/>
-      <c r="P13" s="198"/>
-      <c r="Q13" s="198"/>
-      <c r="R13" s="198"/>
-      <c r="S13" s="198"/>
-      <c r="T13" s="198"/>
-      <c r="U13" s="198">
+      <c r="O13" s="178"/>
+      <c r="P13" s="178"/>
+      <c r="Q13" s="178"/>
+      <c r="R13" s="178"/>
+      <c r="S13" s="178"/>
+      <c r="T13" s="178"/>
+      <c r="U13" s="178">
         <v>80</v>
       </c>
-      <c r="V13" s="198">
+      <c r="V13" s="178">
         <v>5</v>
       </c>
-      <c r="W13" s="198"/>
-      <c r="X13" s="198"/>
-      <c r="Y13" s="198"/>
-      <c r="Z13" s="198"/>
-      <c r="AA13" s="198"/>
-      <c r="AB13" s="198"/>
-      <c r="AC13" s="198"/>
-      <c r="AD13" s="198"/>
-      <c r="AE13" s="198"/>
-      <c r="AF13" s="198"/>
+      <c r="W13" s="178"/>
+      <c r="X13" s="178"/>
+      <c r="Y13" s="178"/>
+      <c r="Z13" s="178"/>
+      <c r="AA13" s="178"/>
+      <c r="AB13" s="178"/>
+      <c r="AC13" s="178"/>
+      <c r="AD13" s="178"/>
+      <c r="AE13" s="178"/>
+      <c r="AF13" s="178"/>
     </row>
     <row r="14" spans="1:32" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="141"/>
+      <c r="A14" s="130"/>
       <c r="B14" s="67" t="s">
         <v>110</v>
       </c>
@@ -15017,34 +14227,34 @@
       <c r="I14" s="56"/>
       <c r="J14" s="53"/>
       <c r="K14" s="55"/>
-      <c r="M14" s="198">
+      <c r="M14" s="178">
         <v>80</v>
       </c>
-      <c r="N14" s="198">
+      <c r="N14" s="178">
         <v>7.5</v>
       </c>
-      <c r="O14" s="198"/>
-      <c r="P14" s="198"/>
-      <c r="Q14" s="198"/>
-      <c r="R14" s="198"/>
-      <c r="S14" s="198"/>
-      <c r="T14" s="198"/>
-      <c r="U14" s="198">
+      <c r="O14" s="178"/>
+      <c r="P14" s="178"/>
+      <c r="Q14" s="178"/>
+      <c r="R14" s="178"/>
+      <c r="S14" s="178"/>
+      <c r="T14" s="178"/>
+      <c r="U14" s="178">
         <v>80</v>
       </c>
-      <c r="V14" s="198">
+      <c r="V14" s="178">
         <v>5</v>
       </c>
-      <c r="W14" s="198"/>
-      <c r="X14" s="198"/>
-      <c r="Y14" s="198"/>
-      <c r="Z14" s="198"/>
-      <c r="AA14" s="198"/>
-      <c r="AB14" s="198"/>
-      <c r="AC14" s="198"/>
-      <c r="AD14" s="198"/>
-      <c r="AE14" s="198"/>
-      <c r="AF14" s="198"/>
+      <c r="W14" s="178"/>
+      <c r="X14" s="178"/>
+      <c r="Y14" s="178"/>
+      <c r="Z14" s="178"/>
+      <c r="AA14" s="178"/>
+      <c r="AB14" s="178"/>
+      <c r="AC14" s="178"/>
+      <c r="AD14" s="178"/>
+      <c r="AE14" s="178"/>
+      <c r="AF14" s="178"/>
     </row>
   </sheetData>
   <mergeCells count="3">
